--- a/output/경기동로_N_겨울_배출량/경기동로_N_겨울_배출량_PM25.xlsx
+++ b/output/경기동로_N_겨울_배출량/경기동로_N_겨울_배출량_PM25.xlsx
@@ -1,37 +1,93 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+  <si>
+    <t>DateTime</t>
+  </si>
+  <si>
+    <t>01_car_PM25</t>
+  </si>
+  <si>
+    <t>01_car_PM25_재비산</t>
+  </si>
+  <si>
+    <t>02_taxi_PM25</t>
+  </si>
+  <si>
+    <t>02_taxi_PM25_재비산</t>
+  </si>
+  <si>
+    <t>03_van_PM25</t>
+  </si>
+  <si>
+    <t>03_van_PM25_재비산</t>
+  </si>
+  <si>
+    <t>04_bus_PM25</t>
+  </si>
+  <si>
+    <t>04_bus_PM25_재비산</t>
+  </si>
+  <si>
+    <t>05_LightTruck_PM25</t>
+  </si>
+  <si>
+    <t>05_LightTruck_PM25_재비산</t>
+  </si>
+  <si>
+    <t>06_HeavyTruck_PM25</t>
+  </si>
+  <si>
+    <t>06_HeavyTruck_PM25_재비산</t>
+  </si>
+  <si>
+    <t>07_SpecialVehicle_PM25</t>
+  </si>
+  <si>
+    <t>07_SpecialVehicle_PM25_재비산</t>
+  </si>
+  <si>
+    <t>Total_PM25 (g/h)</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +102,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -420,2164 +418,2380 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:N49"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:P49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>DateTime</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>01_car_PM25</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>01_car_PM25_재비산</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>02_taxi_PM25</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>02_taxi_PM25_재비산</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>03_van_PM25</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>03_van_PM25_재비산</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>05_LightTruck_PM25</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>05_LightTruck_PM25_재비산</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>06_HeavyTruck_PM25</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>06_HeavyTruck_PM25_재비산</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>07_SpecialVehicle_PM25</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>07_SpecialVehicle_PM25_재비산</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>Total_PM25 (g/h)</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
+    <row r="1" spans="1:16">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
+      <c r="A2">
         <v>2024121610</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2">
         <v>1.253510440226977</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2">
         <v>5.637721450295054</v>
       </c>
-      <c r="D2" t="n">
-        <v>0.004263339246830574</v>
-      </c>
-      <c r="E2" t="n">
+      <c r="D2">
+        <v>0.004556043389277857</v>
+      </c>
+      <c r="E2">
         <v>0.4333608753878516</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F2">
         <v>2.121577371334442</v>
       </c>
-      <c r="G2" t="n">
+      <c r="G2">
         <v>2.451195623913799</v>
       </c>
-      <c r="H2" t="n">
+      <c r="H2">
+        <v>0.1456220297010347</v>
+      </c>
+      <c r="I2">
+        <v>1.079294470573873</v>
+      </c>
+      <c r="J2">
         <v>1.684681077255797</v>
       </c>
-      <c r="I2" t="n">
+      <c r="K2">
         <v>2.231243202408744</v>
       </c>
-      <c r="J2" t="n">
+      <c r="L2">
         <v>9.082484813179162</v>
       </c>
-      <c r="K2" t="n">
+      <c r="M2">
         <v>5.715178003481157</v>
       </c>
-      <c r="L2" t="n">
+      <c r="N2">
         <v>0.05499745021218189</v>
       </c>
-      <c r="M2" t="n">
+      <c r="O2">
         <v>0.2285726461612514</v>
       </c>
-      <c r="N2" t="n">
-        <v>30.89878629310325</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
+      <c r="P2">
+        <v>32.1239954975206</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
+      <c r="A3">
         <v>2024121611</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3">
         <v>1.305806071740871</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>5.872923482987511</v>
       </c>
-      <c r="D3" t="n">
-        <v>0.005232279984746614</v>
-      </c>
-      <c r="E3" t="n">
+      <c r="D3">
+        <v>0.005591507795931917</v>
+      </c>
+      <c r="E3">
         <v>0.5318519834305451</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F3">
         <v>2.037830896150188</v>
       </c>
-      <c r="G3" t="n">
+      <c r="G3">
         <v>2.354437901917201</v>
       </c>
-      <c r="H3" t="n">
+      <c r="H3">
+        <v>0.1632731848163115</v>
+      </c>
+      <c r="I3">
+        <v>1.210118042764645</v>
+      </c>
+      <c r="J3">
         <v>1.5696626904552</v>
       </c>
-      <c r="I3" t="n">
+      <c r="K3">
         <v>2.078909329151921</v>
       </c>
-      <c r="J3" t="n">
+      <c r="L3">
         <v>8.054278985272088</v>
       </c>
-      <c r="K3" t="n">
+      <c r="M3">
         <v>5.068176720068198</v>
       </c>
-      <c r="L3" t="n">
+      <c r="N3">
         <v>0.04230573093244763</v>
       </c>
-      <c r="M3" t="n">
+      <c r="O3">
         <v>0.1758251124317319</v>
       </c>
-      <c r="N3" t="n">
-        <v>29.09724118452265</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
+      <c r="P3">
+        <v>30.47099163991479</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
+      <c r="A4">
         <v>2024121612</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4">
         <v>1.382664802905231</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4">
         <v>6.21859919770219</v>
       </c>
-      <c r="D4" t="n">
-        <v>0.005038491837163405</v>
-      </c>
-      <c r="E4" t="n">
+      <c r="D4">
+        <v>0.005384414914601105</v>
+      </c>
+      <c r="E4">
         <v>0.5121537618220063</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F4">
         <v>2.065746387878273</v>
       </c>
-      <c r="G4" t="n">
+      <c r="G4">
         <v>2.386690475916066</v>
       </c>
-      <c r="H4" t="n">
+      <c r="H4">
+        <v>0.1500348184798539</v>
+      </c>
+      <c r="I4">
+        <v>1.112000363621566</v>
+      </c>
+      <c r="J4">
         <v>1.542599540619766</v>
       </c>
-      <c r="I4" t="n">
+      <c r="K4">
         <v>2.043066064856199</v>
       </c>
-      <c r="J4" t="n">
+      <c r="L4">
         <v>7.654421163308225</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M4">
         <v>4.816565109852046</v>
       </c>
-      <c r="L4" t="n">
+      <c r="N4">
         <v>0.07191974258516096</v>
       </c>
-      <c r="M4" t="n">
+      <c r="O4">
         <v>0.2989026911339442</v>
       </c>
-      <c r="N4" t="n">
-        <v>28.99836743041627</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
+      <c r="P4">
+        <v>30.26074853559512</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
+      <c r="A5">
         <v>2024121613</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5">
         <v>1.369194716000138</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5">
         <v>6.158016855948073</v>
       </c>
-      <c r="D5" t="n">
-        <v>0.004554021468205385</v>
-      </c>
-      <c r="E5" t="n">
+      <c r="D5">
+        <v>0.004866682711274075</v>
+      </c>
+      <c r="E5">
         <v>0.4629082078006597</v>
       </c>
-      <c r="F5" t="n">
+      <c r="F5">
         <v>1.730760487141256</v>
       </c>
-      <c r="G5" t="n">
+      <c r="G5">
         <v>1.999659587929677</v>
       </c>
-      <c r="H5" t="n">
+      <c r="H5">
+        <v>0.1632731848163115</v>
+      </c>
+      <c r="I5">
+        <v>1.210118042764645</v>
+      </c>
+      <c r="J5">
         <v>1.759104739303242</v>
       </c>
-      <c r="I5" t="n">
+      <c r="K5">
         <v>2.32981217922198</v>
       </c>
-      <c r="J5" t="n">
+      <c r="L5">
         <v>5.255274231525053</v>
       </c>
-      <c r="K5" t="n">
+      <c r="M5">
         <v>3.306895448555137</v>
       </c>
-      <c r="L5" t="n">
+      <c r="N5">
         <v>0.05499745021218189</v>
       </c>
-      <c r="M5" t="n">
+      <c r="O5">
         <v>0.2285726461612514</v>
       </c>
-      <c r="N5" t="n">
-        <v>24.65975057126685</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
+      <c r="P5">
+        <v>26.03345446009088</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="A6">
         <v>2024121614</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B6">
         <v>1.466654756548759</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6">
         <v>6.596347916874934</v>
       </c>
-      <c r="D6" t="n">
-        <v>0.004457127394413781</v>
-      </c>
-      <c r="E6" t="n">
+      <c r="D6">
+        <v>0.004763136270608669</v>
+      </c>
+      <c r="E6">
         <v>0.4530590969963904</v>
       </c>
-      <c r="F6" t="n">
+      <c r="F6">
         <v>2.40073228861529</v>
       </c>
-      <c r="G6" t="n">
+      <c r="G6">
         <v>2.773721363902457</v>
       </c>
-      <c r="H6" t="n">
+      <c r="H6">
+        <v>0.1676859735951308</v>
+      </c>
+      <c r="I6">
+        <v>1.242823935812338</v>
+      </c>
+      <c r="J6">
         <v>1.623788990126069</v>
       </c>
-      <c r="I6" t="n">
+      <c r="K6">
         <v>2.150595857743367</v>
       </c>
-      <c r="J6" t="n">
+      <c r="L6">
         <v>6.340602605426962</v>
       </c>
-      <c r="K6" t="n">
+      <c r="M6">
         <v>3.989841247713262</v>
       </c>
-      <c r="L6" t="n">
+      <c r="N6">
         <v>0.05499745021218189</v>
       </c>
-      <c r="M6" t="n">
+      <c r="O6">
         <v>0.2285726461612514</v>
       </c>
-      <c r="N6" t="n">
-        <v>28.08337134771534</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
+      <c r="P6">
+        <v>29.494187265999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
+      <c r="A7">
         <v>2024121615</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B7">
         <v>1.53638226523395</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7">
         <v>6.90995062713155</v>
       </c>
-      <c r="D7" t="n">
-        <v>0.004650915541996989</v>
-      </c>
-      <c r="E7" t="n">
+      <c r="D7">
+        <v>0.004970229151939481</v>
+      </c>
+      <c r="E7">
         <v>0.472757318604929</v>
       </c>
-      <c r="F7" t="n">
+      <c r="F7">
         <v>2.289070321702952</v>
       </c>
-      <c r="G7" t="n">
+      <c r="G7">
         <v>2.644711067906993</v>
       </c>
-      <c r="H7" t="n">
+      <c r="H7">
+        <v>0.1588603960374924</v>
+      </c>
+      <c r="I7">
+        <v>1.177412149716952</v>
+      </c>
+      <c r="J7">
         <v>1.576428477914059</v>
       </c>
-      <c r="I7" t="n">
+      <c r="K7">
         <v>2.087870145225852</v>
       </c>
-      <c r="J7" t="n">
+      <c r="L7">
         <v>5.426641869509562</v>
       </c>
-      <c r="K7" t="n">
+      <c r="M7">
         <v>3.414728995790629</v>
       </c>
-      <c r="L7" t="n">
+      <c r="N7">
         <v>0.06345859639867146</v>
       </c>
-      <c r="M7" t="n">
+      <c r="O7">
         <v>0.2637376686475978</v>
       </c>
-      <c r="N7" t="n">
-        <v>26.69038826960874</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
+      <c r="P7">
+        <v>28.02698012897313</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="A8">
         <v>2024121616</v>
       </c>
-      <c r="B8" t="n">
+      <c r="B8">
         <v>1.746357149342767</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8">
         <v>7.854322425063399</v>
       </c>
-      <c r="D8" t="n">
-        <v>0.003488186656497742</v>
-      </c>
-      <c r="E8" t="n">
+      <c r="D8">
+        <v>0.003727671863954611</v>
+      </c>
+      <c r="E8">
         <v>0.3545679889536968</v>
       </c>
-      <c r="F8" t="n">
+      <c r="F8">
         <v>2.45656327207146</v>
       </c>
-      <c r="G8" t="n">
+      <c r="G8">
         <v>2.838226511900187</v>
       </c>
-      <c r="H8" t="n">
+      <c r="H8">
+        <v>0.2338778052774193</v>
+      </c>
+      <c r="I8">
+        <v>1.733412331527735</v>
+      </c>
+      <c r="J8">
         <v>1.508770603325473</v>
       </c>
-      <c r="I8" t="n">
+      <c r="K8">
         <v>1.998261984486545</v>
       </c>
-      <c r="J8" t="n">
+      <c r="L8">
         <v>3.198862575710899</v>
       </c>
-      <c r="K8" t="n">
+      <c r="M8">
         <v>2.012892881729213</v>
       </c>
-      <c r="L8" t="n">
+      <c r="N8">
         <v>0.08038088877165048</v>
       </c>
-      <c r="M8" t="n">
+      <c r="O8">
         <v>0.3340677136202905</v>
       </c>
-      <c r="N8" t="n">
-        <v>24.38676218163208</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
+      <c r="P8">
+        <v>26.35429180364469</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="A9">
         <v>2024121617</v>
       </c>
-      <c r="B9" t="n">
+      <c r="B9">
         <v>1.908790550257135</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9">
         <v>8.584874193274832</v>
       </c>
-      <c r="D9" t="n">
-        <v>0.002809928139956515</v>
-      </c>
-      <c r="E9" t="n">
+      <c r="D9">
+        <v>0.003002846779296769</v>
+      </c>
+      <c r="E9">
         <v>0.2856242133238113</v>
       </c>
-      <c r="F9" t="n">
+      <c r="F9">
         <v>2.121577371334442</v>
       </c>
-      <c r="G9" t="n">
+      <c r="G9">
         <v>2.451195623913799</v>
       </c>
-      <c r="H9" t="n">
+      <c r="H9">
+        <v>0.3309591584114424</v>
+      </c>
+      <c r="I9">
+        <v>2.452941978576984</v>
+      </c>
+      <c r="J9">
         <v>1.096057568335097</v>
       </c>
-      <c r="I9" t="n">
+      <c r="K9">
         <v>1.451652203976773</v>
       </c>
-      <c r="J9" t="n">
+      <c r="L9">
         <v>2.456269477778013</v>
       </c>
-      <c r="K9" t="n">
+      <c r="M9">
         <v>1.545614177042075</v>
       </c>
-      <c r="L9" t="n">
+      <c r="N9">
         <v>0.02538343855946857</v>
       </c>
-      <c r="M9" t="n">
+      <c r="O9">
         <v>0.1054950674590391</v>
       </c>
-      <c r="N9" t="n">
-        <v>22.03534381339443</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
+      <c r="P9">
+        <v>24.8194378690222</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
+      <c r="A10">
         <v>2024121618</v>
       </c>
-      <c r="B10" t="n">
+      <c r="B10">
         <v>1.938900156280286</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C10">
         <v>8.720293545431096</v>
       </c>
-      <c r="D10" t="n">
-        <v>0.003294398508914534</v>
-      </c>
-      <c r="E10" t="n">
+      <c r="D10">
+        <v>0.003520578982623798</v>
+      </c>
+      <c r="E10">
         <v>0.3348697673451581</v>
       </c>
-      <c r="F10" t="n">
+      <c r="F10">
         <v>1.674929503685086</v>
       </c>
-      <c r="G10" t="n">
+      <c r="G10">
         <v>1.935154439931946</v>
       </c>
-      <c r="H10" t="n">
+      <c r="H10">
+        <v>0.3530231023055383</v>
+      </c>
+      <c r="I10">
+        <v>2.616471443815449</v>
+      </c>
+      <c r="J10">
         <v>0.5886235089207004</v>
       </c>
-      <c r="I10" t="n">
+      <c r="K10">
         <v>0.7795909984319704</v>
       </c>
-      <c r="J10" t="n">
+      <c r="L10">
         <v>1.313818557881263</v>
       </c>
-      <c r="K10" t="n">
+      <c r="M10">
         <v>0.8267238621387841</v>
       </c>
-      <c r="L10" t="n">
+      <c r="N10">
         <v>0.01269171927973428</v>
       </c>
-      <c r="M10" t="n">
+      <c r="O10">
         <v>0.05274753372951956</v>
       </c>
-      <c r="N10" t="n">
-        <v>18.18163799156446</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
+      <c r="P10">
+        <v>21.15135871815916</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="A11">
         <v>2024121619</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B11">
         <v>1.251925724120496</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C11">
         <v>5.630594115971038</v>
       </c>
-      <c r="D11" t="n">
-        <v>0.005135385910955009</v>
-      </c>
-      <c r="E11" t="n">
+      <c r="D11">
+        <v>0.005487961355266511</v>
+      </c>
+      <c r="E11">
         <v>0.5220028726262758</v>
       </c>
-      <c r="F11" t="n">
+      <c r="F11">
         <v>1.004957702211052</v>
       </c>
-      <c r="G11" t="n">
+      <c r="G11">
         <v>1.161092663959167</v>
       </c>
-      <c r="H11" t="n">
+      <c r="H11">
+        <v>0.2912440594020693</v>
+      </c>
+      <c r="I11">
+        <v>2.158588941147745</v>
+      </c>
+      <c r="J11">
         <v>0.2706314983543451</v>
       </c>
-      <c r="I11" t="n">
+      <c r="K11">
         <v>0.3584326429572277</v>
       </c>
-      <c r="J11" t="n">
+      <c r="L11">
         <v>0.9710832819122371</v>
       </c>
-      <c r="K11" t="n">
+      <c r="M11">
         <v>0.6110567676677968</v>
       </c>
-      <c r="L11" t="n">
+      <c r="N11">
         <v>0.01692229237297905</v>
       </c>
-      <c r="M11" t="n">
+      <c r="O11">
         <v>0.07033004497269275</v>
       </c>
-      <c r="N11" t="n">
-        <v>11.87416499303626</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
+      <c r="P11">
+        <v>14.32435056903039</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
+      <c r="A12">
         <v>2024121620</v>
       </c>
-      <c r="B12" t="n">
+      <c r="B12">
         <v>1.078399310460756</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C12">
         <v>4.850151007491511</v>
       </c>
-      <c r="D12" t="n">
-        <v>0.005716750353704632</v>
-      </c>
-      <c r="E12" t="n">
+      <c r="D12">
+        <v>0.006109239999258945</v>
+      </c>
+      <c r="E12">
         <v>0.581097537451892</v>
       </c>
-      <c r="F12" t="n">
+      <c r="F12">
         <v>0.837464751842543</v>
       </c>
-      <c r="G12" t="n">
+      <c r="G12">
         <v>0.9675772199659729</v>
       </c>
-      <c r="H12" t="n">
+      <c r="H12">
+        <v>0.2515289603926961</v>
+      </c>
+      <c r="I12">
+        <v>1.864235903718507</v>
+      </c>
+      <c r="J12">
         <v>0.3247577980252139</v>
       </c>
-      <c r="I12" t="n">
+      <c r="K12">
         <v>0.4301191715486734</v>
       </c>
-      <c r="J12" t="n">
+      <c r="L12">
         <v>0.8568381899225623</v>
       </c>
-      <c r="K12" t="n">
+      <c r="M12">
         <v>0.5391677361774678</v>
       </c>
-      <c r="L12" t="n">
+      <c r="N12">
         <v>0.01269171927973428</v>
       </c>
-      <c r="M12" t="n">
+      <c r="O12">
         <v>0.05274753372951956</v>
       </c>
-      <c r="N12" t="n">
-        <v>10.53672872624955</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
+      <c r="P12">
+        <v>12.65288608000631</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
+      <c r="A13">
         <v>2024121621</v>
       </c>
-      <c r="B13" t="n">
+      <c r="B13">
         <v>0.8208829431574894</v>
       </c>
-      <c r="C13" t="n">
+      <c r="C13">
         <v>3.691959179839237</v>
       </c>
-      <c r="D13" t="n">
-        <v>0.003197504435122931</v>
-      </c>
-      <c r="E13" t="n">
+      <c r="D13">
+        <v>0.003417032541958394</v>
+      </c>
+      <c r="E13">
         <v>0.3250206565408887</v>
       </c>
-      <c r="F13" t="n">
+      <c r="F13">
         <v>0.725802784930204</v>
       </c>
-      <c r="G13" t="n">
+      <c r="G13">
         <v>0.8385669239705097</v>
       </c>
-      <c r="H13" t="n">
+      <c r="H13">
+        <v>0.2029882838256847</v>
+      </c>
+      <c r="I13">
+        <v>1.504471080193884</v>
+      </c>
+      <c r="J13">
         <v>0.2232709861423346</v>
       </c>
-      <c r="I13" t="n">
+      <c r="K13">
         <v>0.2957069304397129</v>
       </c>
-      <c r="J13" t="n">
+      <c r="L13">
         <v>0.6283480059432123</v>
       </c>
-      <c r="K13" t="n">
+      <c r="M13">
         <v>0.3953896731968097</v>
       </c>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="n">
-        <v>7.948145588595522</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
+      <c r="P13">
+        <v>9.655824480721927</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
+      <c r="A14">
         <v>2024121622</v>
       </c>
-      <c r="B14" t="n">
+      <c r="B14">
         <v>0.5998150463033011</v>
       </c>
-      <c r="C14" t="n">
+      <c r="C14">
         <v>2.697696041639288</v>
       </c>
-      <c r="D14" t="n">
-        <v>0.003391292582706139</v>
-      </c>
-      <c r="E14" t="n">
+      <c r="D14">
+        <v>0.003624125423289206</v>
+      </c>
+      <c r="E14">
         <v>0.3447188781494274</v>
       </c>
-      <c r="F14" t="n">
+      <c r="F14">
         <v>0.5862253262897802</v>
       </c>
-      <c r="G14" t="n">
+      <c r="G14">
         <v>0.677304053976181</v>
       </c>
-      <c r="H14" t="n">
+      <c r="H14">
+        <v>0.1014941419128423</v>
+      </c>
+      <c r="I14">
+        <v>0.7522355400969418</v>
+      </c>
+      <c r="J14">
         <v>0.2232709861423346</v>
       </c>
-      <c r="I14" t="n">
+      <c r="K14">
         <v>0.2957069304397129</v>
       </c>
-      <c r="J14" t="n">
+      <c r="L14">
         <v>0.6854705519380497</v>
       </c>
-      <c r="K14" t="n">
+      <c r="M14">
         <v>0.4313341889419742</v>
       </c>
-      <c r="L14" t="n">
+      <c r="N14">
         <v>0.004230573093244762</v>
       </c>
-      <c r="M14" t="n">
+      <c r="O14">
         <v>0.01758251124317319</v>
       </c>
-      <c r="N14" t="n">
-        <v>6.566746380739174</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
+      <c r="P14">
+        <v>7.42070889558954</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
+      <c r="A15">
         <v>2024121623</v>
       </c>
-      <c r="B15" t="n">
+      <c r="B15">
         <v>0.3755777172361487</v>
       </c>
-      <c r="C15" t="n">
+      <c r="C15">
         <v>1.689178234791311</v>
       </c>
-      <c r="D15" t="n">
-        <v>0.0008720466641244355</v>
-      </c>
-      <c r="E15" t="n">
+      <c r="D15">
+        <v>0.0009319179659886527</v>
+      </c>
+      <c r="E15">
         <v>0.0886419972384242</v>
       </c>
-      <c r="F15" t="n">
+      <c r="F15">
         <v>0.251239425552763</v>
       </c>
-      <c r="G15" t="n">
+      <c r="G15">
         <v>0.2902731659897919</v>
       </c>
-      <c r="H15" t="n">
+      <c r="H15">
+        <v>0.09266856435520386</v>
+      </c>
+      <c r="I15">
+        <v>0.6868237540015556</v>
+      </c>
+      <c r="J15">
         <v>0.1217841742594552</v>
       </c>
-      <c r="I15" t="n">
+      <c r="K15">
         <v>0.1612946893307525</v>
       </c>
-      <c r="J15" t="n">
+      <c r="L15">
         <v>0.9710832819122371</v>
       </c>
-      <c r="K15" t="n">
+      <c r="M15">
         <v>0.6110567676677968</v>
       </c>
-      <c r="L15" t="n">
+      <c r="N15">
         <v>0.004230573093244762</v>
       </c>
-      <c r="M15" t="n">
+      <c r="O15">
         <v>0.01758251124317319</v>
       </c>
-      <c r="N15" t="n">
-        <v>4.582814584979222</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
+      <c r="P15">
+        <v>5.362366774637846</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
+      <c r="A16">
         <v>2024121700</v>
       </c>
-      <c r="B16" t="n">
+      <c r="B16">
         <v>0.263855231729193</v>
       </c>
-      <c r="C16" t="n">
+      <c r="C16">
         <v>1.186701164948327</v>
       </c>
-      <c r="D16" t="n">
-        <v>0.002034775549623683</v>
-      </c>
-      <c r="E16" t="n">
+      <c r="D16">
+        <v>0.002174475253973523</v>
+      </c>
+      <c r="E16">
         <v>0.2068313268896564</v>
       </c>
-      <c r="F16" t="n">
+      <c r="F16">
         <v>0.1674929503685086</v>
       </c>
-      <c r="G16" t="n">
+      <c r="G16">
         <v>0.1935154439931945</v>
       </c>
-      <c r="H16" t="n">
+      <c r="H16">
+        <v>0.04412788778819229</v>
+      </c>
+      <c r="I16">
+        <v>0.3270589304769311</v>
+      </c>
+      <c r="J16">
         <v>0.2503341359777691</v>
       </c>
-      <c r="I16" t="n">
+      <c r="K16">
         <v>0.3315501947354357</v>
       </c>
-      <c r="J16" t="n">
+      <c r="L16">
         <v>0.6283480059432123</v>
       </c>
-      <c r="K16" t="n">
+      <c r="M16">
         <v>0.3953896731968097</v>
       </c>
-      <c r="L16" t="n">
+      <c r="N16">
         <v>0.008461146186489524</v>
       </c>
-      <c r="M16" t="n">
+      <c r="O16">
         <v>0.03516502248634638</v>
       </c>
-      <c r="N16" t="n">
-        <v>3.669679072004565</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
+      <c r="P16">
+        <v>4.041005589974039</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
+      <c r="A17">
         <v>2024121701</v>
       </c>
-      <c r="B17" t="n">
+      <c r="B17">
         <v>0.1703569814467762</v>
       </c>
-      <c r="C17" t="n">
+      <c r="C17">
         <v>0.7661884398315022</v>
       </c>
-      <c r="D17" t="n">
-        <v>0.003003716287539723</v>
-      </c>
-      <c r="E17" t="n">
+      <c r="D17">
+        <v>0.003209939660627581</v>
+      </c>
+      <c r="E17">
         <v>0.3053224349323501</v>
       </c>
-      <c r="F17" t="n">
+      <c r="F17">
         <v>0.05583098345616953</v>
       </c>
-      <c r="G17" t="n">
+      <c r="G17">
         <v>0.06450514799773154</v>
       </c>
-      <c r="H17" t="n">
+      <c r="J17">
         <v>0.1826762613891828</v>
       </c>
-      <c r="I17" t="n">
+      <c r="K17">
         <v>0.2419420339961288</v>
       </c>
-      <c r="J17" t="n">
+      <c r="L17">
         <v>1.028205827907074</v>
       </c>
-      <c r="K17" t="n">
+      <c r="M17">
         <v>0.6470012834129614</v>
       </c>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="n">
-        <v>3.465033110657417</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
+      <c r="P17">
+        <v>3.465239334030505</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
+      <c r="A18">
         <v>2024121702</v>
       </c>
-      <c r="B18" t="n">
+      <c r="B18">
         <v>0.110137769400474</v>
       </c>
-      <c r="C18" t="n">
+      <c r="C18">
         <v>0.4953497355189713</v>
       </c>
-      <c r="D18" t="n">
-        <v>0.002034775549623683</v>
-      </c>
-      <c r="E18" t="n">
+      <c r="D18">
+        <v>0.002174475253973523</v>
+      </c>
+      <c r="E18">
         <v>0.2068313268896564</v>
       </c>
-      <c r="F18" t="n">
+      <c r="F18">
         <v>0.1954084420965933</v>
       </c>
-      <c r="G18" t="n">
+      <c r="G18">
         <v>0.2257680179920603</v>
       </c>
-      <c r="H18" t="n">
+      <c r="J18">
         <v>0.1217841742594552</v>
       </c>
-      <c r="I18" t="n">
+      <c r="K18">
         <v>0.1612946893307525</v>
       </c>
-      <c r="J18" t="n">
+      <c r="L18">
         <v>1.313818557881263</v>
       </c>
-      <c r="K18" t="n">
+      <c r="M18">
         <v>0.8267238621387841</v>
       </c>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="n">
-        <v>3.659151351057634</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
+      <c r="P18">
+        <v>3.659291050761984</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
+      <c r="A19">
         <v>2024121703</v>
       </c>
-      <c r="B19" t="n">
+      <c r="B19">
         <v>0.1236078563055679</v>
       </c>
-      <c r="C19" t="n">
+      <c r="C19">
         <v>0.5559320772730897</v>
       </c>
-      <c r="D19" t="n">
-        <v>0.001744093328248871</v>
-      </c>
-      <c r="E19" t="n">
+      <c r="D19">
+        <v>0.001863835931977305</v>
+      </c>
+      <c r="E19">
         <v>0.1772839944768484</v>
       </c>
-      <c r="F19" t="n">
+      <c r="F19">
         <v>0.1674929503685086</v>
       </c>
-      <c r="G19" t="n">
+      <c r="G19">
         <v>0.1935154439931945</v>
       </c>
-      <c r="H19" t="n">
+      <c r="H19">
+        <v>0.03530231023055385</v>
+      </c>
+      <c r="I19">
+        <v>0.2616471443815449</v>
+      </c>
+      <c r="J19">
         <v>0.1556131115537484</v>
       </c>
-      <c r="I19" t="n">
+      <c r="K19">
         <v>0.206098769700406</v>
       </c>
-      <c r="J19" t="n">
+      <c r="L19">
         <v>1.256696011886425</v>
       </c>
-      <c r="K19" t="n">
+      <c r="M19">
         <v>0.7907793463936195</v>
       </c>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="n">
-        <v>3.628763655279656</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
+      <c r="P19">
+        <v>3.925832852495483</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16">
+      <c r="A20">
         <v>2024121704</v>
       </c>
-      <c r="B20" t="n">
+      <c r="B20">
         <v>0.2210678968541889</v>
       </c>
-      <c r="C20" t="n">
+      <c r="C20">
         <v>0.9942631381999495</v>
       </c>
-      <c r="D20" t="n">
-        <v>0.001162728885499247</v>
-      </c>
-      <c r="E20" t="n">
+      <c r="D20">
+        <v>0.00124255728798487</v>
+      </c>
+      <c r="E20">
         <v>0.1181893296512323</v>
       </c>
-      <c r="F20" t="n">
+      <c r="F20">
         <v>0.3908168841931867</v>
       </c>
-      <c r="G20" t="n">
+      <c r="G20">
         <v>0.4515360359841206</v>
       </c>
-      <c r="H20" t="n">
+      <c r="H20">
+        <v>0.01765115511527693</v>
+      </c>
+      <c r="I20">
+        <v>0.1308235721907725</v>
+      </c>
+      <c r="J20">
         <v>0.3112262231074967</v>
       </c>
-      <c r="I20" t="n">
+      <c r="K20">
         <v>0.412197539400812</v>
       </c>
-      <c r="J20" t="n">
+      <c r="L20">
         <v>1.599431287855449</v>
       </c>
-      <c r="K20" t="n">
+      <c r="M20">
         <v>1.006446440864606</v>
       </c>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="inlineStr"/>
-      <c r="N20" t="n">
-        <v>5.506337504996542</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
+      <c r="P20">
+        <v>5.654892060705077</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16">
+      <c r="A21">
         <v>2024121705</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B21">
         <v>0.5316722537245903</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C21">
         <v>2.391220665706688</v>
       </c>
-      <c r="D21" t="n">
-        <v>0.0008720466641244355</v>
-      </c>
-      <c r="E21" t="n">
+      <c r="D21">
+        <v>0.0009319179659886527</v>
+      </c>
+      <c r="E21">
         <v>0.0886419972384242</v>
       </c>
-      <c r="F21" t="n">
+      <c r="F21">
         <v>0.837464751842543</v>
       </c>
-      <c r="G21" t="n">
+      <c r="G21">
         <v>0.9675772199659729</v>
       </c>
-      <c r="H21" t="n">
+      <c r="H21">
+        <v>0.1632731848163115</v>
+      </c>
+      <c r="I21">
+        <v>1.210118042764645</v>
+      </c>
+      <c r="J21">
         <v>0.554794571626407</v>
       </c>
-      <c r="I21" t="n">
+      <c r="K21">
         <v>0.7347869180623172</v>
       </c>
-      <c r="J21" t="n">
+      <c r="L21">
         <v>2.342024385788338</v>
       </c>
-      <c r="K21" t="n">
+      <c r="M21">
         <v>1.473725145551745</v>
       </c>
-      <c r="L21" t="n">
+      <c r="N21">
         <v>0.01269171927973428</v>
       </c>
-      <c r="M21" t="n">
+      <c r="O21">
         <v>0.05274753372951956</v>
       </c>
-      <c r="N21" t="n">
-        <v>9.988219209180404</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
+      <c r="P21">
+        <v>11.36167030806322</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16">
+      <c r="A22">
         <v>2024121706</v>
       </c>
-      <c r="B22" t="n">
+      <c r="B22">
         <v>1.010256517882046</v>
       </c>
-      <c r="C22" t="n">
+      <c r="C22">
         <v>4.543675631558905</v>
       </c>
-      <c r="D22" t="n">
-        <v>0.001259622959290851</v>
-      </c>
-      <c r="E22" t="n">
+      <c r="D22">
+        <v>0.001346103728650276</v>
+      </c>
+      <c r="E22">
         <v>0.1280384404555016</v>
       </c>
-      <c r="F22" t="n">
+      <c r="F22">
         <v>1.786591470597425</v>
       </c>
-      <c r="G22" t="n">
+      <c r="G22">
         <v>2.064164735927409</v>
       </c>
-      <c r="H22" t="n">
+      <c r="H22">
+        <v>0.4368660891031039</v>
+      </c>
+      <c r="I22">
+        <v>3.237883411721618</v>
+      </c>
+      <c r="J22">
         <v>0.953976031699066</v>
       </c>
-      <c r="I22" t="n">
+      <c r="K22">
         <v>1.263475066424228</v>
       </c>
-      <c r="J22" t="n">
+      <c r="L22">
         <v>4.112823311628298</v>
       </c>
-      <c r="K22" t="n">
+      <c r="M22">
         <v>2.588005133651845</v>
       </c>
-      <c r="L22" t="n">
+      <c r="N22">
         <v>0.04230573093244763</v>
       </c>
-      <c r="M22" t="n">
+      <c r="O22">
         <v>0.1758251124317319</v>
       </c>
-      <c r="N22" t="n">
-        <v>18.67039680614819</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="n">
+      <c r="P22">
+        <v>22.34523278774227</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16">
+      <c r="A23">
         <v>2024121707</v>
       </c>
-      <c r="B23" t="n">
+      <c r="B23">
         <v>1.625918725250162</v>
       </c>
-      <c r="C23" t="n">
+      <c r="C23">
         <v>7.312645016438336</v>
       </c>
-      <c r="D23" t="n">
-        <v>0.001356517033082455</v>
-      </c>
-      <c r="E23" t="n">
+      <c r="D23">
+        <v>0.001449650169315682</v>
+      </c>
+      <c r="E23">
         <v>0.137887551259771</v>
       </c>
-      <c r="F23" t="n">
+      <c r="F23">
         <v>1.395774586404239</v>
       </c>
-      <c r="G23" t="n">
+      <c r="G23">
         <v>1.612628699943288</v>
       </c>
-      <c r="H23" t="n">
+      <c r="H23">
+        <v>0.4324533003242848</v>
+      </c>
+      <c r="I23">
+        <v>3.205177518673925</v>
+      </c>
+      <c r="J23">
         <v>1.109589143252814</v>
       </c>
-      <c r="I23" t="n">
+      <c r="K23">
         <v>1.469573836124634</v>
       </c>
-      <c r="J23" t="n">
+      <c r="L23">
         <v>5.198151685530213</v>
       </c>
-      <c r="K23" t="n">
+      <c r="M23">
         <v>3.270950932809971</v>
       </c>
-      <c r="L23" t="n">
+      <c r="N23">
         <v>0.03807515783920287</v>
       </c>
-      <c r="M23" t="n">
+      <c r="O23">
         <v>0.1582426011885587</v>
       </c>
-      <c r="N23" t="n">
-        <v>23.33079445307428</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="n">
+      <c r="P23">
+        <v>26.96851840520871</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16">
+      <c r="A24">
         <v>2024121708</v>
       </c>
-      <c r="B24" t="n">
+      <c r="B24">
         <v>1.995949936113627</v>
       </c>
-      <c r="C24" t="n">
+      <c r="C24">
         <v>8.9768775810956</v>
       </c>
-      <c r="D24" t="n">
-        <v>0.002809928139956515</v>
-      </c>
-      <c r="E24" t="n">
+      <c r="D24">
+        <v>0.003002846779296769</v>
+      </c>
+      <c r="E24">
         <v>0.2856242133238113</v>
       </c>
-      <c r="F24" t="n">
+      <c r="F24">
         <v>2.037830896150188</v>
       </c>
-      <c r="G24" t="n">
+      <c r="G24">
         <v>2.354437901917201</v>
       </c>
-      <c r="H24" t="n">
+      <c r="H24">
+        <v>0.2647673267291539</v>
+      </c>
+      <c r="I24">
+        <v>1.962353582861587</v>
+      </c>
+      <c r="J24">
         <v>1.359923279230583</v>
       </c>
-      <c r="I24" t="n">
+      <c r="K24">
         <v>1.80112403086007</v>
       </c>
-      <c r="J24" t="n">
+      <c r="L24">
         <v>6.340602605426962</v>
       </c>
-      <c r="K24" t="n">
+      <c r="M24">
         <v>3.989841247713262</v>
       </c>
-      <c r="L24" t="n">
+      <c r="N24">
         <v>0.08461146186489527</v>
       </c>
-      <c r="M24" t="n">
+      <c r="O24">
         <v>0.3516502248634638</v>
       </c>
-      <c r="N24" t="n">
-        <v>29.58128330669962</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="n">
+      <c r="P24">
+        <v>31.8085971349297</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16">
+      <c r="A25">
         <v>2024121709</v>
       </c>
-      <c r="B25" t="n">
+      <c r="B25">
         <v>1.451599953537183</v>
       </c>
-      <c r="C25" t="n">
+      <c r="C25">
         <v>6.528638240796798</v>
       </c>
-      <c r="D25" t="n">
-        <v>0.004941597763371801</v>
-      </c>
-      <c r="E25" t="n">
+      <c r="D25">
+        <v>0.005280868473935698</v>
+      </c>
+      <c r="E25">
         <v>0.502304651017737</v>
       </c>
-      <c r="F25" t="n">
+      <c r="F25">
         <v>2.847380156264645</v>
       </c>
-      <c r="G25" t="n">
+      <c r="G25">
         <v>3.289762547884307</v>
       </c>
-      <c r="H25" t="n">
+      <c r="H25">
+        <v>0.2647673267291539</v>
+      </c>
+      <c r="I25">
+        <v>1.962353582861587</v>
+      </c>
+      <c r="J25">
         <v>1.529067965702049</v>
       </c>
-      <c r="I25" t="n">
+      <c r="K25">
         <v>2.025144432708337</v>
       </c>
-      <c r="J25" t="n">
+      <c r="L25">
         <v>8.454136807235949</v>
       </c>
-      <c r="K25" t="n">
+      <c r="M25">
         <v>5.319788330284347</v>
       </c>
-      <c r="L25" t="n">
+      <c r="N25">
         <v>0.1184560466108533</v>
       </c>
-      <c r="M25" t="n">
+      <c r="O25">
         <v>0.4923103148088493</v>
       </c>
-      <c r="N25" t="n">
-        <v>32.56353104461443</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="n">
+      <c r="P25">
+        <v>34.79099122491574</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16">
+      <c r="A26">
         <v>2024121710</v>
       </c>
-      <c r="B26" t="n">
+      <c r="B26">
         <v>1.228154982523271</v>
       </c>
-      <c r="C26" t="n">
+      <c r="C26">
         <v>5.523684101110829</v>
       </c>
-      <c r="D26" t="n">
-        <v>0.003294398508914534</v>
-      </c>
-      <c r="E26" t="n">
+      <c r="D26">
+        <v>0.003520578982623798</v>
+      </c>
+      <c r="E26">
         <v>0.3348697673451581</v>
       </c>
-      <c r="F26" t="n">
+      <c r="F26">
         <v>3.04278859836124</v>
       </c>
-      <c r="G26" t="n">
+      <c r="G26">
         <v>3.515530565876368</v>
       </c>
-      <c r="H26" t="n">
+      <c r="H26">
+        <v>0.1412092409222154</v>
+      </c>
+      <c r="I26">
+        <v>1.04658857752618</v>
+      </c>
+      <c r="J26">
         <v>1.644086352502645</v>
       </c>
-      <c r="I26" t="n">
+      <c r="K26">
         <v>2.177478305965159</v>
       </c>
-      <c r="J26" t="n">
+      <c r="L26">
         <v>9.88220045710689</v>
       </c>
-      <c r="K26" t="n">
+      <c r="M26">
         <v>6.218401223913459</v>
       </c>
-      <c r="L26" t="n">
+      <c r="N26">
         <v>0.05922802330542665</v>
       </c>
-      <c r="M26" t="n">
+      <c r="O26">
         <v>0.2461551574044246</v>
       </c>
-      <c r="N26" t="n">
-        <v>33.87587193392378</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="n">
+      <c r="P26">
+        <v>35.06389593284589</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16">
+      <c r="A27">
         <v>2024121711</v>
       </c>
-      <c r="B27" t="n">
+      <c r="B27">
         <v>1.279658255983924</v>
       </c>
-      <c r="C27" t="n">
+      <c r="C27">
         <v>5.755322466641282</v>
       </c>
-      <c r="D27" t="n">
-        <v>0.004069551099247367</v>
-      </c>
-      <c r="E27" t="n">
+      <c r="D27">
+        <v>0.004348950507947045</v>
+      </c>
+      <c r="E27">
         <v>0.4136626537793128</v>
       </c>
-      <c r="F27" t="n">
+      <c r="F27">
         <v>2.931126631448902</v>
       </c>
-      <c r="G27" t="n">
+      <c r="G27">
         <v>3.386520269880906</v>
       </c>
-      <c r="H27" t="n">
+      <c r="H27">
+        <v>0.1588603960374924</v>
+      </c>
+      <c r="I27">
+        <v>1.177412149716952</v>
+      </c>
+      <c r="J27">
         <v>1.529067965702049</v>
       </c>
-      <c r="I27" t="n">
+      <c r="K27">
         <v>2.025144432708337</v>
       </c>
-      <c r="J27" t="n">
+      <c r="L27">
         <v>8.796872083204976</v>
       </c>
-      <c r="K27" t="n">
+      <c r="M27">
         <v>5.535455424755336</v>
       </c>
-      <c r="L27" t="n">
+      <c r="N27">
         <v>0.04653630402569239</v>
       </c>
-      <c r="M27" t="n">
+      <c r="O27">
         <v>0.193407623674905</v>
       </c>
-      <c r="N27" t="n">
-        <v>31.89684366290487</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="n">
+      <c r="P27">
+        <v>33.23339560806802</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16">
+      <c r="A28">
         <v>2024121712</v>
       </c>
-      <c r="B28" t="n">
+      <c r="B28">
         <v>1.354932271041803</v>
       </c>
-      <c r="C28" t="n">
+      <c r="C28">
         <v>6.093870847031945</v>
       </c>
-      <c r="D28" t="n">
-        <v>0.003875762951664159</v>
-      </c>
-      <c r="E28" t="n">
+      <c r="D28">
+        <v>0.004141857626616234</v>
+      </c>
+      <c r="E28">
         <v>0.3939644321707741</v>
       </c>
-      <c r="F28" t="n">
+      <c r="F28">
         <v>2.986957614905069</v>
       </c>
-      <c r="G28" t="n">
+      <c r="G28">
         <v>3.451025417878636</v>
       </c>
-      <c r="H28" t="n">
+      <c r="H28">
+        <v>0.1456220297010347</v>
+      </c>
+      <c r="I28">
+        <v>1.079294470573873</v>
+      </c>
+      <c r="J28">
         <v>1.502004815866614</v>
       </c>
-      <c r="I28" t="n">
+      <c r="K28">
         <v>1.989301168412614</v>
       </c>
-      <c r="J28" t="n">
+      <c r="L28">
         <v>8.339891715246276</v>
       </c>
-      <c r="K28" t="n">
+      <c r="M28">
         <v>5.24789929879402</v>
       </c>
-      <c r="L28" t="n">
+      <c r="N28">
         <v>0.08038088877165048</v>
       </c>
-      <c r="M28" t="n">
+      <c r="O28">
         <v>0.3340677136202905</v>
       </c>
-      <c r="N28" t="n">
-        <v>31.77817194669136</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="n">
+      <c r="P28">
+        <v>33.00335454164122</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16">
+      <c r="A29">
         <v>2024121713</v>
       </c>
-      <c r="B29" t="n">
+      <c r="B29">
         <v>1.341462184136709</v>
       </c>
-      <c r="C29" t="n">
+      <c r="C29">
         <v>6.03328850527783</v>
       </c>
-      <c r="D29" t="n">
-        <v>0.003488186656497742</v>
-      </c>
-      <c r="E29" t="n">
+      <c r="D29">
+        <v>0.003727671863954611</v>
+      </c>
+      <c r="E29">
         <v>0.3545679889536968</v>
       </c>
-      <c r="F29" t="n">
+      <c r="F29">
         <v>2.484478763799543</v>
       </c>
-      <c r="G29" t="n">
+      <c r="G29">
         <v>2.870479085899052</v>
       </c>
-      <c r="H29" t="n">
+      <c r="H29">
+        <v>0.1588603960374924</v>
+      </c>
+      <c r="I29">
+        <v>1.177412149716952</v>
+      </c>
+      <c r="J29">
         <v>1.711744227091232</v>
       </c>
-      <c r="I29" t="n">
+      <c r="K29">
         <v>2.267086466704466</v>
       </c>
-      <c r="J29" t="n">
+      <c r="L29">
         <v>5.712254599483749</v>
       </c>
-      <c r="K29" t="n">
+      <c r="M29">
         <v>3.594451574516451</v>
       </c>
-      <c r="L29" t="n">
+      <c r="N29">
         <v>0.05922802330542665</v>
       </c>
-      <c r="M29" t="n">
+      <c r="O29">
         <v>0.2461551574044246</v>
       </c>
-      <c r="N29" t="n">
-        <v>26.67868476322908</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="n">
+      <c r="P29">
+        <v>28.01519679419098</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16">
+      <c r="A30">
         <v>2024121714</v>
       </c>
-      <c r="B30" t="n">
+      <c r="B30">
         <v>1.437337508578848</v>
       </c>
-      <c r="C30" t="n">
+      <c r="C30">
         <v>6.464492231880674</v>
       </c>
-      <c r="D30" t="n">
-        <v>0.003391292582706139</v>
-      </c>
-      <c r="E30" t="n">
+      <c r="D30">
+        <v>0.003624125423289206</v>
+      </c>
+      <c r="E30">
         <v>0.3447188781494274</v>
       </c>
-      <c r="F30" t="n">
+      <c r="F30">
         <v>3.461520974282512</v>
       </c>
-      <c r="G30" t="n">
+      <c r="G30">
         <v>3.999319175859354</v>
       </c>
-      <c r="H30" t="n">
+      <c r="H30">
+        <v>0.1632731848163115</v>
+      </c>
+      <c r="I30">
+        <v>1.210118042764645</v>
+      </c>
+      <c r="J30">
         <v>1.583194265372918</v>
       </c>
-      <c r="I30" t="n">
+      <c r="K30">
         <v>2.096830961299782</v>
       </c>
-      <c r="J30" t="n">
+      <c r="L30">
         <v>6.911828065375336</v>
       </c>
-      <c r="K30" t="n">
+      <c r="M30">
         <v>4.349286405164906</v>
       </c>
-      <c r="L30" t="n">
+      <c r="N30">
         <v>0.05922802330542665</v>
       </c>
-      <c r="M30" t="n">
+      <c r="O30">
         <v>0.2461551574044246</v>
       </c>
-      <c r="N30" t="n">
-        <v>30.95730293925632</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="n">
+      <c r="P30">
+        <v>32.33092699967786</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16">
+      <c r="A31">
         <v>2024121715</v>
       </c>
-      <c r="B31" t="n">
+      <c r="B31">
         <v>1.505480301157558</v>
       </c>
-      <c r="C31" t="n">
+      <c r="C31">
         <v>6.770967607813272</v>
       </c>
-      <c r="D31" t="n">
-        <v>0.003585080730289347</v>
-      </c>
-      <c r="E31" t="n">
+      <c r="D31">
+        <v>0.003831218304620018</v>
+      </c>
+      <c r="E31">
         <v>0.3644170997579661</v>
       </c>
-      <c r="F31" t="n">
+      <c r="F31">
         <v>3.294028023914002</v>
       </c>
-      <c r="G31" t="n">
+      <c r="G31">
         <v>3.80580373186616</v>
       </c>
-      <c r="H31" t="n">
+      <c r="H31">
+        <v>0.1544476072586731</v>
+      </c>
+      <c r="I31">
+        <v>1.144706256669259</v>
+      </c>
+      <c r="J31">
         <v>1.535833753160908</v>
       </c>
-      <c r="I31" t="n">
+      <c r="K31">
         <v>2.034105248782268</v>
       </c>
-      <c r="J31" t="n">
+      <c r="L31">
         <v>5.940744783463098</v>
       </c>
-      <c r="K31" t="n">
+      <c r="M31">
         <v>3.738229637497109</v>
       </c>
-      <c r="L31" t="n">
+      <c r="N31">
         <v>0.0676891694919162</v>
       </c>
-      <c r="M31" t="n">
+      <c r="O31">
         <v>0.281320179890771</v>
       </c>
-      <c r="N31" t="n">
-        <v>29.34220461752532</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="n">
+      <c r="P31">
+        <v>30.64160461902758</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16">
+      <c r="A32">
         <v>2024121716</v>
       </c>
-      <c r="B32" t="n">
+      <c r="B32">
         <v>1.711493395000171</v>
       </c>
-      <c r="C32" t="n">
+      <c r="C32">
         <v>7.697521069935091</v>
       </c>
-      <c r="D32" t="n">
-        <v>0.00271303406616491</v>
-      </c>
-      <c r="E32" t="n">
+      <c r="D32">
+        <v>0.002899300338631364</v>
+      </c>
+      <c r="E32">
         <v>0.275775102519542</v>
       </c>
-      <c r="F32" t="n">
+      <c r="F32">
         <v>3.545267449466766</v>
       </c>
-      <c r="G32" t="n">
+      <c r="G32">
         <v>4.096076897855951</v>
       </c>
-      <c r="H32" t="n">
+      <c r="H32">
+        <v>0.2250522277197807</v>
+      </c>
+      <c r="I32">
+        <v>1.668000545432349</v>
+      </c>
+      <c r="J32">
         <v>1.468175878572322</v>
       </c>
-      <c r="I32" t="n">
+      <c r="K32">
         <v>1.944497088042961</v>
       </c>
-      <c r="J32" t="n">
+      <c r="L32">
         <v>3.484475305685087</v>
       </c>
-      <c r="K32" t="n">
+      <c r="M32">
         <v>2.192615460455036</v>
       </c>
-      <c r="L32" t="n">
+      <c r="N32">
         <v>0.08884203495814001</v>
       </c>
-      <c r="M32" t="n">
+      <c r="O32">
         <v>0.3692327361066369</v>
       </c>
-      <c r="N32" t="n">
-        <v>26.87668545266387</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="n">
+      <c r="P32">
+        <v>28.76992449208847</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16">
+      <c r="A33">
         <v>2024121717</v>
       </c>
-      <c r="B33" t="n">
+      <c r="B33">
         <v>1.870757363701576</v>
       </c>
-      <c r="C33" t="n">
+      <c r="C33">
         <v>8.413818169498498</v>
       </c>
-      <c r="D33" t="n">
-        <v>0.002131669623415287</v>
-      </c>
-      <c r="E33" t="n">
+      <c r="D33">
+        <v>0.002278021694638929</v>
+      </c>
+      <c r="E33">
         <v>0.2166804376939258</v>
       </c>
-      <c r="F33" t="n">
+      <c r="F33">
         <v>3.04278859836124</v>
       </c>
-      <c r="G33" t="n">
+      <c r="G33">
         <v>3.515530565876368</v>
       </c>
-      <c r="H33" t="n">
+      <c r="H33">
+        <v>0.3221335808538038</v>
+      </c>
+      <c r="I33">
+        <v>2.387530192481598</v>
+      </c>
+      <c r="J33">
         <v>1.068994418499663</v>
       </c>
-      <c r="I33" t="n">
+      <c r="K33">
         <v>1.41580893968105</v>
       </c>
-      <c r="J33" t="n">
+      <c r="L33">
         <v>2.684759661757362</v>
       </c>
-      <c r="K33" t="n">
+      <c r="M33">
         <v>1.689392240022733</v>
       </c>
-      <c r="L33" t="n">
+      <c r="N33">
         <v>0.02961401165271333</v>
       </c>
-      <c r="M33" t="n">
+      <c r="O33">
         <v>0.1230775787022123</v>
       </c>
-      <c r="N33" t="n">
-        <v>24.07335365507076</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="n">
+      <c r="P33">
+        <v>26.78316378047738</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16">
+      <c r="A34">
         <v>2024121718</v>
       </c>
-      <c r="B34" t="n">
+      <c r="B34">
         <v>1.900074611671486</v>
       </c>
-      <c r="C34" t="n">
+      <c r="C34">
         <v>8.545673854492753</v>
       </c>
-      <c r="D34" t="n">
-        <v>0.002519245918581703</v>
-      </c>
-      <c r="E34" t="n">
+      <c r="D34">
+        <v>0.002692207457300552</v>
+      </c>
+      <c r="E34">
         <v>0.2560768809110032</v>
       </c>
-      <c r="F34" t="n">
+      <c r="F34">
         <v>2.40073228861529</v>
       </c>
-      <c r="G34" t="n">
+      <c r="G34">
         <v>2.773721363902457</v>
       </c>
-      <c r="H34" t="n">
+      <c r="H34">
+        <v>0.3441975247479001</v>
+      </c>
+      <c r="I34">
+        <v>2.551059657720063</v>
+      </c>
+      <c r="J34">
         <v>0.5750919340029829</v>
       </c>
-      <c r="I34" t="n">
+      <c r="K34">
         <v>0.7616693662841092</v>
       </c>
-      <c r="J34" t="n">
+      <c r="L34">
         <v>1.428063649870937</v>
       </c>
-      <c r="K34" t="n">
+      <c r="M34">
         <v>0.8986128936291128</v>
       </c>
-      <c r="L34" t="n">
+      <c r="N34">
         <v>0.01269171927973428</v>
       </c>
-      <c r="M34" t="n">
+      <c r="O34">
         <v>0.05274753372951956</v>
       </c>
-      <c r="N34" t="n">
-        <v>19.60767534230797</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="n">
+      <c r="P34">
+        <v>22.50310548631465</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16">
+      <c r="A35">
         <v>2024121719</v>
       </c>
-      <c r="B35" t="n">
+      <c r="B35">
         <v>1.226570266416789</v>
       </c>
-      <c r="C35" t="n">
+      <c r="C35">
         <v>5.516556766786814</v>
       </c>
-      <c r="D35" t="n">
-        <v>0.003972657025455762</v>
-      </c>
-      <c r="E35" t="n">
+      <c r="D35">
+        <v>0.00424540406728164</v>
+      </c>
+      <c r="E35">
         <v>0.4038135429750435</v>
       </c>
-      <c r="F35" t="n">
+      <c r="F35">
         <v>1.451605569860408</v>
       </c>
-      <c r="G35" t="n">
+      <c r="G35">
         <v>1.677133847941019</v>
       </c>
-      <c r="H35" t="n">
+      <c r="H35">
+        <v>0.2824184818444308</v>
+      </c>
+      <c r="I35">
+        <v>2.093177155052359</v>
+      </c>
+      <c r="J35">
         <v>0.2638657108954864</v>
       </c>
-      <c r="I35" t="n">
+      <c r="K35">
         <v>0.3494718268832971</v>
       </c>
-      <c r="J35" t="n">
+      <c r="L35">
         <v>1.085328373901912</v>
       </c>
-      <c r="K35" t="n">
+      <c r="M35">
         <v>0.6829457991581259</v>
       </c>
-      <c r="L35" t="n">
+      <c r="N35">
         <v>0.01692229237297905</v>
       </c>
-      <c r="M35" t="n">
+      <c r="O35">
         <v>0.07033004497269275</v>
       </c>
-      <c r="N35" t="n">
-        <v>12.74851669919002</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="n">
+      <c r="P35">
+        <v>15.12438508312864</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16">
+      <c r="A36">
         <v>2024121720</v>
       </c>
-      <c r="B36" t="n">
+      <c r="B36">
         <v>1.057005643023254</v>
       </c>
-      <c r="C36" t="n">
+      <c r="C36">
         <v>4.75393199411732</v>
       </c>
-      <c r="D36" t="n">
-        <v>0.004360233320622178</v>
-      </c>
-      <c r="E36" t="n">
+      <c r="D36">
+        <v>0.004659589829943264</v>
+      </c>
+      <c r="E36">
         <v>0.443209986192121</v>
       </c>
-      <c r="F36" t="n">
+      <c r="F36">
         <v>1.200366144307645</v>
       </c>
-      <c r="G36" t="n">
+      <c r="G36">
         <v>1.386860681951228</v>
       </c>
-      <c r="H36" t="n">
+      <c r="H36">
+        <v>0.2427033828350577</v>
+      </c>
+      <c r="I36">
+        <v>1.798824117623121</v>
+      </c>
+      <c r="J36">
         <v>0.3179920105663552</v>
       </c>
-      <c r="I36" t="n">
+      <c r="K36">
         <v>0.4211583554747427</v>
       </c>
-      <c r="J36" t="n">
+      <c r="L36">
         <v>0.9139607359173997</v>
       </c>
-      <c r="K36" t="n">
+      <c r="M36">
         <v>0.5751122519226324</v>
       </c>
-      <c r="L36" t="n">
+      <c r="N36">
         <v>0.01269171927973428</v>
       </c>
-      <c r="M36" t="n">
+      <c r="O36">
         <v>0.05274753372951956</v>
       </c>
-      <c r="N36" t="n">
-        <v>11.13939728980258</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="n">
+      <c r="P36">
+        <v>13.18122414677008</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16">
+      <c r="A37">
         <v>2024121721</v>
       </c>
-      <c r="B37" t="n">
+      <c r="B37">
         <v>0.8042434240394325</v>
       </c>
-      <c r="C37" t="n">
+      <c r="C37">
         <v>3.617122169437089</v>
       </c>
-      <c r="D37" t="n">
-        <v>0.0024223518447901</v>
-      </c>
-      <c r="E37" t="n">
+      <c r="D37">
+        <v>0.002588661016635147</v>
+      </c>
+      <c r="E37">
         <v>0.2462277701067338</v>
       </c>
-      <c r="F37" t="n">
+      <c r="F37">
         <v>1.032873193939136</v>
       </c>
-      <c r="G37" t="n">
+      <c r="G37">
         <v>1.193345237958033</v>
       </c>
-      <c r="H37" t="n">
+      <c r="H37">
+        <v>0.1985754950468654</v>
+      </c>
+      <c r="I37">
+        <v>1.47176518714619</v>
+      </c>
+      <c r="J37">
         <v>0.216505198683476</v>
       </c>
-      <c r="I37" t="n">
+      <c r="K37">
         <v>0.2867461143657822</v>
       </c>
-      <c r="J37" t="n">
+      <c r="L37">
         <v>0.6854705519380497</v>
       </c>
-      <c r="K37" t="n">
+      <c r="M37">
         <v>0.4313341889419742</v>
       </c>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="inlineStr"/>
-      <c r="N37" t="n">
-        <v>8.516290201254497</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="n">
+      <c r="P37">
+        <v>10.1867971926194</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16">
+      <c r="A38">
         <v>2024121722</v>
       </c>
-      <c r="B38" t="n">
+      <c r="B38">
         <v>0.587929675504689</v>
       </c>
-      <c r="C38" t="n">
+      <c r="C38">
         <v>2.644241034209184</v>
       </c>
-      <c r="D38" t="n">
-        <v>0.002616139992373307</v>
-      </c>
-      <c r="E38" t="n">
+      <c r="D38">
+        <v>0.002795753897965958</v>
+      </c>
+      <c r="E38">
         <v>0.2659259917152725</v>
       </c>
-      <c r="F38" t="n">
+      <c r="F38">
         <v>0.837464751842543</v>
       </c>
-      <c r="G38" t="n">
+      <c r="G38">
         <v>0.9675772199659729</v>
       </c>
-      <c r="H38" t="n">
+      <c r="H38">
+        <v>0.09708135313402307</v>
+      </c>
+      <c r="I38">
+        <v>0.7195296470492485</v>
+      </c>
+      <c r="J38">
         <v>0.216505198683476</v>
       </c>
-      <c r="I38" t="n">
+      <c r="K38">
         <v>0.2867461143657822</v>
       </c>
-      <c r="J38" t="n">
+      <c r="L38">
         <v>0.7425930979328872</v>
       </c>
-      <c r="K38" t="n">
+      <c r="M38">
         <v>0.4672787046871387</v>
       </c>
-      <c r="L38" t="n">
+      <c r="N38">
         <v>0.004230573093244762</v>
       </c>
-      <c r="M38" t="n">
+      <c r="O38">
         <v>0.01758251124317319</v>
       </c>
-      <c r="N38" t="n">
-        <v>7.040691013235737</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="n">
+      <c r="P38">
+        <v>7.8574816273246</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16">
+      <c r="A39">
         <v>2024121723</v>
       </c>
-      <c r="B39" t="n">
+      <c r="B39">
         <v>0.3676541367037406</v>
       </c>
-      <c r="C39" t="n">
+      <c r="C39">
         <v>1.653541563171241</v>
       </c>
-      <c r="D39" t="n">
-        <v>0.0006782585165412276</v>
-      </c>
-      <c r="E39" t="n">
+      <c r="D39">
+        <v>0.0007248250846578411</v>
+      </c>
+      <c r="E39">
         <v>0.06894377562988549</v>
       </c>
-      <c r="F39" t="n">
+      <c r="F39">
         <v>0.362901392465102</v>
       </c>
-      <c r="G39" t="n">
+      <c r="G39">
         <v>0.4192834619852548</v>
       </c>
-      <c r="H39" t="n">
+      <c r="H39">
+        <v>0.08825577557638459</v>
+      </c>
+      <c r="I39">
+        <v>0.6541178609538622</v>
+      </c>
+      <c r="J39">
         <v>0.1217841742594552</v>
       </c>
-      <c r="I39" t="n">
+      <c r="K39">
         <v>0.1612946893307525</v>
       </c>
-      <c r="J39" t="n">
+      <c r="L39">
         <v>1.085328373901912</v>
       </c>
-      <c r="K39" t="n">
+      <c r="M39">
         <v>0.6829457991581259</v>
       </c>
-      <c r="L39" t="n">
+      <c r="N39">
         <v>0.004230573093244762</v>
       </c>
-      <c r="M39" t="n">
+      <c r="O39">
         <v>0.01758251124317319</v>
       </c>
-      <c r="N39" t="n">
-        <v>4.946168709458427</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="n">
+      <c r="P39">
+        <v>5.688588912556791</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16">
+      <c r="A40">
         <v>2024121800</v>
       </c>
-      <c r="B40" t="n">
+      <c r="B40">
         <v>0.2583087253565075</v>
       </c>
-      <c r="C40" t="n">
+      <c r="C40">
         <v>1.161755494814278</v>
       </c>
-      <c r="D40" t="n">
-        <v>0.001550305180665663</v>
-      </c>
-      <c r="E40" t="n">
+      <c r="D40">
+        <v>0.001656743050646494</v>
+      </c>
+      <c r="E40">
         <v>0.1575857728683097</v>
       </c>
-      <c r="F40" t="n">
+      <c r="F40">
         <v>0.251239425552763</v>
       </c>
-      <c r="G40" t="n">
+      <c r="G40">
         <v>0.2902731659897919</v>
       </c>
-      <c r="H40" t="n">
+      <c r="H40">
+        <v>0.04412788778819229</v>
+      </c>
+      <c r="I40">
+        <v>0.3270589304769311</v>
+      </c>
+      <c r="J40">
         <v>0.2435683485189105</v>
       </c>
-      <c r="I40" t="n">
+      <c r="K40">
         <v>0.322589378661505</v>
       </c>
-      <c r="J40" t="n">
+      <c r="L40">
         <v>0.6854705519380497</v>
       </c>
-      <c r="K40" t="n">
+      <c r="M40">
         <v>0.4313341889419742</v>
       </c>
-      <c r="L40" t="n">
+      <c r="N40">
         <v>0.008461146186489524</v>
       </c>
-      <c r="M40" t="n">
+      <c r="O40">
         <v>0.03516502248634638</v>
       </c>
-      <c r="N40" t="n">
-        <v>3.84730152649559</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="n">
+      <c r="P40">
+        <v>4.218594782630695</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16">
+      <c r="A41">
         <v>2024121801</v>
       </c>
-      <c r="B41" t="n">
+      <c r="B41">
         <v>0.167187549233813</v>
       </c>
-      <c r="C41" t="n">
+      <c r="C41">
         <v>0.7519337711834736</v>
       </c>
-      <c r="D41" t="n">
-        <v>0.002325457770998495</v>
-      </c>
-      <c r="E41" t="n">
+      <c r="D41">
+        <v>0.002485114575969741</v>
+      </c>
+      <c r="E41">
         <v>0.2363786593024645</v>
       </c>
-      <c r="F41" t="n">
+      <c r="F41">
         <v>0.08374647518425431</v>
       </c>
-      <c r="G41" t="n">
+      <c r="G41">
         <v>0.09675772199659724</v>
       </c>
-      <c r="H41" t="n">
+      <c r="J41">
         <v>0.1759104739303242</v>
       </c>
-      <c r="I41" t="n">
+      <c r="K41">
         <v>0.2329812179221981</v>
       </c>
-      <c r="J41" t="n">
+      <c r="L41">
         <v>1.14245091989675</v>
       </c>
-      <c r="K41" t="n">
+      <c r="M41">
         <v>0.7188903149032903</v>
       </c>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="inlineStr"/>
-      <c r="N41" t="n">
-        <v>3.608562561324164</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="n">
+      <c r="P41">
+        <v>3.608722218129135</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16">
+      <c r="A42">
         <v>2024121802</v>
       </c>
-      <c r="B42" t="n">
+      <c r="B42">
         <v>0.1077606952407516</v>
       </c>
-      <c r="C42" t="n">
+      <c r="C42">
         <v>0.4846587340329501</v>
       </c>
-      <c r="D42" t="n">
-        <v>0.001550305180665663</v>
-      </c>
-      <c r="E42" t="n">
+      <c r="D42">
+        <v>0.001656743050646494</v>
+      </c>
+      <c r="E42">
         <v>0.1575857728683097</v>
       </c>
-      <c r="F42" t="n">
+      <c r="F42">
         <v>0.2791549172808477</v>
       </c>
-      <c r="G42" t="n">
+      <c r="G42">
         <v>0.3225257399886576</v>
       </c>
-      <c r="H42" t="n">
+      <c r="J42">
         <v>0.1217841742594552</v>
       </c>
-      <c r="I42" t="n">
+      <c r="K42">
         <v>0.1612946893307525</v>
       </c>
-      <c r="J42" t="n">
+      <c r="L42">
         <v>1.428063649870937</v>
       </c>
-      <c r="K42" t="n">
+      <c r="M42">
         <v>0.8986128936291128</v>
       </c>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="inlineStr"/>
-      <c r="N42" t="n">
-        <v>3.96299157168244</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="n">
+      <c r="P42">
+        <v>3.963098009552421</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16">
+      <c r="A43">
         <v>2024121803</v>
       </c>
-      <c r="B43" t="n">
+      <c r="B43">
         <v>0.1212307821458455</v>
       </c>
-      <c r="C43" t="n">
+      <c r="C43">
         <v>0.545241075787069</v>
       </c>
-      <c r="D43" t="n">
-        <v>0.001356517033082455</v>
-      </c>
-      <c r="E43" t="n">
+      <c r="D43">
+        <v>0.001449650169315682</v>
+      </c>
+      <c r="E43">
         <v>0.137887551259771</v>
       </c>
-      <c r="F43" t="n">
+      <c r="F43">
         <v>0.251239425552763</v>
       </c>
-      <c r="G43" t="n">
+      <c r="G43">
         <v>0.2902731659897919</v>
       </c>
-      <c r="H43" t="n">
+      <c r="H43">
+        <v>0.03530231023055385</v>
+      </c>
+      <c r="I43">
+        <v>0.2616471443815449</v>
+      </c>
+      <c r="J43">
         <v>0.1488473240948897</v>
       </c>
-      <c r="I43" t="n">
+      <c r="K43">
         <v>0.1971379536264753</v>
       </c>
-      <c r="J43" t="n">
+      <c r="L43">
         <v>1.370941103876099</v>
       </c>
-      <c r="K43" t="n">
+      <c r="M43">
         <v>0.8626683778839483</v>
       </c>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="inlineStr"/>
-      <c r="N43" t="n">
-        <v>3.926823277249735</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="n">
+      <c r="P43">
+        <v>4.223865864998068</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16">
+      <c r="A44">
         <v>2024121804</v>
       </c>
-      <c r="B44" t="n">
+      <c r="B44">
         <v>0.2163137485347439</v>
       </c>
-      <c r="C44" t="n">
+      <c r="C44">
         <v>0.9728811352279072</v>
       </c>
-      <c r="D44" t="n">
-        <v>0.0008720466641244355</v>
-      </c>
-      <c r="E44" t="n">
+      <c r="D44">
+        <v>0.0009319179659886527</v>
+      </c>
+      <c r="E44">
         <v>0.0886419972384242</v>
       </c>
-      <c r="F44" t="n">
+      <c r="F44">
         <v>0.5583098345616955</v>
       </c>
-      <c r="G44" t="n">
+      <c r="G44">
         <v>0.6450514799773152</v>
       </c>
-      <c r="H44" t="n">
+      <c r="H44">
+        <v>0.01765115511527693</v>
+      </c>
+      <c r="I44">
+        <v>0.1308235721907725</v>
+      </c>
+      <c r="J44">
         <v>0.3044604356486381</v>
       </c>
-      <c r="I44" t="n">
+      <c r="K44">
         <v>0.4032367233268813</v>
       </c>
-      <c r="J44" t="n">
+      <c r="L44">
         <v>1.770798925839962</v>
       </c>
-      <c r="K44" t="n">
+      <c r="M44">
         <v>1.1142799881001</v>
       </c>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="inlineStr"/>
-      <c r="N44" t="n">
-        <v>6.074846315119792</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="n">
+      <c r="P44">
+        <v>6.223380913727706</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16">
+      <c r="A45">
         <v>2024121805</v>
       </c>
-      <c r="B45" t="n">
+      <c r="B45">
         <v>0.5205792409792185</v>
       </c>
-      <c r="C45" t="n">
+      <c r="C45">
         <v>2.34132932543859</v>
       </c>
-      <c r="D45" t="n">
-        <v>0.0006782585165412276</v>
-      </c>
-      <c r="E45" t="n">
+      <c r="D45">
+        <v>0.0007248250846578411</v>
+      </c>
+      <c r="E45">
         <v>0.06894377562988549</v>
       </c>
-      <c r="F45" t="n">
+      <c r="F45">
         <v>1.200366144307645</v>
       </c>
-      <c r="G45" t="n">
+      <c r="G45">
         <v>1.386860681951228</v>
       </c>
-      <c r="H45" t="n">
+      <c r="H45">
+        <v>0.1588603960374924</v>
+      </c>
+      <c r="I45">
+        <v>1.177412149716952</v>
+      </c>
+      <c r="J45">
         <v>0.5412629967086902</v>
       </c>
-      <c r="I45" t="n">
+      <c r="K45">
         <v>0.7168652859144554</v>
       </c>
-      <c r="J45" t="n">
+      <c r="L45">
         <v>2.570514569767688</v>
       </c>
-      <c r="K45" t="n">
+      <c r="M45">
         <v>1.617503208532403</v>
       </c>
-      <c r="L45" t="n">
+      <c r="N45">
         <v>0.01269171927973428</v>
       </c>
-      <c r="M45" t="n">
+      <c r="O45">
         <v>0.05274753372951956</v>
       </c>
-      <c r="N45" t="n">
-        <v>11.0303427407556</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="n">
+      <c r="P45">
+        <v>12.36666185307816</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16">
+      <c r="A46">
         <v>2024121806</v>
       </c>
-      <c r="B46" t="n">
+      <c r="B46">
         <v>0.9896552084977842</v>
       </c>
-      <c r="C46" t="n">
+      <c r="C46">
         <v>4.451020285346726</v>
       </c>
-      <c r="D46" t="n">
-        <v>0.0009689407379160396</v>
-      </c>
-      <c r="E46" t="n">
+      <c r="D46">
+        <v>0.001035464406654059</v>
+      </c>
+      <c r="E46">
         <v>0.09849110804269354</v>
       </c>
-      <c r="F46" t="n">
+      <c r="F46">
         <v>2.568225238983799</v>
       </c>
-      <c r="G46" t="n">
+      <c r="G46">
         <v>2.96723680789565</v>
       </c>
-      <c r="H46" t="n">
+      <c r="H46">
+        <v>0.4236277227666461</v>
+      </c>
+      <c r="I46">
+        <v>3.139765732578539</v>
+      </c>
+      <c r="J46">
         <v>0.9269128818636313</v>
       </c>
-      <c r="I46" t="n">
+      <c r="K46">
         <v>1.227631802128505</v>
       </c>
-      <c r="J46" t="n">
+      <c r="L46">
         <v>4.455558587597324</v>
       </c>
-      <c r="K46" t="n">
+      <c r="M46">
         <v>2.803672228122832</v>
       </c>
-      <c r="L46" t="n">
+      <c r="N46">
         <v>0.04653630402569239</v>
       </c>
-      <c r="M46" t="n">
+      <c r="O46">
         <v>0.193407623674905</v>
       </c>
-      <c r="N46" t="n">
-        <v>20.72931701691746</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="n">
+      <c r="P46">
+        <v>24.29277699593138</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16">
+      <c r="A47">
         <v>2024121807</v>
       </c>
-      <c r="B47" t="n">
+      <c r="B47">
         <v>1.59343204506729</v>
       </c>
-      <c r="C47" t="n">
+      <c r="C47">
         <v>7.166534662796049</v>
       </c>
-      <c r="D47" t="n">
-        <v>0.001065834811707643</v>
-      </c>
-      <c r="E47" t="n">
+      <c r="D47">
+        <v>0.001139010847319464</v>
+      </c>
+      <c r="E47">
         <v>0.1083402188469629</v>
       </c>
-      <c r="F47" t="n">
+      <c r="F47">
         <v>2.009915404422104</v>
       </c>
-      <c r="G47" t="n">
+      <c r="G47">
         <v>2.322185327918335</v>
       </c>
-      <c r="H47" t="n">
+      <c r="H47">
+        <v>0.419214933987827</v>
+      </c>
+      <c r="I47">
+        <v>3.107059839530845</v>
+      </c>
+      <c r="J47">
         <v>1.08252599341738</v>
       </c>
-      <c r="I47" t="n">
+      <c r="K47">
         <v>1.433730571828911</v>
       </c>
-      <c r="J47" t="n">
+      <c r="L47">
         <v>5.65513205348891</v>
       </c>
-      <c r="K47" t="n">
+      <c r="M47">
         <v>3.558507058771288</v>
       </c>
-      <c r="L47" t="n">
+      <c r="N47">
         <v>0.04230573093244763</v>
       </c>
-      <c r="M47" t="n">
+      <c r="O47">
         <v>0.1758251124317319</v>
       </c>
-      <c r="N47" t="n">
-        <v>25.14950001473311</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="n">
+      <c r="P47">
+        <v>28.6758479642874</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16">
+      <c r="A48">
         <v>2024121808</v>
       </c>
-      <c r="B48" t="n">
+      <c r="B48">
         <v>1.955539675398344</v>
       </c>
-      <c r="C48" t="n">
+      <c r="C48">
         <v>8.795130555833243</v>
       </c>
-      <c r="D48" t="n">
-        <v>0.002131669623415287</v>
-      </c>
-      <c r="E48" t="n">
+      <c r="D48">
+        <v>0.002278021694638929</v>
+      </c>
+      <c r="E48">
         <v>0.2166804376939258</v>
       </c>
-      <c r="F48" t="n">
+      <c r="F48">
         <v>2.931126631448902</v>
       </c>
-      <c r="G48" t="n">
+      <c r="G48">
         <v>3.386520269880906</v>
       </c>
-      <c r="H48" t="n">
+      <c r="H48">
+        <v>0.2559417491715154</v>
+      </c>
+      <c r="I48">
+        <v>1.896941796766201</v>
+      </c>
+      <c r="J48">
         <v>1.32609434193629</v>
       </c>
-      <c r="I48" t="n">
+      <c r="K48">
         <v>1.756319950490416</v>
       </c>
-      <c r="J48" t="n">
+      <c r="L48">
         <v>6.911828065375336</v>
       </c>
-      <c r="K48" t="n">
+      <c r="M48">
         <v>4.349286405164906</v>
       </c>
-      <c r="L48" t="n">
+      <c r="N48">
         <v>0.09307260805138477</v>
       </c>
-      <c r="M48" t="n">
+      <c r="O48">
         <v>0.3868152473498101</v>
       </c>
-      <c r="N48" t="n">
-        <v>32.11054585824687</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="n">
+      <c r="P48">
+        <v>34.26357575625582</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16">
+      <c r="A49">
         <v>2024121809</v>
       </c>
-      <c r="B49" t="n">
+      <c r="B49">
         <v>1.422282705567272</v>
       </c>
-      <c r="C49" t="n">
+      <c r="C49">
         <v>6.396782555802541</v>
       </c>
-      <c r="D49" t="n">
-        <v>0.003778868877872554</v>
-      </c>
-      <c r="E49" t="n">
+      <c r="D49">
+        <v>0.004038311185950829</v>
+      </c>
+      <c r="E49">
         <v>0.3841153213665048</v>
       </c>
-      <c r="F49" t="n">
+      <c r="F49">
         <v>4.10357728402846</v>
       </c>
-      <c r="G49" t="n">
+      <c r="G49">
         <v>4.741128377833267</v>
       </c>
-      <c r="H49" t="n">
+      <c r="H49">
+        <v>0.2559417491715154</v>
+      </c>
+      <c r="I49">
+        <v>1.896941796766201</v>
+      </c>
+      <c r="J49">
         <v>1.488473240948897</v>
       </c>
-      <c r="I49" t="n">
+      <c r="K49">
         <v>1.971379536264753</v>
       </c>
-      <c r="J49" t="n">
+      <c r="L49">
         <v>9.196729905168839</v>
       </c>
-      <c r="K49" t="n">
+      <c r="M49">
         <v>5.787067034971488</v>
       </c>
-      <c r="L49" t="n">
+      <c r="N49">
         <v>0.1311477658905876</v>
       </c>
-      <c r="M49" t="n">
+      <c r="O49">
         <v>0.5450578485383688</v>
       </c>
-      <c r="N49" t="n">
-        <v>36.17152044525885</v>
+      <c r="P49">
+        <v>38.32466343350464</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/output/경기동로_N_겨울_배출량/경기동로_N_겨울_배출량_PM25.xlsx
+++ b/output/경기동로_N_겨울_배출량/경기동로_N_겨울_배출량_PM25.xlsx
@@ -480,49 +480,49 @@
         <v>2024121610</v>
       </c>
       <c r="B2">
-        <v>1.253510440226977</v>
+        <v>3.855855308530892</v>
       </c>
       <c r="C2">
-        <v>5.637721450295054</v>
+        <v>17.34188841554639</v>
       </c>
       <c r="D2">
-        <v>0.004556043389277857</v>
+        <v>0.01401459734572543</v>
       </c>
       <c r="E2">
-        <v>0.4333608753878516</v>
+        <v>1.333037825812821</v>
       </c>
       <c r="F2">
-        <v>2.121577371334442</v>
+        <v>6.526068796234084</v>
       </c>
       <c r="G2">
-        <v>2.451195623913799</v>
+        <v>7.539989580784269</v>
       </c>
       <c r="H2">
-        <v>0.1456220297010347</v>
+        <v>0.4479400077115475</v>
       </c>
       <c r="I2">
-        <v>1.079294470573873</v>
+        <v>3.319959036860315</v>
       </c>
       <c r="J2">
-        <v>1.684681077255797</v>
+        <v>5.182155861216502</v>
       </c>
       <c r="K2">
-        <v>2.231243202408744</v>
+        <v>6.863405896382787</v>
       </c>
       <c r="L2">
-        <v>9.082484813179162</v>
+        <v>27.93813769529256</v>
       </c>
       <c r="M2">
-        <v>5.715178003481157</v>
+        <v>17.58014830728615</v>
       </c>
       <c r="N2">
-        <v>0.05499745021218189</v>
+        <v>0.1691746662420349</v>
       </c>
       <c r="O2">
-        <v>0.2285726461612514</v>
+        <v>0.7030998887621764</v>
       </c>
       <c r="P2">
-        <v>32.1239954975206</v>
+        <v>98.81487588400826</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -530,49 +530,49 @@
         <v>2024121611</v>
       </c>
       <c r="B3">
-        <v>1.305806071740871</v>
+        <v>4.016719057180095</v>
       </c>
       <c r="C3">
-        <v>5.872923482987511</v>
+        <v>18.06538059976007</v>
       </c>
       <c r="D3">
-        <v>0.005591507795931917</v>
+        <v>0.01719973310611757</v>
       </c>
       <c r="E3">
-        <v>0.5318519834305451</v>
+        <v>1.636000968043008</v>
       </c>
       <c r="F3">
-        <v>2.037830896150188</v>
+        <v>6.268460817435371</v>
       </c>
       <c r="G3">
-        <v>2.354437901917201</v>
+        <v>7.242358413121732</v>
       </c>
       <c r="H3">
-        <v>0.1632731848163115</v>
+        <v>0.5022357662220382</v>
       </c>
       <c r="I3">
-        <v>1.210118042764645</v>
+        <v>3.722378314055505</v>
       </c>
       <c r="J3">
-        <v>1.5696626904552</v>
+        <v>4.828354055430636</v>
       </c>
       <c r="K3">
-        <v>2.078909329151921</v>
+        <v>6.394819951649827</v>
       </c>
       <c r="L3">
-        <v>8.054278985272088</v>
+        <v>24.77532965431603</v>
       </c>
       <c r="M3">
-        <v>5.068176720068198</v>
+        <v>15.58994283853677</v>
       </c>
       <c r="N3">
-        <v>0.04230573093244763</v>
+        <v>0.1301343586477191</v>
       </c>
       <c r="O3">
-        <v>0.1758251124317319</v>
+        <v>0.5408460682785973</v>
       </c>
       <c r="P3">
-        <v>30.47099163991479</v>
+        <v>93.73016059578352</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -580,49 +580,49 @@
         <v>2024121612</v>
       </c>
       <c r="B4">
-        <v>1.382664802905231</v>
+        <v>4.253140021103923</v>
       </c>
       <c r="C4">
-        <v>6.21859919770219</v>
+        <v>19.12869487049838</v>
       </c>
       <c r="D4">
-        <v>0.005384414914601105</v>
+        <v>0.01656270595403914</v>
       </c>
       <c r="E4">
-        <v>0.5121537618220063</v>
+        <v>1.57540833959697</v>
       </c>
       <c r="F4">
-        <v>2.065746387878273</v>
+        <v>6.354330143701607</v>
       </c>
       <c r="G4">
-        <v>2.386690475916066</v>
+        <v>7.341568802342575</v>
       </c>
       <c r="H4">
-        <v>0.1500348184798539</v>
+        <v>0.4615139473391703</v>
       </c>
       <c r="I4">
-        <v>1.112000363621566</v>
+        <v>3.420563856159113</v>
       </c>
       <c r="J4">
-        <v>1.542599540619766</v>
+        <v>4.745106571716316</v>
       </c>
       <c r="K4">
-        <v>2.043066064856199</v>
+        <v>6.28456443524207</v>
       </c>
       <c r="L4">
-        <v>7.654421163308225</v>
+        <v>23.54534874949183</v>
       </c>
       <c r="M4">
-        <v>4.816565109852046</v>
+        <v>14.81597404513424</v>
       </c>
       <c r="N4">
-        <v>0.07191974258516096</v>
+        <v>0.2212284097011225</v>
       </c>
       <c r="O4">
-        <v>0.2989026911339442</v>
+        <v>0.9194383160736154</v>
       </c>
       <c r="P4">
-        <v>30.26074853559512</v>
+        <v>93.08344321405495</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -630,49 +630,49 @@
         <v>2024121613</v>
       </c>
       <c r="B5">
-        <v>1.369194716000138</v>
+        <v>4.211705419179126</v>
       </c>
       <c r="C5">
-        <v>6.158016855948073</v>
+        <v>18.94234082304939</v>
       </c>
       <c r="D5">
-        <v>0.004866682711274075</v>
+        <v>0.01497013807384306</v>
       </c>
       <c r="E5">
-        <v>0.4629082078006597</v>
+        <v>1.423926768481877</v>
       </c>
       <c r="F5">
-        <v>1.730760487141256</v>
+        <v>5.323898228506755</v>
       </c>
       <c r="G5">
-        <v>1.999659587929677</v>
+        <v>6.151044131692429</v>
       </c>
       <c r="H5">
-        <v>0.1632731848163115</v>
+        <v>0.5022357662220382</v>
       </c>
       <c r="I5">
-        <v>1.210118042764645</v>
+        <v>3.722378314055505</v>
       </c>
       <c r="J5">
-        <v>1.759104739303242</v>
+        <v>5.411086441430886</v>
       </c>
       <c r="K5">
-        <v>2.32981217922198</v>
+        <v>7.166608566504115</v>
       </c>
       <c r="L5">
-        <v>5.255274231525053</v>
+        <v>16.16546332054663</v>
       </c>
       <c r="M5">
-        <v>3.306895448555137</v>
+        <v>10.17216128471903</v>
       </c>
       <c r="N5">
-        <v>0.05499745021218189</v>
+        <v>0.1691746662420349</v>
       </c>
       <c r="O5">
-        <v>0.2285726461612514</v>
+        <v>0.7030998887621764</v>
       </c>
       <c r="P5">
-        <v>26.03345446009088</v>
+        <v>80.08009375746583</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -680,49 +680,49 @@
         <v>2024121614</v>
       </c>
       <c r="B6">
-        <v>1.466654756548759</v>
+        <v>4.511496950752645</v>
       </c>
       <c r="C6">
-        <v>6.596347916874934</v>
+        <v>20.29066716635674</v>
       </c>
       <c r="D6">
-        <v>0.004763136270608669</v>
+        <v>0.01465162449780386</v>
       </c>
       <c r="E6">
-        <v>0.4530590969963904</v>
+        <v>1.393630454258859</v>
       </c>
       <c r="F6">
-        <v>2.40073228861529</v>
+        <v>7.384762058896462</v>
       </c>
       <c r="G6">
-        <v>2.773721363902457</v>
+        <v>8.532093472992724</v>
       </c>
       <c r="H6">
-        <v>0.1676859735951308</v>
+        <v>0.5158097058496608</v>
       </c>
       <c r="I6">
-        <v>1.242823935812338</v>
+        <v>3.822983133354303</v>
       </c>
       <c r="J6">
-        <v>1.623788990126069</v>
+        <v>4.994849022859279</v>
       </c>
       <c r="K6">
-        <v>2.150595857743367</v>
+        <v>6.615330984465338</v>
       </c>
       <c r="L6">
-        <v>6.340602605426962</v>
+        <v>19.50398291935518</v>
       </c>
       <c r="M6">
-        <v>3.989841247713262</v>
+        <v>12.27293372395448</v>
       </c>
       <c r="N6">
-        <v>0.05499745021218189</v>
+        <v>0.1691746662420349</v>
       </c>
       <c r="O6">
-        <v>0.2285726461612514</v>
+        <v>0.7030998887621764</v>
       </c>
       <c r="P6">
-        <v>29.494187265999</v>
+        <v>90.72546577259769</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -730,49 +730,49 @@
         <v>2024121615</v>
       </c>
       <c r="B7">
-        <v>1.53638226523395</v>
+        <v>4.72598194895158</v>
       </c>
       <c r="C7">
-        <v>6.90995062713155</v>
+        <v>21.25532341197499</v>
       </c>
       <c r="D7">
-        <v>0.004970229151939481</v>
+        <v>0.01528865164988228</v>
       </c>
       <c r="E7">
-        <v>0.472757318604929</v>
+        <v>1.454223082704896</v>
       </c>
       <c r="F7">
-        <v>2.289070321702952</v>
+        <v>7.041284753831511</v>
       </c>
       <c r="G7">
-        <v>2.644711067906993</v>
+        <v>8.135251916109343</v>
       </c>
       <c r="H7">
-        <v>0.1588603960374924</v>
+        <v>0.4886618265944154</v>
       </c>
       <c r="I7">
-        <v>1.177412149716952</v>
+        <v>3.621773494756708</v>
       </c>
       <c r="J7">
-        <v>1.576428477914059</v>
+        <v>4.849165926359218</v>
       </c>
       <c r="K7">
-        <v>2.087870145225852</v>
+        <v>6.422383830751765</v>
       </c>
       <c r="L7">
-        <v>5.426641869509562</v>
+        <v>16.69259799404272</v>
       </c>
       <c r="M7">
-        <v>3.414728995790629</v>
+        <v>10.50386219617726</v>
       </c>
       <c r="N7">
-        <v>0.06345859639867146</v>
+        <v>0.1952015379715787</v>
       </c>
       <c r="O7">
-        <v>0.2637376686475978</v>
+        <v>0.811269102417896</v>
       </c>
       <c r="P7">
-        <v>28.02698012897313</v>
+        <v>86.21226967429376</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -780,49 +780,49 @@
         <v>2024121616</v>
       </c>
       <c r="B8">
-        <v>1.746357149342767</v>
+        <v>5.371874273073381</v>
       </c>
       <c r="C8">
-        <v>7.854322425063399</v>
+        <v>24.16025415162086</v>
       </c>
       <c r="D8">
-        <v>0.003727671863954611</v>
+        <v>0.01146648873741171</v>
       </c>
       <c r="E8">
-        <v>0.3545679889536968</v>
+        <v>1.090667312028672</v>
       </c>
       <c r="F8">
-        <v>2.45656327207146</v>
+        <v>7.556500711428939</v>
       </c>
       <c r="G8">
-        <v>2.838226511900187</v>
+        <v>8.730514251434418</v>
       </c>
       <c r="H8">
-        <v>0.2338778052774193</v>
+        <v>0.7194188002640007</v>
       </c>
       <c r="I8">
-        <v>1.733412331527735</v>
+        <v>5.332055422836265</v>
       </c>
       <c r="J8">
-        <v>1.508770603325473</v>
+        <v>4.641047217073416</v>
       </c>
       <c r="K8">
-        <v>1.998261984486545</v>
+        <v>6.146745039732377</v>
       </c>
       <c r="L8">
-        <v>3.198862575710899</v>
+        <v>9.83984723859361</v>
       </c>
       <c r="M8">
-        <v>2.012892881729213</v>
+        <v>6.191750347220278</v>
       </c>
       <c r="N8">
-        <v>0.08038088877165048</v>
+        <v>0.2472552814306663</v>
       </c>
       <c r="O8">
-        <v>0.3340677136202905</v>
+        <v>1.027607529729335</v>
       </c>
       <c r="P8">
-        <v>26.35429180364469</v>
+        <v>81.06700406520363</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -830,49 +830,49 @@
         <v>2024121617</v>
       </c>
       <c r="B9">
-        <v>1.908790550257135</v>
+        <v>5.871526825695903</v>
       </c>
       <c r="C9">
-        <v>8.584874193274832</v>
+        <v>26.40746472379975</v>
       </c>
       <c r="D9">
-        <v>0.003002846779296769</v>
+        <v>0.00923689370513721</v>
       </c>
       <c r="E9">
-        <v>0.2856242133238113</v>
+        <v>0.8785931124675411</v>
       </c>
       <c r="F9">
-        <v>2.121577371334442</v>
+        <v>6.526068796234084</v>
       </c>
       <c r="G9">
-        <v>2.451195623913799</v>
+        <v>7.539989580784269</v>
       </c>
       <c r="H9">
-        <v>0.3309591584114424</v>
+        <v>1.018045472071699</v>
       </c>
       <c r="I9">
-        <v>2.452941978576984</v>
+        <v>7.545361447409807</v>
       </c>
       <c r="J9">
-        <v>1.096057568335097</v>
+        <v>3.371523090430014</v>
       </c>
       <c r="K9">
-        <v>1.451652203976773</v>
+        <v>4.465348414514104</v>
       </c>
       <c r="L9">
-        <v>2.456269477778013</v>
+        <v>7.555596986777231</v>
       </c>
       <c r="M9">
-        <v>1.545614177042075</v>
+        <v>4.754379730901285</v>
       </c>
       <c r="N9">
-        <v>0.02538343855946857</v>
+        <v>0.07808061518863148</v>
       </c>
       <c r="O9">
-        <v>0.1054950674590391</v>
+        <v>0.3245076409671583</v>
       </c>
       <c r="P9">
-        <v>24.8194378690222</v>
+        <v>76.34572333094661</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -880,49 +880,49 @@
         <v>2024121618</v>
       </c>
       <c r="B10">
-        <v>1.938900156280286</v>
+        <v>5.964145347645442</v>
       </c>
       <c r="C10">
-        <v>8.720293545431096</v>
+        <v>26.8240208298622</v>
       </c>
       <c r="D10">
-        <v>0.003520578982623798</v>
+        <v>0.01082946158533328</v>
       </c>
       <c r="E10">
-        <v>0.3348697673451581</v>
+        <v>1.030074683582634</v>
       </c>
       <c r="F10">
-        <v>1.674929503685086</v>
+        <v>5.152159575974275</v>
       </c>
       <c r="G10">
-        <v>1.935154439931946</v>
+        <v>5.952623353250738</v>
       </c>
       <c r="H10">
-        <v>0.3530231023055383</v>
+        <v>1.085915170209812</v>
       </c>
       <c r="I10">
-        <v>2.616471443815449</v>
+        <v>8.048385543903795</v>
       </c>
       <c r="J10">
-        <v>0.5886235089207004</v>
+        <v>1.810632770786489</v>
       </c>
       <c r="K10">
-        <v>0.7795909984319704</v>
+        <v>2.398057481868685</v>
       </c>
       <c r="L10">
-        <v>1.313818557881263</v>
+        <v>4.041365830136658</v>
       </c>
       <c r="M10">
-        <v>0.8267238621387841</v>
+        <v>2.543040321179757</v>
       </c>
       <c r="N10">
-        <v>0.01269171927973428</v>
+        <v>0.03904030759431574</v>
       </c>
       <c r="O10">
-        <v>0.05274753372951956</v>
+        <v>0.1622538204835792</v>
       </c>
       <c r="P10">
-        <v>21.15135871815916</v>
+        <v>65.06254449806372</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -930,49 +930,49 @@
         <v>2024121619</v>
       </c>
       <c r="B11">
-        <v>1.251925724120496</v>
+        <v>3.850980649480916</v>
       </c>
       <c r="C11">
-        <v>5.630594115971038</v>
+        <v>17.31996440996414</v>
       </c>
       <c r="D11">
-        <v>0.005487961355266511</v>
+        <v>0.01688121953007835</v>
       </c>
       <c r="E11">
-        <v>0.5220028726262758</v>
+        <v>1.605704653819989</v>
       </c>
       <c r="F11">
-        <v>1.004957702211052</v>
+        <v>3.091295745584566</v>
       </c>
       <c r="G11">
-        <v>1.161092663959167</v>
+        <v>3.571574011950442</v>
       </c>
       <c r="H11">
-        <v>0.2912440594020693</v>
+        <v>0.8958800154230949</v>
       </c>
       <c r="I11">
-        <v>2.158588941147745</v>
+        <v>6.63991807372063</v>
       </c>
       <c r="J11">
-        <v>0.2706314983543451</v>
+        <v>0.8324748371432132</v>
       </c>
       <c r="K11">
-        <v>0.3584326429572277</v>
+        <v>1.102555164077556</v>
       </c>
       <c r="L11">
-        <v>0.9710832819122371</v>
+        <v>2.987096483144486</v>
       </c>
       <c r="M11">
-        <v>0.6110567676677968</v>
+        <v>1.879638498263299</v>
       </c>
       <c r="N11">
-        <v>0.01692229237297905</v>
+        <v>0.05205374345908764</v>
       </c>
       <c r="O11">
-        <v>0.07033004497269275</v>
+        <v>0.2163384273114389</v>
       </c>
       <c r="P11">
-        <v>14.32435056903039</v>
+        <v>44.06235593287294</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -980,49 +980,49 @@
         <v>2024121620</v>
       </c>
       <c r="B12">
-        <v>1.078399310460756</v>
+        <v>3.317205483508563</v>
       </c>
       <c r="C12">
-        <v>4.850151007491511</v>
+        <v>14.91928579870962</v>
       </c>
       <c r="D12">
-        <v>0.006109239999258945</v>
+        <v>0.01879230098631364</v>
       </c>
       <c r="E12">
-        <v>0.581097537451892</v>
+        <v>1.787482539158101</v>
       </c>
       <c r="F12">
-        <v>0.837464751842543</v>
+        <v>2.576079787987137</v>
       </c>
       <c r="G12">
-        <v>0.9675772199659729</v>
+        <v>2.976311676625369</v>
       </c>
       <c r="H12">
-        <v>0.2515289603926961</v>
+        <v>0.773714558774491</v>
       </c>
       <c r="I12">
-        <v>1.864235903718507</v>
+        <v>5.734474700031455</v>
       </c>
       <c r="J12">
-        <v>0.3247577980252139</v>
+        <v>0.9989698045718556</v>
       </c>
       <c r="K12">
-        <v>0.4301191715486734</v>
+        <v>1.323066196893068</v>
       </c>
       <c r="L12">
-        <v>0.8568381899225623</v>
+        <v>2.63567336748043</v>
       </c>
       <c r="M12">
-        <v>0.5391677361774678</v>
+        <v>1.658504557291146</v>
       </c>
       <c r="N12">
-        <v>0.01269171927973428</v>
+        <v>0.03904030759431574</v>
       </c>
       <c r="O12">
-        <v>0.05274753372951956</v>
+        <v>0.1622538204835792</v>
       </c>
       <c r="P12">
-        <v>12.65288608000631</v>
+        <v>38.92085490009543</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -1030,43 +1030,43 @@
         <v>2024121621</v>
       </c>
       <c r="B13">
-        <v>0.8208829431574894</v>
+        <v>2.525073387887488</v>
       </c>
       <c r="C13">
-        <v>3.691959179839237</v>
+        <v>11.35663489159675</v>
       </c>
       <c r="D13">
-        <v>0.003417032541958394</v>
+        <v>0.01051094800929407</v>
       </c>
       <c r="E13">
-        <v>0.3250206565408887</v>
+        <v>0.9997783693596159</v>
       </c>
       <c r="F13">
-        <v>0.725802784930204</v>
+        <v>2.232602482922188</v>
       </c>
       <c r="G13">
-        <v>0.8385669239705097</v>
+        <v>2.579470119741985</v>
       </c>
       <c r="H13">
-        <v>0.2029882838256847</v>
+        <v>0.624401222870642</v>
       </c>
       <c r="I13">
-        <v>1.504471080193884</v>
+        <v>4.627821687744682</v>
       </c>
       <c r="J13">
-        <v>0.2232709861423346</v>
+        <v>0.686791740643151</v>
       </c>
       <c r="K13">
-        <v>0.2957069304397129</v>
+        <v>0.9096080103639841</v>
       </c>
       <c r="L13">
-        <v>0.6283480059432123</v>
+        <v>1.932827136152315</v>
       </c>
       <c r="M13">
-        <v>0.3953896731968097</v>
+        <v>1.21623667534684</v>
       </c>
       <c r="P13">
-        <v>9.655824480721927</v>
+        <v>29.70175667263894</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -1074,49 +1074,49 @@
         <v>2024121622</v>
       </c>
       <c r="B14">
-        <v>0.5998150463033011</v>
+        <v>1.845058450415856</v>
       </c>
       <c r="C14">
-        <v>2.697696041639288</v>
+        <v>8.298236112875225</v>
       </c>
       <c r="D14">
-        <v>0.003624125423289206</v>
+        <v>0.0111479751613725</v>
       </c>
       <c r="E14">
-        <v>0.3447188781494274</v>
+        <v>1.060370997805653</v>
       </c>
       <c r="F14">
-        <v>0.5862253262897802</v>
+        <v>1.803255851590996</v>
       </c>
       <c r="G14">
-        <v>0.677304053976181</v>
+        <v>2.083418173637758</v>
       </c>
       <c r="H14">
-        <v>0.1014941419128423</v>
+        <v>0.312200611435321</v>
       </c>
       <c r="I14">
-        <v>0.7522355400969418</v>
+        <v>2.313910843872341</v>
       </c>
       <c r="J14">
-        <v>0.2232709861423346</v>
+        <v>0.686791740643151</v>
       </c>
       <c r="K14">
-        <v>0.2957069304397129</v>
+        <v>0.9096080103639841</v>
       </c>
       <c r="L14">
-        <v>0.6854705519380497</v>
+        <v>2.108538693984344</v>
       </c>
       <c r="M14">
-        <v>0.4313341889419742</v>
+        <v>1.326803645832917</v>
       </c>
       <c r="N14">
-        <v>0.004230573093244762</v>
+        <v>0.01301343586477191</v>
       </c>
       <c r="O14">
-        <v>0.01758251124317319</v>
+        <v>0.05408460682785973</v>
       </c>
       <c r="P14">
-        <v>7.42070889558954</v>
+        <v>22.82643915031155</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -1124,49 +1124,49 @@
         <v>2024121623</v>
       </c>
       <c r="B15">
-        <v>0.3755777172361487</v>
+        <v>1.155294194844274</v>
       </c>
       <c r="C15">
-        <v>1.689178234791311</v>
+        <v>5.195989322989248</v>
       </c>
       <c r="D15">
-        <v>0.0009319179659886527</v>
+        <v>0.002866622184352927</v>
       </c>
       <c r="E15">
-        <v>0.0886419972384242</v>
+        <v>0.2726668280071679</v>
       </c>
       <c r="F15">
-        <v>0.251239425552763</v>
+        <v>0.7728239363961414</v>
       </c>
       <c r="G15">
-        <v>0.2902731659897919</v>
+        <v>0.8928935029876105</v>
       </c>
       <c r="H15">
-        <v>0.09266856435520386</v>
+        <v>0.2850527321800757</v>
       </c>
       <c r="I15">
-        <v>0.6868237540015556</v>
+        <v>2.112701205274746</v>
       </c>
       <c r="J15">
-        <v>0.1217841742594552</v>
+        <v>0.374613676714446</v>
       </c>
       <c r="K15">
-        <v>0.1612946893307525</v>
+        <v>0.4961498238349004</v>
       </c>
       <c r="L15">
-        <v>0.9710832819122371</v>
+        <v>2.987096483144486</v>
       </c>
       <c r="M15">
-        <v>0.6110567676677968</v>
+        <v>1.879638498263299</v>
       </c>
       <c r="N15">
-        <v>0.004230573093244762</v>
+        <v>0.01301343586477191</v>
       </c>
       <c r="O15">
-        <v>0.01758251124317319</v>
+        <v>0.05408460682785973</v>
       </c>
       <c r="P15">
-        <v>5.362366774637846</v>
+        <v>16.49488486951338</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -1174,49 +1174,49 @@
         <v>2024121700</v>
       </c>
       <c r="B16">
-        <v>0.263855231729193</v>
+        <v>0.8116307318209783</v>
       </c>
       <c r="C16">
-        <v>1.186701164948327</v>
+        <v>3.65034692944181</v>
       </c>
       <c r="D16">
-        <v>0.002174475253973523</v>
+        <v>0.0066887850968235</v>
       </c>
       <c r="E16">
-        <v>0.2068313268896564</v>
+        <v>0.6362225986833919</v>
       </c>
       <c r="F16">
-        <v>0.1674929503685086</v>
+        <v>0.5152159575974276</v>
       </c>
       <c r="G16">
-        <v>0.1935154439931945</v>
+        <v>0.5952623353250736</v>
       </c>
       <c r="H16">
-        <v>0.04412788778819229</v>
+        <v>0.1357393962762266</v>
       </c>
       <c r="I16">
-        <v>0.3270589304769311</v>
+        <v>1.006048192987974</v>
       </c>
       <c r="J16">
-        <v>0.2503341359777691</v>
+        <v>0.7700392243574723</v>
       </c>
       <c r="K16">
-        <v>0.3315501947354357</v>
+        <v>1.01986352677174</v>
       </c>
       <c r="L16">
-        <v>0.6283480059432123</v>
+        <v>1.932827136152315</v>
       </c>
       <c r="M16">
-        <v>0.3953896731968097</v>
+        <v>1.21623667534684</v>
       </c>
       <c r="N16">
-        <v>0.008461146186489524</v>
+        <v>0.02602687172954382</v>
       </c>
       <c r="O16">
-        <v>0.03516502248634638</v>
+        <v>0.1081692136557195</v>
       </c>
       <c r="P16">
-        <v>4.041005589974039</v>
+        <v>12.43031757524334</v>
       </c>
     </row>
     <row r="17" spans="1:16">
@@ -1224,37 +1224,37 @@
         <v>2024121701</v>
       </c>
       <c r="B17">
-        <v>0.1703569814467762</v>
+        <v>0.5240258478724034</v>
       </c>
       <c r="C17">
-        <v>0.7661884398315022</v>
+        <v>2.356830600090057</v>
       </c>
       <c r="D17">
-        <v>0.003209939660627581</v>
+        <v>0.00987392085721564</v>
       </c>
       <c r="E17">
-        <v>0.3053224349323501</v>
+        <v>0.9391857409135788</v>
       </c>
       <c r="F17">
-        <v>0.05583098345616953</v>
+        <v>0.1717386525324759</v>
       </c>
       <c r="G17">
-        <v>0.06450514799773154</v>
+        <v>0.1984207784416913</v>
       </c>
       <c r="J17">
-        <v>0.1826762613891828</v>
+        <v>0.561920515071669</v>
       </c>
       <c r="K17">
-        <v>0.2419420339961288</v>
+        <v>0.7442247357523505</v>
       </c>
       <c r="L17">
-        <v>1.028205827907074</v>
+        <v>3.162808040976515</v>
       </c>
       <c r="M17">
-        <v>0.6470012834129614</v>
+        <v>1.990205468749376</v>
       </c>
       <c r="P17">
-        <v>3.465239334030505</v>
+        <v>10.65923430125733</v>
       </c>
     </row>
     <row r="18" spans="1:16">
@@ -1262,37 +1262,37 @@
         <v>2024121702</v>
       </c>
       <c r="B18">
-        <v>0.110137769400474</v>
+        <v>0.3387888039733212</v>
       </c>
       <c r="C18">
-        <v>0.4953497355189713</v>
+        <v>1.5237183879652</v>
       </c>
       <c r="D18">
-        <v>0.002174475253973523</v>
+        <v>0.0066887850968235</v>
       </c>
       <c r="E18">
-        <v>0.2068313268896564</v>
+        <v>0.6362225986833919</v>
       </c>
       <c r="F18">
-        <v>0.1954084420965933</v>
+        <v>0.6010852838636656</v>
       </c>
       <c r="G18">
-        <v>0.2257680179920603</v>
+        <v>0.6944727245459195</v>
       </c>
       <c r="J18">
-        <v>0.1217841742594552</v>
+        <v>0.374613676714446</v>
       </c>
       <c r="K18">
-        <v>0.1612946893307525</v>
+        <v>0.4961498238349004</v>
       </c>
       <c r="L18">
-        <v>1.313818557881263</v>
+        <v>4.041365830136658</v>
       </c>
       <c r="M18">
-        <v>0.8267238621387841</v>
+        <v>2.543040321179757</v>
       </c>
       <c r="P18">
-        <v>3.659291050761984</v>
+        <v>11.25614623599408</v>
       </c>
     </row>
     <row r="19" spans="1:16">
@@ -1300,43 +1300,43 @@
         <v>2024121703</v>
       </c>
       <c r="B19">
-        <v>0.1236078563055679</v>
+        <v>0.3802234058981158</v>
       </c>
       <c r="C19">
-        <v>0.5559320772730897</v>
+        <v>1.710072435414181</v>
       </c>
       <c r="D19">
-        <v>0.001863835931977305</v>
+        <v>0.005733244368705854</v>
       </c>
       <c r="E19">
-        <v>0.1772839944768484</v>
+        <v>0.5453336560143358</v>
       </c>
       <c r="F19">
-        <v>0.1674929503685086</v>
+        <v>0.5152159575974276</v>
       </c>
       <c r="G19">
-        <v>0.1935154439931945</v>
+        <v>0.5952623353250736</v>
       </c>
       <c r="H19">
-        <v>0.03530231023055385</v>
+        <v>0.1085915170209812</v>
       </c>
       <c r="I19">
-        <v>0.2616471443815449</v>
+        <v>0.8048385543903798</v>
       </c>
       <c r="J19">
-        <v>0.1556131115537484</v>
+        <v>0.4786730313573476</v>
       </c>
       <c r="K19">
-        <v>0.206098769700406</v>
+        <v>0.6339692193445948</v>
       </c>
       <c r="L19">
-        <v>1.256696011886425</v>
+        <v>3.865654272304631</v>
       </c>
       <c r="M19">
-        <v>0.7907793463936195</v>
+        <v>2.432473350693681</v>
       </c>
       <c r="P19">
-        <v>3.925832852495483</v>
+        <v>12.07604097972945</v>
       </c>
     </row>
     <row r="20" spans="1:16">
@@ -1344,43 +1344,43 @@
         <v>2024121704</v>
       </c>
       <c r="B20">
-        <v>0.2210678968541889</v>
+        <v>0.6800149374716299</v>
       </c>
       <c r="C20">
-        <v>0.9942631381999495</v>
+        <v>3.058398778721517</v>
       </c>
       <c r="D20">
-        <v>0.00124255728798487</v>
+        <v>0.003822162912470571</v>
       </c>
       <c r="E20">
-        <v>0.1181893296512323</v>
+        <v>0.3635557706762239</v>
       </c>
       <c r="F20">
-        <v>0.3908168841931867</v>
+        <v>1.202170567727331</v>
       </c>
       <c r="G20">
-        <v>0.4515360359841206</v>
+        <v>1.388945449091839</v>
       </c>
       <c r="H20">
-        <v>0.01765115511527693</v>
+        <v>0.05429575851049061</v>
       </c>
       <c r="I20">
-        <v>0.1308235721907725</v>
+        <v>0.4024192771951899</v>
       </c>
       <c r="J20">
-        <v>0.3112262231074967</v>
+        <v>0.9573460627146951</v>
       </c>
       <c r="K20">
-        <v>0.412197539400812</v>
+        <v>1.26793843868919</v>
       </c>
       <c r="L20">
-        <v>1.599431287855449</v>
+        <v>4.919923619296805</v>
       </c>
       <c r="M20">
-        <v>1.006446440864606</v>
+        <v>3.095875173610139</v>
       </c>
       <c r="P20">
-        <v>5.654892060705077</v>
+        <v>17.39470599661752</v>
       </c>
     </row>
     <row r="21" spans="1:16">
@@ -1388,49 +1388,49 @@
         <v>2024121705</v>
       </c>
       <c r="B21">
-        <v>0.5316722537245903</v>
+        <v>1.635448111266896</v>
       </c>
       <c r="C21">
-        <v>2.391220665706688</v>
+        <v>7.355503872839206</v>
       </c>
       <c r="D21">
-        <v>0.0009319179659886527</v>
+        <v>0.002866622184352927</v>
       </c>
       <c r="E21">
-        <v>0.0886419972384242</v>
+        <v>0.2726668280071679</v>
       </c>
       <c r="F21">
-        <v>0.837464751842543</v>
+        <v>2.576079787987137</v>
       </c>
       <c r="G21">
-        <v>0.9675772199659729</v>
+        <v>2.976311676625369</v>
       </c>
       <c r="H21">
-        <v>0.1632731848163115</v>
+        <v>0.5022357662220382</v>
       </c>
       <c r="I21">
-        <v>1.210118042764645</v>
+        <v>3.722378314055505</v>
       </c>
       <c r="J21">
-        <v>0.554794571626407</v>
+        <v>1.706573416143587</v>
       </c>
       <c r="K21">
-        <v>0.7347869180623172</v>
+        <v>2.260238086358991</v>
       </c>
       <c r="L21">
-        <v>2.342024385788338</v>
+        <v>7.204173871113172</v>
       </c>
       <c r="M21">
-        <v>1.473725145551745</v>
+        <v>4.533245789929132</v>
       </c>
       <c r="N21">
-        <v>0.01269171927973428</v>
+        <v>0.03904030759431574</v>
       </c>
       <c r="O21">
-        <v>0.05274753372951956</v>
+        <v>0.1622538204835792</v>
       </c>
       <c r="P21">
-        <v>11.36167030806322</v>
+        <v>34.94901627081045</v>
       </c>
     </row>
     <row r="22" spans="1:16">
@@ -1438,49 +1438,49 @@
         <v>2024121706</v>
       </c>
       <c r="B22">
-        <v>1.010256517882046</v>
+        <v>3.107595144359601</v>
       </c>
       <c r="C22">
-        <v>4.543675631558905</v>
+        <v>13.9765535586736</v>
       </c>
       <c r="D22">
-        <v>0.001346103728650276</v>
+        <v>0.004140676488509785</v>
       </c>
       <c r="E22">
-        <v>0.1280384404555016</v>
+        <v>0.3938520848992426</v>
       </c>
       <c r="F22">
-        <v>1.786591470597425</v>
+        <v>5.495636881039228</v>
       </c>
       <c r="G22">
-        <v>2.064164735927409</v>
+        <v>6.34946491013412</v>
       </c>
       <c r="H22">
-        <v>0.4368660891031039</v>
+        <v>1.343820023134643</v>
       </c>
       <c r="I22">
-        <v>3.237883411721618</v>
+        <v>9.959877110580949</v>
       </c>
       <c r="J22">
-        <v>0.953976031699066</v>
+        <v>2.934473800929827</v>
       </c>
       <c r="K22">
-        <v>1.263475066424228</v>
+        <v>3.886506953373386</v>
       </c>
       <c r="L22">
-        <v>4.112823311628298</v>
+        <v>12.65123216390606</v>
       </c>
       <c r="M22">
-        <v>2.588005133651845</v>
+        <v>7.960821874997503</v>
       </c>
       <c r="N22">
-        <v>0.04230573093244763</v>
+        <v>0.1301343586477191</v>
       </c>
       <c r="O22">
-        <v>0.1758251124317319</v>
+        <v>0.5408460682785973</v>
       </c>
       <c r="P22">
-        <v>22.34523278774227</v>
+        <v>68.73495560944299</v>
       </c>
     </row>
     <row r="23" spans="1:16">
@@ -1488,49 +1488,49 @@
         <v>2024121707</v>
       </c>
       <c r="B23">
-        <v>1.625918725250162</v>
+        <v>5.001400185275218</v>
       </c>
       <c r="C23">
-        <v>7.312645016438336</v>
+        <v>22.49402972737116</v>
       </c>
       <c r="D23">
-        <v>0.001449650169315682</v>
+        <v>0.004459190064549</v>
       </c>
       <c r="E23">
-        <v>0.137887551259771</v>
+        <v>0.4241483991222612</v>
       </c>
       <c r="F23">
-        <v>1.395774586404239</v>
+        <v>4.293466313311896</v>
       </c>
       <c r="G23">
-        <v>1.612628699943288</v>
+        <v>4.960519461042282</v>
       </c>
       <c r="H23">
-        <v>0.4324533003242848</v>
+        <v>1.33024608350702</v>
       </c>
       <c r="I23">
-        <v>3.205177518673925</v>
+        <v>9.859272291282149</v>
       </c>
       <c r="J23">
-        <v>1.109589143252814</v>
+        <v>3.413146832287175</v>
       </c>
       <c r="K23">
-        <v>1.469573836124634</v>
+        <v>4.520476172717982</v>
       </c>
       <c r="L23">
-        <v>5.198151685530213</v>
+        <v>15.9897517627146</v>
       </c>
       <c r="M23">
-        <v>3.270950932809971</v>
+        <v>10.06159431423296</v>
       </c>
       <c r="N23">
-        <v>0.03807515783920287</v>
+        <v>0.1171209227829472</v>
       </c>
       <c r="O23">
-        <v>0.1582426011885587</v>
+        <v>0.4867614614507375</v>
       </c>
       <c r="P23">
-        <v>26.96851840520871</v>
+        <v>82.95639311716293</v>
       </c>
     </row>
     <row r="24" spans="1:16">
@@ -1538,49 +1538,49 @@
         <v>2024121708</v>
       </c>
       <c r="B24">
-        <v>1.995949936113627</v>
+        <v>6.139633073444574</v>
       </c>
       <c r="C24">
-        <v>8.9768775810956</v>
+        <v>27.61328503082256</v>
       </c>
       <c r="D24">
-        <v>0.003002846779296769</v>
+        <v>0.00923689370513721</v>
       </c>
       <c r="E24">
-        <v>0.2856242133238113</v>
+        <v>0.8785931124675411</v>
       </c>
       <c r="F24">
-        <v>2.037830896150188</v>
+        <v>6.268460817435371</v>
       </c>
       <c r="G24">
-        <v>2.354437901917201</v>
+        <v>7.242358413121732</v>
       </c>
       <c r="H24">
-        <v>0.2647673267291539</v>
+        <v>0.8144363776573592</v>
       </c>
       <c r="I24">
-        <v>1.962353582861587</v>
+        <v>6.036289157927848</v>
       </c>
       <c r="J24">
-        <v>1.359923279230583</v>
+        <v>4.183186056644645</v>
       </c>
       <c r="K24">
-        <v>1.80112403086007</v>
+        <v>5.54033969948972</v>
       </c>
       <c r="L24">
-        <v>6.340602605426962</v>
+        <v>19.50398291935518</v>
       </c>
       <c r="M24">
-        <v>3.989841247713262</v>
+        <v>12.27293372395448</v>
       </c>
       <c r="N24">
-        <v>0.08461146186489527</v>
+        <v>0.2602687172954382</v>
       </c>
       <c r="O24">
-        <v>0.3516502248634638</v>
+        <v>1.081692136557195</v>
       </c>
       <c r="P24">
-        <v>31.8085971349297</v>
+        <v>97.8446961298788</v>
       </c>
     </row>
     <row r="25" spans="1:16">
@@ -1588,49 +1588,49 @@
         <v>2024121709</v>
       </c>
       <c r="B25">
-        <v>1.451599953537183</v>
+        <v>4.465187689777879</v>
       </c>
       <c r="C25">
-        <v>6.528638240796798</v>
+        <v>20.0823891133255</v>
       </c>
       <c r="D25">
-        <v>0.005280868473935698</v>
+        <v>0.01624419237799993</v>
       </c>
       <c r="E25">
-        <v>0.502304651017737</v>
+        <v>1.545112025373952</v>
       </c>
       <c r="F25">
-        <v>2.847380156264645</v>
+        <v>8.758671279156271</v>
       </c>
       <c r="G25">
-        <v>3.289762547884307</v>
+        <v>10.11945970052625</v>
       </c>
       <c r="H25">
-        <v>0.2647673267291539</v>
+        <v>0.8144363776573592</v>
       </c>
       <c r="I25">
-        <v>1.962353582861587</v>
+        <v>6.036289157927848</v>
       </c>
       <c r="J25">
-        <v>1.529067965702049</v>
+        <v>4.703482829859155</v>
       </c>
       <c r="K25">
-        <v>2.025144432708337</v>
+        <v>6.229436677038192</v>
       </c>
       <c r="L25">
-        <v>8.454136807235949</v>
+        <v>26.00531055914023</v>
       </c>
       <c r="M25">
-        <v>5.319788330284347</v>
+        <v>16.36391163193931</v>
       </c>
       <c r="N25">
-        <v>0.1184560466108533</v>
+        <v>0.3643762042136136</v>
       </c>
       <c r="O25">
-        <v>0.4923103148088493</v>
+        <v>1.514368991180072</v>
       </c>
       <c r="P25">
-        <v>34.79099122491574</v>
+        <v>107.0186764294936</v>
       </c>
     </row>
     <row r="26" spans="1:16">
@@ -1638,49 +1638,49 @@
         <v>2024121710</v>
       </c>
       <c r="B26">
-        <v>1.228154982523271</v>
+        <v>3.777860763731278</v>
       </c>
       <c r="C26">
-        <v>5.523684101110829</v>
+        <v>16.99110432623065</v>
       </c>
       <c r="D26">
-        <v>0.003520578982623798</v>
+        <v>0.01082946158533328</v>
       </c>
       <c r="E26">
-        <v>0.3348697673451581</v>
+        <v>1.030074683582634</v>
       </c>
       <c r="F26">
-        <v>3.04278859836124</v>
+        <v>9.359756563019934</v>
       </c>
       <c r="G26">
-        <v>3.515530565876368</v>
+        <v>10.81393242507217</v>
       </c>
       <c r="H26">
-        <v>0.1412092409222154</v>
+        <v>0.4343660680839249</v>
       </c>
       <c r="I26">
-        <v>1.04658857752618</v>
+        <v>3.219354217561519</v>
       </c>
       <c r="J26">
-        <v>1.644086352502645</v>
+        <v>5.057284635645021</v>
       </c>
       <c r="K26">
-        <v>2.177478305965159</v>
+        <v>6.698022621771155</v>
       </c>
       <c r="L26">
-        <v>9.88220045710689</v>
+        <v>30.39809950494094</v>
       </c>
       <c r="M26">
-        <v>6.218401223913459</v>
+        <v>19.12808589409122</v>
       </c>
       <c r="N26">
-        <v>0.05922802330542665</v>
+        <v>0.1821881021068068</v>
       </c>
       <c r="O26">
-        <v>0.2461551574044246</v>
+        <v>0.7571844955900361</v>
       </c>
       <c r="P26">
-        <v>35.06389593284589</v>
+        <v>107.8581437630126</v>
       </c>
     </row>
     <row r="27" spans="1:16">
@@ -1688,49 +1688,49 @@
         <v>2024121711</v>
       </c>
       <c r="B27">
-        <v>1.279658255983924</v>
+        <v>3.936287182855494</v>
       </c>
       <c r="C27">
-        <v>5.755322466641282</v>
+        <v>17.70363450765322</v>
       </c>
       <c r="D27">
-        <v>0.004348950507947045</v>
+        <v>0.013377570193647</v>
       </c>
       <c r="E27">
-        <v>0.4136626537793128</v>
+        <v>1.272445197366784</v>
       </c>
       <c r="F27">
-        <v>2.931126631448902</v>
+        <v>9.016279257954984</v>
       </c>
       <c r="G27">
-        <v>3.386520269880906</v>
+        <v>10.4170908681888</v>
       </c>
       <c r="H27">
-        <v>0.1588603960374924</v>
+        <v>0.4886618265944154</v>
       </c>
       <c r="I27">
-        <v>1.177412149716952</v>
+        <v>3.621773494756708</v>
       </c>
       <c r="J27">
-        <v>1.529067965702049</v>
+        <v>4.703482829859155</v>
       </c>
       <c r="K27">
-        <v>2.025144432708337</v>
+        <v>6.229436677038192</v>
       </c>
       <c r="L27">
-        <v>8.796872083204976</v>
+        <v>27.05957990613241</v>
       </c>
       <c r="M27">
-        <v>5.535455424755336</v>
+        <v>17.02731345485577</v>
       </c>
       <c r="N27">
-        <v>0.04653630402569239</v>
+        <v>0.1431477945124911</v>
       </c>
       <c r="O27">
-        <v>0.193407623674905</v>
+        <v>0.5949306751064569</v>
       </c>
       <c r="P27">
-        <v>33.23339560806802</v>
+        <v>102.2274412430685</v>
       </c>
     </row>
     <row r="28" spans="1:16">
@@ -1738,49 +1738,49 @@
         <v>2024121712</v>
       </c>
       <c r="B28">
-        <v>1.354932271041803</v>
+        <v>4.167833487729344</v>
       </c>
       <c r="C28">
-        <v>6.093870847031945</v>
+        <v>18.7450247728093</v>
       </c>
       <c r="D28">
-        <v>0.004141857626616234</v>
+        <v>0.01274054304156857</v>
       </c>
       <c r="E28">
-        <v>0.3939644321707741</v>
+        <v>1.211852568920746</v>
       </c>
       <c r="F28">
-        <v>2.986957614905069</v>
+        <v>9.188017910487458</v>
       </c>
       <c r="G28">
-        <v>3.451025417878636</v>
+        <v>10.61551164663048</v>
       </c>
       <c r="H28">
-        <v>0.1456220297010347</v>
+        <v>0.4479400077115475</v>
       </c>
       <c r="I28">
-        <v>1.079294470573873</v>
+        <v>3.319959036860315</v>
       </c>
       <c r="J28">
-        <v>1.502004815866614</v>
+        <v>4.620235346144834</v>
       </c>
       <c r="K28">
-        <v>1.989301168412614</v>
+        <v>6.119181160630438</v>
       </c>
       <c r="L28">
-        <v>8.339891715246276</v>
+        <v>25.65388744347619</v>
       </c>
       <c r="M28">
-        <v>5.24789929879402</v>
+        <v>16.14277769096715</v>
       </c>
       <c r="N28">
-        <v>0.08038088877165048</v>
+        <v>0.2472552814306663</v>
       </c>
       <c r="O28">
-        <v>0.3340677136202905</v>
+        <v>1.027607529729335</v>
       </c>
       <c r="P28">
-        <v>33.00335454164122</v>
+        <v>101.5198244265694</v>
       </c>
     </row>
     <row r="29" spans="1:16">
@@ -1788,49 +1788,49 @@
         <v>2024121713</v>
       </c>
       <c r="B29">
-        <v>1.341462184136709</v>
+        <v>4.126398885804552</v>
       </c>
       <c r="C29">
-        <v>6.03328850527783</v>
+        <v>18.55867072536032</v>
       </c>
       <c r="D29">
-        <v>0.003727671863954611</v>
+        <v>0.01146648873741171</v>
       </c>
       <c r="E29">
-        <v>0.3545679889536968</v>
+        <v>1.090667312028672</v>
       </c>
       <c r="F29">
-        <v>2.484478763799543</v>
+        <v>7.64237003769518</v>
       </c>
       <c r="G29">
-        <v>2.870479085899052</v>
+        <v>8.829724640655263</v>
       </c>
       <c r="H29">
-        <v>0.1588603960374924</v>
+        <v>0.4886618265944154</v>
       </c>
       <c r="I29">
-        <v>1.177412149716952</v>
+        <v>3.621773494756708</v>
       </c>
       <c r="J29">
-        <v>1.711744227091232</v>
+        <v>5.265403344930824</v>
       </c>
       <c r="K29">
-        <v>2.267086466704466</v>
+        <v>6.973661412790544</v>
       </c>
       <c r="L29">
-        <v>5.712254599483749</v>
+        <v>17.57115578320287</v>
       </c>
       <c r="M29">
-        <v>3.594451574516451</v>
+        <v>11.05669704860764</v>
       </c>
       <c r="N29">
-        <v>0.05922802330542665</v>
+        <v>0.1821881021068068</v>
       </c>
       <c r="O29">
-        <v>0.2461551574044246</v>
+        <v>0.7571844955900361</v>
       </c>
       <c r="P29">
-        <v>28.01519679419098</v>
+        <v>86.17602359886125</v>
       </c>
     </row>
     <row r="30" spans="1:16">
@@ -1838,49 +1838,49 @@
         <v>2024121714</v>
       </c>
       <c r="B30">
-        <v>1.437337508578848</v>
+        <v>4.421315758328091</v>
       </c>
       <c r="C30">
-        <v>6.464492231880674</v>
+        <v>19.88507306308541</v>
       </c>
       <c r="D30">
-        <v>0.003624125423289206</v>
+        <v>0.0111479751613725</v>
       </c>
       <c r="E30">
-        <v>0.3447188781494274</v>
+        <v>1.060370997805653</v>
       </c>
       <c r="F30">
-        <v>3.461520974282512</v>
+        <v>10.64779645701351</v>
       </c>
       <c r="G30">
-        <v>3.999319175859354</v>
+        <v>12.30208826338486</v>
       </c>
       <c r="H30">
-        <v>0.1632731848163115</v>
+        <v>0.5022357662220382</v>
       </c>
       <c r="I30">
-        <v>1.210118042764645</v>
+        <v>3.722378314055505</v>
       </c>
       <c r="J30">
-        <v>1.583194265372918</v>
+        <v>4.869977797287798</v>
       </c>
       <c r="K30">
-        <v>2.096830961299782</v>
+        <v>6.449947709853703</v>
       </c>
       <c r="L30">
-        <v>6.911828065375336</v>
+        <v>21.26109849767547</v>
       </c>
       <c r="M30">
-        <v>4.349286405164906</v>
+        <v>13.37860342881525</v>
       </c>
       <c r="N30">
-        <v>0.05922802330542665</v>
+        <v>0.1821881021068068</v>
       </c>
       <c r="O30">
-        <v>0.2461551574044246</v>
+        <v>0.7571844955900361</v>
       </c>
       <c r="P30">
-        <v>32.33092699967786</v>
+        <v>99.45140662638552</v>
       </c>
     </row>
     <row r="31" spans="1:16">
@@ -1888,49 +1888,49 @@
         <v>2024121715</v>
       </c>
       <c r="B31">
-        <v>1.505480301157558</v>
+        <v>4.630926097477052</v>
       </c>
       <c r="C31">
-        <v>6.770967607813272</v>
+        <v>20.82780530312144</v>
       </c>
       <c r="D31">
-        <v>0.003831218304620018</v>
+        <v>0.01178500231345093</v>
       </c>
       <c r="E31">
-        <v>0.3644170997579661</v>
+        <v>1.12096362625169</v>
       </c>
       <c r="F31">
-        <v>3.294028023914002</v>
+        <v>10.13258049941608</v>
       </c>
       <c r="G31">
-        <v>3.80580373186616</v>
+        <v>11.70682592805978</v>
       </c>
       <c r="H31">
-        <v>0.1544476072586731</v>
+        <v>0.4750878869667927</v>
       </c>
       <c r="I31">
-        <v>1.144706256669259</v>
+        <v>3.52116867545791</v>
       </c>
       <c r="J31">
-        <v>1.535833753160908</v>
+        <v>4.724294700787735</v>
       </c>
       <c r="K31">
-        <v>2.034105248782268</v>
+        <v>6.257000556140132</v>
       </c>
       <c r="L31">
-        <v>5.940744783463098</v>
+        <v>18.27400201453098</v>
       </c>
       <c r="M31">
-        <v>3.738229637497109</v>
+        <v>11.49896493055195</v>
       </c>
       <c r="N31">
-        <v>0.0676891694919162</v>
+        <v>0.2082149738363506</v>
       </c>
       <c r="O31">
-        <v>0.281320179890771</v>
+        <v>0.8653537092457557</v>
       </c>
       <c r="P31">
-        <v>30.64160461902758</v>
+        <v>94.25497390415711</v>
       </c>
     </row>
     <row r="32" spans="1:16">
@@ -1938,49 +1938,49 @@
         <v>2024121716</v>
       </c>
       <c r="B32">
-        <v>1.711493395000171</v>
+        <v>5.264631773973909</v>
       </c>
       <c r="C32">
-        <v>7.697521069935091</v>
+        <v>23.67792602881174</v>
       </c>
       <c r="D32">
-        <v>0.002899300338631364</v>
+        <v>0.008918380129098</v>
       </c>
       <c r="E32">
-        <v>0.275775102519542</v>
+        <v>0.8482967982445224</v>
       </c>
       <c r="F32">
-        <v>3.545267449466766</v>
+        <v>10.90540443581221</v>
       </c>
       <c r="G32">
-        <v>4.096076897855951</v>
+        <v>12.5997194310474</v>
       </c>
       <c r="H32">
-        <v>0.2250522277197807</v>
+        <v>0.6922709210087553</v>
       </c>
       <c r="I32">
-        <v>1.668000545432349</v>
+        <v>5.130845784238669</v>
       </c>
       <c r="J32">
-        <v>1.468175878572322</v>
+        <v>4.516175991501933</v>
       </c>
       <c r="K32">
-        <v>1.944497088042961</v>
+        <v>5.981361765120742</v>
       </c>
       <c r="L32">
-        <v>3.484475305685087</v>
+        <v>10.71840502775374</v>
       </c>
       <c r="M32">
-        <v>2.192615460455036</v>
+        <v>6.744585199650662</v>
       </c>
       <c r="N32">
-        <v>0.08884203495814001</v>
+        <v>0.27328215316021</v>
       </c>
       <c r="O32">
-        <v>0.3692327361066369</v>
+        <v>1.135776743385054</v>
       </c>
       <c r="P32">
-        <v>28.76992449208847</v>
+        <v>88.49760043383864</v>
       </c>
     </row>
     <row r="33" spans="1:16">
@@ -1988,49 +1988,49 @@
         <v>2024121717</v>
       </c>
       <c r="B33">
-        <v>1.870757363701576</v>
+        <v>5.754535008496483</v>
       </c>
       <c r="C33">
-        <v>8.413818169498498</v>
+        <v>25.88128858982616</v>
       </c>
       <c r="D33">
-        <v>0.002278021694638929</v>
+        <v>0.007007298672862713</v>
       </c>
       <c r="E33">
-        <v>0.2166804376939258</v>
+        <v>0.6665189129064105</v>
       </c>
       <c r="F33">
-        <v>3.04278859836124</v>
+        <v>9.359756563019934</v>
       </c>
       <c r="G33">
-        <v>3.515530565876368</v>
+        <v>10.81393242507217</v>
       </c>
       <c r="H33">
-        <v>0.3221335808538038</v>
+        <v>0.9908975928164536</v>
       </c>
       <c r="I33">
-        <v>2.387530192481598</v>
+        <v>7.344151808812213</v>
       </c>
       <c r="J33">
-        <v>1.068994418499663</v>
+        <v>3.288275606715692</v>
       </c>
       <c r="K33">
-        <v>1.41580893968105</v>
+        <v>4.355092898106347</v>
       </c>
       <c r="L33">
-        <v>2.684759661757362</v>
+        <v>8.258443218105347</v>
       </c>
       <c r="M33">
-        <v>1.689392240022733</v>
+        <v>5.196647612845593</v>
       </c>
       <c r="N33">
-        <v>0.02961401165271333</v>
+        <v>0.0910940510534034</v>
       </c>
       <c r="O33">
-        <v>0.1230775787022123</v>
+        <v>0.378592247795018</v>
       </c>
       <c r="P33">
-        <v>26.78316378047738</v>
+        <v>82.38623383424408</v>
       </c>
     </row>
     <row r="34" spans="1:16">
@@ -2038,49 +2038,49 @@
         <v>2024121718</v>
       </c>
       <c r="B34">
-        <v>1.900074611671486</v>
+        <v>5.844716200921035</v>
       </c>
       <c r="C34">
-        <v>8.545673854492753</v>
+        <v>26.28688269309748</v>
       </c>
       <c r="D34">
-        <v>0.002692207457300552</v>
+        <v>0.00828135297701957</v>
       </c>
       <c r="E34">
-        <v>0.2560768809110032</v>
+        <v>0.7877041697984852</v>
       </c>
       <c r="F34">
-        <v>2.40073228861529</v>
+        <v>7.384762058896462</v>
       </c>
       <c r="G34">
-        <v>2.773721363902457</v>
+        <v>8.532093472992724</v>
       </c>
       <c r="H34">
-        <v>0.3441975247479001</v>
+        <v>1.058767290954567</v>
       </c>
       <c r="I34">
-        <v>2.551059657720063</v>
+        <v>7.847175905306202</v>
       </c>
       <c r="J34">
-        <v>0.5750919340029829</v>
+        <v>1.769009028929328</v>
       </c>
       <c r="K34">
-        <v>0.7616693662841092</v>
+        <v>2.342929723664807</v>
       </c>
       <c r="L34">
-        <v>1.428063649870937</v>
+        <v>4.392788945800716</v>
       </c>
       <c r="M34">
-        <v>0.8986128936291128</v>
+        <v>2.76417426215191</v>
       </c>
       <c r="N34">
-        <v>0.01269171927973428</v>
+        <v>0.03904030759431574</v>
       </c>
       <c r="O34">
-        <v>0.05274753372951956</v>
+        <v>0.1622538204835792</v>
       </c>
       <c r="P34">
-        <v>22.50310548631465</v>
+        <v>69.22057923356864</v>
       </c>
     </row>
     <row r="35" spans="1:16">
@@ -2088,49 +2088,49 @@
         <v>2024121719</v>
       </c>
       <c r="B35">
-        <v>1.226570266416789</v>
+        <v>3.772986104681303</v>
       </c>
       <c r="C35">
-        <v>5.516556766786814</v>
+        <v>16.96918032064842</v>
       </c>
       <c r="D35">
-        <v>0.00424540406728164</v>
+        <v>0.01305905661760778</v>
       </c>
       <c r="E35">
-        <v>0.4038135429750435</v>
+        <v>1.242148883143765</v>
       </c>
       <c r="F35">
-        <v>1.451605569860408</v>
+        <v>4.465204965844375</v>
       </c>
       <c r="G35">
-        <v>1.677133847941019</v>
+        <v>5.158940239483971</v>
       </c>
       <c r="H35">
-        <v>0.2824184818444308</v>
+        <v>0.8687321361678497</v>
       </c>
       <c r="I35">
-        <v>2.093177155052359</v>
+        <v>6.438708435123038</v>
       </c>
       <c r="J35">
-        <v>0.2638657108954864</v>
+        <v>0.8116629662146325</v>
       </c>
       <c r="K35">
-        <v>0.3494718268832971</v>
+        <v>1.074991284975617</v>
       </c>
       <c r="L35">
-        <v>1.085328373901912</v>
+        <v>3.338519598808545</v>
       </c>
       <c r="M35">
-        <v>0.6829457991581259</v>
+        <v>2.100772439235452</v>
       </c>
       <c r="N35">
-        <v>0.01692229237297905</v>
+        <v>0.05205374345908764</v>
       </c>
       <c r="O35">
-        <v>0.07033004497269275</v>
+        <v>0.2163384273114389</v>
       </c>
       <c r="P35">
-        <v>15.12438508312864</v>
+        <v>46.5232986017151</v>
       </c>
     </row>
     <row r="36" spans="1:16">
@@ -2138,49 +2138,49 @@
         <v>2024121720</v>
       </c>
       <c r="B36">
-        <v>1.057005643023254</v>
+        <v>3.251397586333887</v>
       </c>
       <c r="C36">
-        <v>4.75393199411732</v>
+        <v>14.62331172334948</v>
       </c>
       <c r="D36">
-        <v>0.004659589829943264</v>
+        <v>0.01433311092176464</v>
       </c>
       <c r="E36">
-        <v>0.443209986192121</v>
+        <v>1.36333414003584</v>
       </c>
       <c r="F36">
-        <v>1.200366144307645</v>
+        <v>3.692381029448231</v>
       </c>
       <c r="G36">
-        <v>1.386860681951228</v>
+        <v>4.266046736496362</v>
       </c>
       <c r="H36">
-        <v>0.2427033828350577</v>
+        <v>0.7465666795192458</v>
       </c>
       <c r="I36">
-        <v>1.798824117623121</v>
+        <v>5.533265061433859</v>
       </c>
       <c r="J36">
-        <v>0.3179920105663552</v>
+        <v>0.9781579336432757</v>
       </c>
       <c r="K36">
-        <v>0.4211583554747427</v>
+        <v>1.295502317791129</v>
       </c>
       <c r="L36">
-        <v>0.9139607359173997</v>
+        <v>2.811384925312458</v>
       </c>
       <c r="M36">
-        <v>0.5751122519226324</v>
+        <v>1.769071527777222</v>
       </c>
       <c r="N36">
-        <v>0.01269171927973428</v>
+        <v>0.03904030759431574</v>
       </c>
       <c r="O36">
-        <v>0.05274753372951956</v>
+        <v>0.1622538204835792</v>
       </c>
       <c r="P36">
-        <v>13.18122414677008</v>
+        <v>40.54604690014065</v>
       </c>
     </row>
     <row r="37" spans="1:16">
@@ -2188,43 +2188,43 @@
         <v>2024121721</v>
       </c>
       <c r="B37">
-        <v>0.8042434240394325</v>
+        <v>2.473889467862741</v>
       </c>
       <c r="C37">
-        <v>3.617122169437089</v>
+        <v>11.1264328329833</v>
       </c>
       <c r="D37">
-        <v>0.002588661016635147</v>
+        <v>0.007962839400980356</v>
       </c>
       <c r="E37">
-        <v>0.2462277701067338</v>
+        <v>0.7574078555754664</v>
       </c>
       <c r="F37">
-        <v>1.032873193939136</v>
+        <v>3.177165071850804</v>
       </c>
       <c r="G37">
-        <v>1.193345237958033</v>
+        <v>3.670784401171288</v>
       </c>
       <c r="H37">
-        <v>0.1985754950468654</v>
+        <v>0.6108272832430193</v>
       </c>
       <c r="I37">
-        <v>1.47176518714619</v>
+        <v>4.527216868445885</v>
       </c>
       <c r="J37">
-        <v>0.216505198683476</v>
+        <v>0.6659798697145706</v>
       </c>
       <c r="K37">
-        <v>0.2867461143657822</v>
+        <v>0.8820441312620448</v>
       </c>
       <c r="L37">
-        <v>0.6854705519380497</v>
+        <v>2.108538693984344</v>
       </c>
       <c r="M37">
-        <v>0.4313341889419742</v>
+        <v>1.326803645832917</v>
       </c>
       <c r="P37">
-        <v>10.1867971926194</v>
+        <v>31.33505296132736</v>
       </c>
     </row>
     <row r="38" spans="1:16">
@@ -2232,49 +2232,49 @@
         <v>2024121722</v>
       </c>
       <c r="B38">
-        <v>0.587929675504689</v>
+        <v>1.808498507541037</v>
       </c>
       <c r="C38">
-        <v>2.644241034209184</v>
+        <v>8.133806071008475</v>
       </c>
       <c r="D38">
-        <v>0.002795753897965958</v>
+        <v>0.008599866553058784</v>
       </c>
       <c r="E38">
-        <v>0.2659259917152725</v>
+        <v>0.8180004840215038</v>
       </c>
       <c r="F38">
-        <v>0.837464751842543</v>
+        <v>2.576079787987137</v>
       </c>
       <c r="G38">
-        <v>0.9675772199659729</v>
+        <v>2.976311676625369</v>
       </c>
       <c r="H38">
-        <v>0.09708135313402307</v>
+        <v>0.2986266718076984</v>
       </c>
       <c r="I38">
-        <v>0.7195296470492485</v>
+        <v>2.213306024573543</v>
       </c>
       <c r="J38">
-        <v>0.216505198683476</v>
+        <v>0.6659798697145706</v>
       </c>
       <c r="K38">
-        <v>0.2867461143657822</v>
+        <v>0.8820441312620448</v>
       </c>
       <c r="L38">
-        <v>0.7425930979328872</v>
+        <v>2.284250251816373</v>
       </c>
       <c r="M38">
-        <v>0.4672787046871387</v>
+        <v>1.437370616318993</v>
       </c>
       <c r="N38">
-        <v>0.004230573093244762</v>
+        <v>0.01301343586477191</v>
       </c>
       <c r="O38">
-        <v>0.01758251124317319</v>
+        <v>0.05408460682785973</v>
       </c>
       <c r="P38">
-        <v>7.8574816273246</v>
+        <v>24.16997200192244</v>
       </c>
     </row>
     <row r="39" spans="1:16">
@@ -2282,49 +2282,49 @@
         <v>2024121723</v>
       </c>
       <c r="B39">
-        <v>0.3676541367037406</v>
+        <v>1.130920899594396</v>
       </c>
       <c r="C39">
-        <v>1.653541563171241</v>
+        <v>5.086369295078079</v>
       </c>
       <c r="D39">
-        <v>0.0007248250846578411</v>
+        <v>0.0022295950322745</v>
       </c>
       <c r="E39">
-        <v>0.06894377562988549</v>
+        <v>0.2120741995611306</v>
       </c>
       <c r="F39">
-        <v>0.362901392465102</v>
+        <v>1.116301241461094</v>
       </c>
       <c r="G39">
-        <v>0.4192834619852548</v>
+        <v>1.289735059870993</v>
       </c>
       <c r="H39">
-        <v>0.08825577557638459</v>
+        <v>0.2714787925524531</v>
       </c>
       <c r="I39">
-        <v>0.6541178609538622</v>
+        <v>2.012096385975949</v>
       </c>
       <c r="J39">
-        <v>0.1217841742594552</v>
+        <v>0.374613676714446</v>
       </c>
       <c r="K39">
-        <v>0.1612946893307525</v>
+        <v>0.4961498238349004</v>
       </c>
       <c r="L39">
-        <v>1.085328373901912</v>
+        <v>3.338519598808545</v>
       </c>
       <c r="M39">
-        <v>0.6829457991581259</v>
+        <v>2.100772439235452</v>
       </c>
       <c r="N39">
-        <v>0.004230573093244762</v>
+        <v>0.01301343586477191</v>
       </c>
       <c r="O39">
-        <v>0.01758251124317319</v>
+        <v>0.05408460682785973</v>
       </c>
       <c r="P39">
-        <v>5.688588912556791</v>
+        <v>17.49835905041234</v>
       </c>
     </row>
     <row r="40" spans="1:16">
@@ -2332,49 +2332,49 @@
         <v>2024121800</v>
       </c>
       <c r="B40">
-        <v>0.2583087253565075</v>
+        <v>0.7945694251460623</v>
       </c>
       <c r="C40">
-        <v>1.161755494814278</v>
+        <v>3.573612909903994</v>
       </c>
       <c r="D40">
-        <v>0.001656743050646494</v>
+        <v>0.005096217216627426</v>
       </c>
       <c r="E40">
-        <v>0.1575857728683097</v>
+        <v>0.4847410275682986</v>
       </c>
       <c r="F40">
-        <v>0.251239425552763</v>
+        <v>0.7728239363961414</v>
       </c>
       <c r="G40">
-        <v>0.2902731659897919</v>
+        <v>0.8928935029876105</v>
       </c>
       <c r="H40">
-        <v>0.04412788778819229</v>
+        <v>0.1357393962762266</v>
       </c>
       <c r="I40">
-        <v>0.3270589304769311</v>
+        <v>1.006048192987974</v>
       </c>
       <c r="J40">
-        <v>0.2435683485189105</v>
+        <v>0.7492273534288919</v>
       </c>
       <c r="K40">
-        <v>0.322589378661505</v>
+        <v>0.9922996476698008</v>
       </c>
       <c r="L40">
-        <v>0.6854705519380497</v>
+        <v>2.108538693984344</v>
       </c>
       <c r="M40">
-        <v>0.4313341889419742</v>
+        <v>1.326803645832917</v>
       </c>
       <c r="N40">
-        <v>0.008461146186489524</v>
+        <v>0.02602687172954382</v>
       </c>
       <c r="O40">
-        <v>0.03516502248634638</v>
+        <v>0.1081692136557195</v>
       </c>
       <c r="P40">
-        <v>4.218594782630695</v>
+        <v>12.97659003478415</v>
       </c>
     </row>
     <row r="41" spans="1:16">
@@ -2382,37 +2382,37 @@
         <v>2024121801</v>
       </c>
       <c r="B41">
-        <v>0.167187549233813</v>
+        <v>0.5142765297724514</v>
       </c>
       <c r="C41">
-        <v>0.7519337711834736</v>
+        <v>2.312982588925591</v>
       </c>
       <c r="D41">
-        <v>0.002485114575969741</v>
+        <v>0.007644325824941142</v>
       </c>
       <c r="E41">
-        <v>0.2363786593024645</v>
+        <v>0.7271115413524478</v>
       </c>
       <c r="F41">
-        <v>0.08374647518425431</v>
+        <v>0.2576079787987138</v>
       </c>
       <c r="G41">
-        <v>0.09675772199659724</v>
+        <v>0.2976311676625368</v>
       </c>
       <c r="J41">
-        <v>0.1759104739303242</v>
+        <v>0.5411086441430887</v>
       </c>
       <c r="K41">
-        <v>0.2329812179221981</v>
+        <v>0.7166608566504116</v>
       </c>
       <c r="L41">
-        <v>1.14245091989675</v>
+        <v>3.514231156640572</v>
       </c>
       <c r="M41">
-        <v>0.7188903149032903</v>
+        <v>2.211339409721528</v>
       </c>
       <c r="P41">
-        <v>3.608722218129135</v>
+        <v>11.10059419949228</v>
       </c>
     </row>
     <row r="42" spans="1:16">
@@ -2420,37 +2420,37 @@
         <v>2024121802</v>
       </c>
       <c r="B42">
-        <v>0.1077606952407516</v>
+        <v>0.3314768153983572</v>
       </c>
       <c r="C42">
-        <v>0.4846587340329501</v>
+        <v>1.490832379591851</v>
       </c>
       <c r="D42">
-        <v>0.001656743050646494</v>
+        <v>0.005096217216627426</v>
       </c>
       <c r="E42">
-        <v>0.1575857728683097</v>
+        <v>0.4847410275682986</v>
       </c>
       <c r="F42">
-        <v>0.2791549172808477</v>
+        <v>0.8586932626623796</v>
       </c>
       <c r="G42">
-        <v>0.3225257399886576</v>
+        <v>0.9921038922084563</v>
       </c>
       <c r="J42">
-        <v>0.1217841742594552</v>
+        <v>0.374613676714446</v>
       </c>
       <c r="K42">
-        <v>0.1612946893307525</v>
+        <v>0.4961498238349004</v>
       </c>
       <c r="L42">
-        <v>1.428063649870937</v>
+        <v>4.392788945800716</v>
       </c>
       <c r="M42">
-        <v>0.8986128936291128</v>
+        <v>2.76417426215191</v>
       </c>
       <c r="P42">
-        <v>3.963098009552421</v>
+        <v>12.19067030314794</v>
       </c>
     </row>
     <row r="43" spans="1:16">
@@ -2458,43 +2458,43 @@
         <v>2024121803</v>
       </c>
       <c r="B43">
-        <v>0.1212307821458455</v>
+        <v>0.3729114173231522</v>
       </c>
       <c r="C43">
-        <v>0.545241075787069</v>
+        <v>1.677186427040832</v>
       </c>
       <c r="D43">
-        <v>0.001449650169315682</v>
+        <v>0.004459190064549</v>
       </c>
       <c r="E43">
-        <v>0.137887551259771</v>
+        <v>0.4241483991222612</v>
       </c>
       <c r="F43">
-        <v>0.251239425552763</v>
+        <v>0.7728239363961414</v>
       </c>
       <c r="G43">
-        <v>0.2902731659897919</v>
+        <v>0.8928935029876105</v>
       </c>
       <c r="H43">
-        <v>0.03530231023055385</v>
+        <v>0.1085915170209812</v>
       </c>
       <c r="I43">
-        <v>0.2616471443815449</v>
+        <v>0.8048385543903798</v>
       </c>
       <c r="J43">
-        <v>0.1488473240948897</v>
+        <v>0.4578611604287672</v>
       </c>
       <c r="K43">
-        <v>0.1971379536264753</v>
+        <v>0.6064053402426559</v>
       </c>
       <c r="L43">
-        <v>1.370941103876099</v>
+        <v>4.217077387968688</v>
       </c>
       <c r="M43">
-        <v>0.8626683778839483</v>
+        <v>2.653607291665834</v>
       </c>
       <c r="P43">
-        <v>4.223865864998068</v>
+        <v>12.99280412465185</v>
       </c>
     </row>
     <row r="44" spans="1:16">
@@ -2502,43 +2502,43 @@
         <v>2024121804</v>
       </c>
       <c r="B44">
-        <v>0.2163137485347439</v>
+        <v>0.6653909603217025</v>
       </c>
       <c r="C44">
-        <v>0.9728811352279072</v>
+        <v>2.992626761974817</v>
       </c>
       <c r="D44">
-        <v>0.0009319179659886527</v>
+        <v>0.002866622184352927</v>
       </c>
       <c r="E44">
-        <v>0.0886419972384242</v>
+        <v>0.2726668280071679</v>
       </c>
       <c r="F44">
-        <v>0.5583098345616955</v>
+        <v>1.717386525324759</v>
       </c>
       <c r="G44">
-        <v>0.6450514799773152</v>
+        <v>1.984207784416913</v>
       </c>
       <c r="H44">
-        <v>0.01765115511527693</v>
+        <v>0.05429575851049061</v>
       </c>
       <c r="I44">
-        <v>0.1308235721907725</v>
+        <v>0.4024192771951899</v>
       </c>
       <c r="J44">
-        <v>0.3044604356486381</v>
+        <v>0.9365341917861151</v>
       </c>
       <c r="K44">
-        <v>0.4032367233268813</v>
+        <v>1.240374559587251</v>
       </c>
       <c r="L44">
-        <v>1.770798925839962</v>
+        <v>5.447058292792889</v>
       </c>
       <c r="M44">
-        <v>1.1142799881001</v>
+        <v>3.427576085068368</v>
       </c>
       <c r="P44">
-        <v>6.223380913727706</v>
+        <v>19.14340364717001</v>
       </c>
     </row>
     <row r="45" spans="1:16">
@@ -2546,49 +2546,49 @@
         <v>2024121805</v>
       </c>
       <c r="B45">
-        <v>0.5205792409792185</v>
+        <v>1.601325497917065</v>
       </c>
       <c r="C45">
-        <v>2.34132932543859</v>
+        <v>7.202035833763572</v>
       </c>
       <c r="D45">
-        <v>0.0007248250846578411</v>
+        <v>0.0022295950322745</v>
       </c>
       <c r="E45">
-        <v>0.06894377562988549</v>
+        <v>0.2120741995611306</v>
       </c>
       <c r="F45">
-        <v>1.200366144307645</v>
+        <v>3.692381029448231</v>
       </c>
       <c r="G45">
-        <v>1.386860681951228</v>
+        <v>4.266046736496362</v>
       </c>
       <c r="H45">
-        <v>0.1588603960374924</v>
+        <v>0.4886618265944154</v>
       </c>
       <c r="I45">
-        <v>1.177412149716952</v>
+        <v>3.621773494756708</v>
       </c>
       <c r="J45">
-        <v>0.5412629967086902</v>
+        <v>1.664949674286426</v>
       </c>
       <c r="K45">
-        <v>0.7168652859144554</v>
+        <v>2.205110328155112</v>
       </c>
       <c r="L45">
-        <v>2.570514569767688</v>
+        <v>7.907020102441287</v>
       </c>
       <c r="M45">
-        <v>1.617503208532403</v>
+        <v>4.975513671873439</v>
       </c>
       <c r="N45">
-        <v>0.01269171927973428</v>
+        <v>0.03904030759431574</v>
       </c>
       <c r="O45">
-        <v>0.05274753372951956</v>
+        <v>0.1622538204835792</v>
       </c>
       <c r="P45">
-        <v>12.36666185307816</v>
+        <v>38.04041611840392</v>
       </c>
     </row>
     <row r="46" spans="1:16">
@@ -2596,49 +2596,49 @@
         <v>2024121806</v>
       </c>
       <c r="B46">
-        <v>0.9896552084977842</v>
+        <v>3.044224576709913</v>
       </c>
       <c r="C46">
-        <v>4.451020285346726</v>
+        <v>13.69154148610457</v>
       </c>
       <c r="D46">
-        <v>0.001035464406654059</v>
+        <v>0.003185135760392143</v>
       </c>
       <c r="E46">
-        <v>0.09849110804269354</v>
+        <v>0.3029631422301866</v>
       </c>
       <c r="F46">
-        <v>2.568225238983799</v>
+        <v>7.899978016493892</v>
       </c>
       <c r="G46">
-        <v>2.96723680789565</v>
+        <v>9.1273558083178</v>
       </c>
       <c r="H46">
-        <v>0.4236277227666461</v>
+        <v>1.303098204251775</v>
       </c>
       <c r="I46">
-        <v>3.139765732578539</v>
+        <v>9.658062652684553</v>
       </c>
       <c r="J46">
-        <v>0.9269128818636313</v>
+        <v>2.851226317215505</v>
       </c>
       <c r="K46">
-        <v>1.227631802128505</v>
+        <v>3.776251436965631</v>
       </c>
       <c r="L46">
-        <v>4.455558587597324</v>
+        <v>13.70550151089824</v>
       </c>
       <c r="M46">
-        <v>2.803672228122832</v>
+        <v>8.624223697913962</v>
       </c>
       <c r="N46">
-        <v>0.04653630402569239</v>
+        <v>0.1431477945124911</v>
       </c>
       <c r="O46">
-        <v>0.193407623674905</v>
+        <v>0.5949306751064569</v>
       </c>
       <c r="P46">
-        <v>24.29277699593138</v>
+        <v>74.72569045516536</v>
       </c>
     </row>
     <row r="47" spans="1:16">
@@ -2646,49 +2646,49 @@
         <v>2024121807</v>
       </c>
       <c r="B47">
-        <v>1.59343204506729</v>
+        <v>4.901469674750712</v>
       </c>
       <c r="C47">
-        <v>7.166534662796049</v>
+        <v>22.04458761293538</v>
       </c>
       <c r="D47">
-        <v>0.001139010847319464</v>
+        <v>0.003503649336431356</v>
       </c>
       <c r="E47">
-        <v>0.1083402188469629</v>
+        <v>0.3332594564532053</v>
       </c>
       <c r="F47">
-        <v>2.009915404422104</v>
+        <v>6.182591491169132</v>
       </c>
       <c r="G47">
-        <v>2.322185327918335</v>
+        <v>7.143148023900884</v>
       </c>
       <c r="H47">
-        <v>0.419214933987827</v>
+        <v>1.289524264624152</v>
       </c>
       <c r="I47">
-        <v>3.107059839530845</v>
+        <v>9.557457833385758</v>
       </c>
       <c r="J47">
-        <v>1.08252599341738</v>
+        <v>3.329899348572853</v>
       </c>
       <c r="K47">
-        <v>1.433730571828911</v>
+        <v>4.410220656310225</v>
       </c>
       <c r="L47">
-        <v>5.65513205348891</v>
+        <v>17.39544422537083</v>
       </c>
       <c r="M47">
-        <v>3.558507058771288</v>
+        <v>10.94613007812157</v>
       </c>
       <c r="N47">
-        <v>0.04230573093244763</v>
+        <v>0.1301343586477191</v>
       </c>
       <c r="O47">
-        <v>0.1758251124317319</v>
+        <v>0.5408460682785973</v>
       </c>
       <c r="P47">
-        <v>28.6758479642874</v>
+        <v>88.20821674185746</v>
       </c>
     </row>
     <row r="48" spans="1:16">
@@ -2696,49 +2696,49 @@
         <v>2024121808</v>
       </c>
       <c r="B48">
-        <v>1.955539675398344</v>
+        <v>6.01532926767019</v>
       </c>
       <c r="C48">
-        <v>8.795130555833243</v>
+        <v>27.05422288847565</v>
       </c>
       <c r="D48">
-        <v>0.002278021694638929</v>
+        <v>0.007007298672862713</v>
       </c>
       <c r="E48">
-        <v>0.2166804376939258</v>
+        <v>0.6665189129064105</v>
       </c>
       <c r="F48">
-        <v>2.931126631448902</v>
+        <v>9.016279257954984</v>
       </c>
       <c r="G48">
-        <v>3.386520269880906</v>
+        <v>10.4170908681888</v>
       </c>
       <c r="H48">
-        <v>0.2559417491715154</v>
+        <v>0.7872884984021138</v>
       </c>
       <c r="I48">
-        <v>1.896941796766201</v>
+        <v>5.835079519330253</v>
       </c>
       <c r="J48">
-        <v>1.32609434193629</v>
+        <v>4.079126702001746</v>
       </c>
       <c r="K48">
-        <v>1.756319950490416</v>
+        <v>5.402520303980027</v>
       </c>
       <c r="L48">
-        <v>6.911828065375336</v>
+        <v>21.26109849767547</v>
       </c>
       <c r="M48">
-        <v>4.349286405164906</v>
+        <v>13.37860342881525</v>
       </c>
       <c r="N48">
-        <v>0.09307260805138477</v>
+        <v>0.2862955890249821</v>
       </c>
       <c r="O48">
-        <v>0.3868152473498101</v>
+        <v>1.189861350212914</v>
       </c>
       <c r="P48">
-        <v>34.26357575625582</v>
+        <v>105.3963223833116</v>
       </c>
     </row>
     <row r="49" spans="1:16">
@@ -2746,49 +2746,49 @@
         <v>2024121809</v>
       </c>
       <c r="B49">
-        <v>1.422282705567272</v>
+        <v>4.37500649735332</v>
       </c>
       <c r="C49">
-        <v>6.396782555802541</v>
+        <v>19.6767950100542</v>
       </c>
       <c r="D49">
-        <v>0.004038311185950829</v>
+        <v>0.01242202946552935</v>
       </c>
       <c r="E49">
-        <v>0.3841153213665048</v>
+        <v>1.181556254697728</v>
       </c>
       <c r="F49">
-        <v>4.10357728402846</v>
+        <v>12.62279096113698</v>
       </c>
       <c r="G49">
-        <v>4.741128377833267</v>
+        <v>14.58392721546431</v>
       </c>
       <c r="H49">
-        <v>0.2559417491715154</v>
+        <v>0.7872884984021138</v>
       </c>
       <c r="I49">
-        <v>1.896941796766201</v>
+        <v>5.835079519330253</v>
       </c>
       <c r="J49">
-        <v>1.488473240948897</v>
+        <v>4.578611604287673</v>
       </c>
       <c r="K49">
-        <v>1.971379536264753</v>
+        <v>6.06405340242656</v>
       </c>
       <c r="L49">
-        <v>9.196729905168839</v>
+        <v>28.28956081095661</v>
       </c>
       <c r="M49">
-        <v>5.787067034971488</v>
+        <v>17.8012822482583</v>
       </c>
       <c r="N49">
-        <v>0.1311477658905876</v>
+        <v>0.4034165118079293</v>
       </c>
       <c r="O49">
-        <v>0.5450578485383688</v>
+        <v>1.676622811663651</v>
       </c>
       <c r="P49">
-        <v>38.32466343350464</v>
+        <v>117.8884133753052</v>
       </c>
     </row>
   </sheetData>

--- a/output/경기동로_N_겨울_배출량/경기동로_N_겨울_배출량_PM25.xlsx
+++ b/output/경기동로_N_겨울_배출량/경기동로_N_겨울_배출량_PM25.xlsx
@@ -480,49 +480,49 @@
         <v>2024121610</v>
       </c>
       <c r="B2">
-        <v>3.855855308530892</v>
+        <v>1.205848446301997</v>
       </c>
       <c r="C2">
-        <v>17.34188841554639</v>
+        <v>5.423359417964442</v>
       </c>
       <c r="D2">
-        <v>0.01401459734572543</v>
+        <v>0.004382809800331931</v>
       </c>
       <c r="E2">
-        <v>1.333037825812821</v>
+        <v>0.4168832755632184</v>
       </c>
       <c r="F2">
-        <v>6.526068796234084</v>
+        <v>2.040909030219064</v>
       </c>
       <c r="G2">
-        <v>7.539989580784269</v>
+        <v>2.357994269392361</v>
       </c>
       <c r="H2">
-        <v>0.4479400077115475</v>
+        <v>0.1400850703968128</v>
       </c>
       <c r="I2">
-        <v>3.319959036860315</v>
+        <v>1.038256658004524</v>
       </c>
       <c r="J2">
-        <v>5.182155861216502</v>
+        <v>1.620624762531242</v>
       </c>
       <c r="K2">
-        <v>6.863405896382787</v>
+        <v>2.146405057830464</v>
       </c>
       <c r="L2">
-        <v>27.93813769529256</v>
+        <v>8.737143185301626</v>
       </c>
       <c r="M2">
-        <v>17.58014830728615</v>
+        <v>5.497870855059822</v>
       </c>
       <c r="N2">
-        <v>0.1691746662420349</v>
+        <v>0.05290629240943735</v>
       </c>
       <c r="O2">
-        <v>0.7030998887621764</v>
+        <v>0.2198816710220403</v>
       </c>
       <c r="P2">
-        <v>98.81487588400826</v>
+        <v>30.90255080179739</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -530,49 +530,49 @@
         <v>2024121611</v>
       </c>
       <c r="B3">
-        <v>4.016719057180095</v>
+        <v>1.256155650762131</v>
       </c>
       <c r="C3">
-        <v>18.06538059976007</v>
+        <v>5.649618407588748</v>
       </c>
       <c r="D3">
-        <v>0.01719973310611757</v>
+        <v>0.005378902936771006</v>
       </c>
       <c r="E3">
-        <v>1.636000968043008</v>
+        <v>0.5116294745548591</v>
       </c>
       <c r="F3">
-        <v>6.268460817435371</v>
+        <v>1.960346831657786</v>
       </c>
       <c r="G3">
-        <v>7.242358413121732</v>
+        <v>2.264915548232136</v>
       </c>
       <c r="H3">
-        <v>0.5022357662220382</v>
+        <v>0.1570650789297598</v>
       </c>
       <c r="I3">
-        <v>3.722378314055505</v>
+        <v>1.16410594988386</v>
       </c>
       <c r="J3">
-        <v>4.828354055430636</v>
+        <v>1.509979698422683</v>
       </c>
       <c r="K3">
-        <v>6.394819951649827</v>
+        <v>1.99986334705489</v>
       </c>
       <c r="L3">
-        <v>24.77532965431603</v>
+        <v>7.748032636022193</v>
       </c>
       <c r="M3">
-        <v>15.58994283853677</v>
+        <v>4.875470380902106</v>
       </c>
       <c r="N3">
-        <v>0.1301343586477191</v>
+        <v>0.04069714800725949</v>
       </c>
       <c r="O3">
-        <v>0.5408460682785973</v>
+        <v>0.169139746940031</v>
       </c>
       <c r="P3">
-        <v>93.73016059578352</v>
+        <v>29.31239880189521</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -580,49 +580,49 @@
         <v>2024121612</v>
       </c>
       <c r="B4">
-        <v>4.253140021103923</v>
+        <v>1.330091996711115</v>
       </c>
       <c r="C4">
-        <v>19.12869487049838</v>
+        <v>5.982150559006291</v>
       </c>
       <c r="D4">
-        <v>0.01656270595403914</v>
+        <v>0.005179684309483191</v>
       </c>
       <c r="E4">
-        <v>1.57540833959697</v>
+        <v>0.4926802347565309</v>
       </c>
       <c r="F4">
-        <v>6.354330143701607</v>
+        <v>1.987200897844879</v>
       </c>
       <c r="G4">
-        <v>7.341568802342575</v>
+        <v>2.295941788618877</v>
       </c>
       <c r="H4">
-        <v>0.4615139473391703</v>
+        <v>0.1443300725300495</v>
       </c>
       <c r="I4">
-        <v>3.420563856159113</v>
+        <v>1.069718980974357</v>
       </c>
       <c r="J4">
-        <v>4.745106571716316</v>
+        <v>1.483945565691258</v>
       </c>
       <c r="K4">
-        <v>6.28456443524207</v>
+        <v>1.965382944519461</v>
       </c>
       <c r="L4">
-        <v>23.54534874949183</v>
+        <v>7.363378533524642</v>
       </c>
       <c r="M4">
-        <v>14.81597404513424</v>
+        <v>4.633425752062993</v>
       </c>
       <c r="N4">
-        <v>0.2212284097011225</v>
+        <v>0.06918515161234116</v>
       </c>
       <c r="O4">
-        <v>0.9194383160736154</v>
+        <v>0.2875375697980528</v>
       </c>
       <c r="P4">
-        <v>93.08344321405495</v>
+        <v>29.11014973196033</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -630,49 +630,49 @@
         <v>2024121613</v>
       </c>
       <c r="B5">
-        <v>4.211705419179126</v>
+        <v>1.317134080410778</v>
       </c>
       <c r="C5">
-        <v>18.94234082304939</v>
+        <v>5.923871728345484</v>
       </c>
       <c r="D5">
-        <v>0.01497013807384306</v>
+        <v>0.004681637741263654</v>
       </c>
       <c r="E5">
-        <v>1.423926768481877</v>
+        <v>0.4453071352607106</v>
       </c>
       <c r="F5">
-        <v>5.323898228506755</v>
+        <v>1.664952103599763</v>
       </c>
       <c r="G5">
-        <v>6.151044131692429</v>
+        <v>1.923626903977979</v>
       </c>
       <c r="H5">
-        <v>0.5022357662220382</v>
+        <v>0.1570650789297598</v>
       </c>
       <c r="I5">
-        <v>3.722378314055505</v>
+        <v>1.16410594988386</v>
       </c>
       <c r="J5">
-        <v>5.411086441430886</v>
+        <v>1.692218627542663</v>
       </c>
       <c r="K5">
-        <v>7.166608566504115</v>
+        <v>2.241226164802893</v>
       </c>
       <c r="L5">
-        <v>16.16546332054663</v>
+        <v>5.055453918539303</v>
       </c>
       <c r="M5">
-        <v>10.17216128471903</v>
+        <v>3.181157979028325</v>
       </c>
       <c r="N5">
-        <v>0.1691746662420349</v>
+        <v>0.05290629240943735</v>
       </c>
       <c r="O5">
-        <v>0.7030998887621764</v>
+        <v>0.2198816710220403</v>
       </c>
       <c r="P5">
-        <v>80.08009375746583</v>
+        <v>25.04358927149426</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -680,49 +680,49 @@
         <v>2024121614</v>
       </c>
       <c r="B6">
-        <v>4.511496950752645</v>
+        <v>1.410888415995573</v>
       </c>
       <c r="C6">
-        <v>20.29066716635674</v>
+        <v>6.345536209008966</v>
       </c>
       <c r="D6">
-        <v>0.01465162449780386</v>
+        <v>0.004582028427619747</v>
       </c>
       <c r="E6">
-        <v>1.393630454258859</v>
+        <v>0.4358325153615465</v>
       </c>
       <c r="F6">
-        <v>7.384762058896462</v>
+        <v>2.309449692089995</v>
       </c>
       <c r="G6">
-        <v>8.532093472992724</v>
+        <v>2.668256673259777</v>
       </c>
       <c r="H6">
-        <v>0.5158097058496608</v>
+        <v>0.1613100810629965</v>
       </c>
       <c r="I6">
-        <v>3.822983133354303</v>
+        <v>1.195568272853694</v>
       </c>
       <c r="J6">
-        <v>4.994849022859279</v>
+        <v>1.562047963885535</v>
       </c>
       <c r="K6">
-        <v>6.615330984465338</v>
+        <v>2.068824152125748</v>
       </c>
       <c r="L6">
-        <v>19.50398291935518</v>
+        <v>6.099515053889816</v>
       </c>
       <c r="M6">
-        <v>12.27293372395448</v>
+        <v>3.838136257305913</v>
       </c>
       <c r="N6">
-        <v>0.1691746662420349</v>
+        <v>0.05290629240943735</v>
       </c>
       <c r="O6">
-        <v>0.7030998887621764</v>
+        <v>0.2198816710220403</v>
       </c>
       <c r="P6">
-        <v>90.72546577259769</v>
+        <v>28.37273527869866</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -730,49 +730,49 @@
         <v>2024121615</v>
       </c>
       <c r="B7">
-        <v>4.72598194895158</v>
+        <v>1.477964688609085</v>
       </c>
       <c r="C7">
-        <v>21.25532341197499</v>
+        <v>6.647214861841377</v>
       </c>
       <c r="D7">
-        <v>0.01528865164988228</v>
+        <v>0.004781247054907561</v>
       </c>
       <c r="E7">
-        <v>1.454223082704896</v>
+        <v>0.4547817551598747</v>
       </c>
       <c r="F7">
-        <v>7.041284753831511</v>
+        <v>2.202033427341623</v>
       </c>
       <c r="G7">
-        <v>8.135251916109343</v>
+        <v>2.54415171171281</v>
       </c>
       <c r="H7">
-        <v>0.4886618265944154</v>
+        <v>0.152820076796523</v>
       </c>
       <c r="I7">
-        <v>3.621773494756708</v>
+        <v>1.132643626914026</v>
       </c>
       <c r="J7">
-        <v>4.849165926359218</v>
+        <v>1.51648823160554</v>
       </c>
       <c r="K7">
-        <v>6.422383830751765</v>
+        <v>2.008483447688747</v>
       </c>
       <c r="L7">
-        <v>16.69259799404272</v>
+        <v>5.220305676752544</v>
       </c>
       <c r="M7">
-        <v>10.50386219617726</v>
+        <v>3.284891391387944</v>
       </c>
       <c r="N7">
-        <v>0.1952015379715787</v>
+        <v>0.06104572201088925</v>
       </c>
       <c r="O7">
-        <v>0.811269102417896</v>
+        <v>0.2537096204100465</v>
       </c>
       <c r="P7">
-        <v>86.21226967429376</v>
+        <v>26.96131548528593</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -780,49 +780,49 @@
         <v>2024121616</v>
       </c>
       <c r="B8">
-        <v>5.371874273073381</v>
+        <v>1.679955736820228</v>
       </c>
       <c r="C8">
-        <v>24.16025415162086</v>
+        <v>7.55567898684806</v>
       </c>
       <c r="D8">
-        <v>0.01146648873741171</v>
+        <v>0.003585935291180671</v>
       </c>
       <c r="E8">
-        <v>1.090667312028672</v>
+        <v>0.3410863163699059</v>
       </c>
       <c r="F8">
-        <v>7.556500711428939</v>
+        <v>2.363157824464179</v>
       </c>
       <c r="G8">
-        <v>8.730514251434418</v>
+        <v>2.730309154033259</v>
       </c>
       <c r="H8">
-        <v>0.7194188002640007</v>
+        <v>0.2249851130615477</v>
       </c>
       <c r="I8">
-        <v>5.332055422836265</v>
+        <v>1.667503117401205</v>
       </c>
       <c r="J8">
-        <v>4.641047217073416</v>
+        <v>1.451402899776976</v>
       </c>
       <c r="K8">
-        <v>6.146745039732377</v>
+        <v>1.922282441350174</v>
       </c>
       <c r="L8">
-        <v>9.83984723859361</v>
+        <v>3.077232819980448</v>
       </c>
       <c r="M8">
-        <v>6.191750347220278</v>
+        <v>1.936357030712893</v>
       </c>
       <c r="N8">
-        <v>0.2472552814306663</v>
+        <v>0.07732458121379304</v>
       </c>
       <c r="O8">
-        <v>1.027607529729335</v>
+        <v>0.321365519186059</v>
       </c>
       <c r="P8">
-        <v>81.06700406520363</v>
+        <v>25.3522274765099</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -830,49 +830,49 @@
         <v>2024121617</v>
       </c>
       <c r="B9">
-        <v>5.871526825695903</v>
+        <v>1.836212962794888</v>
       </c>
       <c r="C9">
-        <v>26.40746472379975</v>
+        <v>8.258453121287195</v>
       </c>
       <c r="D9">
-        <v>0.00923689370513721</v>
+        <v>0.002888670095673318</v>
       </c>
       <c r="E9">
-        <v>0.8785931124675411</v>
+        <v>0.2747639770757576</v>
       </c>
       <c r="F9">
-        <v>6.526068796234084</v>
+        <v>2.040909030219064</v>
       </c>
       <c r="G9">
-        <v>7.539989580784269</v>
+        <v>2.357994269392361</v>
       </c>
       <c r="H9">
-        <v>1.018045472071699</v>
+        <v>0.3183751599927564</v>
       </c>
       <c r="I9">
-        <v>7.545361447409807</v>
+        <v>2.359674222737554</v>
       </c>
       <c r="J9">
-        <v>3.371523090430014</v>
+        <v>1.054382375622736</v>
       </c>
       <c r="K9">
-        <v>4.465348414514104</v>
+        <v>1.39645630268488</v>
       </c>
       <c r="L9">
-        <v>7.555596986777231</v>
+        <v>2.362875201056414</v>
       </c>
       <c r="M9">
-        <v>4.754379730901285</v>
+        <v>1.486845577154543</v>
       </c>
       <c r="N9">
-        <v>0.07808061518863148</v>
+        <v>0.0244182888043557</v>
       </c>
       <c r="O9">
-        <v>0.3245076409671583</v>
+        <v>0.1014838481640186</v>
       </c>
       <c r="P9">
-        <v>76.34572333094661</v>
+        <v>23.87573300708219</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -880,49 +880,49 @@
         <v>2024121618</v>
       </c>
       <c r="B10">
-        <v>5.964145347645442</v>
+        <v>1.865177716877994</v>
       </c>
       <c r="C10">
-        <v>26.8240208298622</v>
+        <v>8.388723448646646</v>
       </c>
       <c r="D10">
-        <v>0.01082946158533328</v>
+        <v>0.003386716663892856</v>
       </c>
       <c r="E10">
-        <v>1.030074683582634</v>
+        <v>0.3221370765715779</v>
       </c>
       <c r="F10">
-        <v>5.152159575974275</v>
+        <v>1.611243971225577</v>
       </c>
       <c r="G10">
-        <v>5.952623353250738</v>
+        <v>1.861574423204495</v>
       </c>
       <c r="H10">
-        <v>1.085915170209812</v>
+        <v>0.3396001706589399</v>
       </c>
       <c r="I10">
-        <v>8.048385543903795</v>
+        <v>2.516985837586724</v>
       </c>
       <c r="J10">
-        <v>1.810632770786489</v>
+        <v>0.5662423869085063</v>
       </c>
       <c r="K10">
-        <v>2.398057481868685</v>
+        <v>0.7499487551455836</v>
       </c>
       <c r="L10">
-        <v>4.041365830136658</v>
+        <v>1.263863479634826</v>
       </c>
       <c r="M10">
-        <v>2.543040321179757</v>
+        <v>0.7952894947570812</v>
       </c>
       <c r="N10">
-        <v>0.03904030759431574</v>
+        <v>0.01220914440217785</v>
       </c>
       <c r="O10">
-        <v>0.1622538204835792</v>
+        <v>0.05074192408200931</v>
       </c>
       <c r="P10">
-        <v>65.06254449806372</v>
+        <v>20.34712454636603</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -930,49 +930,49 @@
         <v>2024121619</v>
       </c>
       <c r="B11">
-        <v>3.850980649480916</v>
+        <v>1.204323985560782</v>
       </c>
       <c r="C11">
-        <v>17.31996440996414</v>
+        <v>5.416503084945527</v>
       </c>
       <c r="D11">
-        <v>0.01688121953007835</v>
+        <v>0.005279293623127099</v>
       </c>
       <c r="E11">
-        <v>1.605704653819989</v>
+        <v>0.5021548546556949</v>
       </c>
       <c r="F11">
-        <v>3.091295745584566</v>
+        <v>0.9667463827353464</v>
       </c>
       <c r="G11">
-        <v>3.571574011950442</v>
+        <v>1.116944653922697</v>
       </c>
       <c r="H11">
-        <v>0.8958800154230949</v>
+        <v>0.2801701407936255</v>
       </c>
       <c r="I11">
-        <v>6.63991807372063</v>
+        <v>2.076513316009048</v>
       </c>
       <c r="J11">
-        <v>0.8324748371432132</v>
+        <v>0.2603413273142558</v>
       </c>
       <c r="K11">
-        <v>1.102555164077556</v>
+        <v>0.3448040253542914</v>
       </c>
       <c r="L11">
-        <v>2.987096483144486</v>
+        <v>0.9341599632083502</v>
       </c>
       <c r="M11">
-        <v>1.879638498263299</v>
+        <v>0.5878226700378426</v>
       </c>
       <c r="N11">
-        <v>0.05205374345908764</v>
+        <v>0.0162788592029038</v>
       </c>
       <c r="O11">
-        <v>0.2163384273114389</v>
+        <v>0.06765589877601241</v>
       </c>
       <c r="P11">
-        <v>44.06235593287294</v>
+        <v>13.7796984561395</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -980,49 +980,49 @@
         <v>2024121620</v>
       </c>
       <c r="B12">
-        <v>3.317205483508563</v>
+        <v>1.037395534397609</v>
       </c>
       <c r="C12">
-        <v>14.91928579870962</v>
+        <v>4.665734619373961</v>
       </c>
       <c r="D12">
-        <v>0.01879230098631364</v>
+        <v>0.005876949504990545</v>
       </c>
       <c r="E12">
-        <v>1.787482539158101</v>
+        <v>0.5590025740506792</v>
       </c>
       <c r="F12">
-        <v>2.576079787987137</v>
+        <v>0.8056219856127886</v>
       </c>
       <c r="G12">
-        <v>2.976311676625369</v>
+        <v>0.9307872116022475</v>
       </c>
       <c r="H12">
-        <v>0.773714558774491</v>
+        <v>0.2419651215944947</v>
       </c>
       <c r="I12">
-        <v>5.734474700031455</v>
+        <v>1.793352409280542</v>
       </c>
       <c r="J12">
-        <v>0.9989698045718556</v>
+        <v>0.3124095927771069</v>
       </c>
       <c r="K12">
-        <v>1.323066196893068</v>
+        <v>0.4137648304251497</v>
       </c>
       <c r="L12">
-        <v>2.63567336748043</v>
+        <v>0.8242587910661915</v>
       </c>
       <c r="M12">
-        <v>1.658504557291146</v>
+        <v>0.5186670617980963</v>
       </c>
       <c r="N12">
-        <v>0.03904030759431574</v>
+        <v>0.01220914440217785</v>
       </c>
       <c r="O12">
-        <v>0.1622538204835792</v>
+        <v>0.05074192408200931</v>
       </c>
       <c r="P12">
-        <v>38.92085490009543</v>
+        <v>12.17178774996804</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -1030,43 +1030,43 @@
         <v>2024121621</v>
       </c>
       <c r="B13">
-        <v>2.525073387887488</v>
+        <v>0.7896706639499803</v>
       </c>
       <c r="C13">
-        <v>11.35663489159675</v>
+        <v>3.551580503799724</v>
       </c>
       <c r="D13">
-        <v>0.01051094800929407</v>
+        <v>0.003287107350248949</v>
       </c>
       <c r="E13">
-        <v>0.9997783693596159</v>
+        <v>0.3126624566724139</v>
       </c>
       <c r="F13">
-        <v>2.232602482922188</v>
+        <v>0.6982057208644167</v>
       </c>
       <c r="G13">
-        <v>2.579470119741985</v>
+        <v>0.8066822500552815</v>
       </c>
       <c r="H13">
-        <v>0.624401222870642</v>
+        <v>0.1952700981288905</v>
       </c>
       <c r="I13">
-        <v>4.627821687744682</v>
+        <v>1.447266856612366</v>
       </c>
       <c r="J13">
-        <v>0.686791740643151</v>
+        <v>0.214781595034261</v>
       </c>
       <c r="K13">
-        <v>0.9096080103639841</v>
+        <v>0.2844633209172904</v>
       </c>
       <c r="L13">
-        <v>1.932827136152315</v>
+        <v>0.6044564467818729</v>
       </c>
       <c r="M13">
-        <v>1.21623667534684</v>
+        <v>0.3803558453186041</v>
       </c>
       <c r="P13">
-        <v>29.70175667263894</v>
+        <v>9.288682865485351</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -1074,49 +1074,49 @@
         <v>2024121622</v>
       </c>
       <c r="B14">
-        <v>1.845058450415856</v>
+        <v>0.5770083905503235</v>
       </c>
       <c r="C14">
-        <v>8.298236112875225</v>
+        <v>2.595122047660608</v>
       </c>
       <c r="D14">
-        <v>0.0111479751613725</v>
+        <v>0.003486325977536763</v>
       </c>
       <c r="E14">
-        <v>1.060370997805653</v>
+        <v>0.3316116964707419</v>
       </c>
       <c r="F14">
-        <v>1.803255851590996</v>
+        <v>0.5639353899289518</v>
       </c>
       <c r="G14">
-        <v>2.083418173637758</v>
+        <v>0.6515510481215732</v>
       </c>
       <c r="H14">
-        <v>0.312200611435321</v>
+        <v>0.09763504906444523</v>
       </c>
       <c r="I14">
-        <v>2.313910843872341</v>
+        <v>0.723633428306183</v>
       </c>
       <c r="J14">
-        <v>0.686791740643151</v>
+        <v>0.214781595034261</v>
       </c>
       <c r="K14">
-        <v>0.9096080103639841</v>
+        <v>0.2844633209172904</v>
       </c>
       <c r="L14">
-        <v>2.108538693984344</v>
+        <v>0.6594070328529528</v>
       </c>
       <c r="M14">
-        <v>1.326803645832917</v>
+        <v>0.4149336494384772</v>
       </c>
       <c r="N14">
-        <v>0.01301343586477191</v>
+        <v>0.00406971480072595</v>
       </c>
       <c r="O14">
-        <v>0.05408460682785973</v>
+        <v>0.0169139746940031</v>
       </c>
       <c r="P14">
-        <v>22.82643915031155</v>
+        <v>7.138552663818074</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -1124,49 +1124,49 @@
         <v>2024121623</v>
       </c>
       <c r="B15">
-        <v>1.155294194844274</v>
+        <v>0.3612971956682345</v>
       </c>
       <c r="C15">
-        <v>5.195989322989248</v>
+        <v>1.624950925483657</v>
       </c>
       <c r="D15">
-        <v>0.002866622184352927</v>
+        <v>0.0008964838227951677</v>
       </c>
       <c r="E15">
-        <v>0.2726668280071679</v>
+        <v>0.08527157909247648</v>
       </c>
       <c r="F15">
-        <v>0.7728239363961414</v>
+        <v>0.2416865956838366</v>
       </c>
       <c r="G15">
-        <v>0.8928935029876105</v>
+        <v>0.2792361634806743</v>
       </c>
       <c r="H15">
-        <v>0.2850527321800757</v>
+        <v>0.08914504479797175</v>
       </c>
       <c r="I15">
-        <v>2.112701205274746</v>
+        <v>0.6607087823665151</v>
       </c>
       <c r="J15">
-        <v>0.374613676714446</v>
+        <v>0.1171535972914151</v>
       </c>
       <c r="K15">
-        <v>0.4961498238349004</v>
+        <v>0.1551618114094311</v>
       </c>
       <c r="L15">
-        <v>2.987096483144486</v>
+        <v>0.9341599632083502</v>
       </c>
       <c r="M15">
-        <v>1.879638498263299</v>
+        <v>0.5878226700378426</v>
       </c>
       <c r="N15">
-        <v>0.01301343586477191</v>
+        <v>0.00406971480072595</v>
       </c>
       <c r="O15">
-        <v>0.05408460682785973</v>
+        <v>0.0169139746940031</v>
       </c>
       <c r="P15">
-        <v>16.49488486951338</v>
+        <v>5.158474501837929</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -1174,49 +1174,49 @@
         <v>2024121700</v>
       </c>
       <c r="B16">
-        <v>0.8116307318209783</v>
+        <v>0.2538227134124937</v>
       </c>
       <c r="C16">
-        <v>3.65034692944181</v>
+        <v>1.141579447649911</v>
       </c>
       <c r="D16">
-        <v>0.0066887850968235</v>
+        <v>0.002091795586522058</v>
       </c>
       <c r="E16">
-        <v>0.6362225986833919</v>
+        <v>0.1989670178824451</v>
       </c>
       <c r="F16">
-        <v>0.5152159575974276</v>
+        <v>0.1611243971225577</v>
       </c>
       <c r="G16">
-        <v>0.5952623353250736</v>
+        <v>0.1861574423204495</v>
       </c>
       <c r="H16">
-        <v>0.1357393962762266</v>
+        <v>0.04245002133236749</v>
       </c>
       <c r="I16">
-        <v>1.006048192987974</v>
+        <v>0.3146232296983406</v>
       </c>
       <c r="J16">
-        <v>0.7700392243574723</v>
+        <v>0.2408157277656866</v>
       </c>
       <c r="K16">
-        <v>1.01986352677174</v>
+        <v>0.3189437234527195</v>
       </c>
       <c r="L16">
-        <v>1.932827136152315</v>
+        <v>0.6044564467818729</v>
       </c>
       <c r="M16">
-        <v>1.21623667534684</v>
+        <v>0.3803558453186041</v>
       </c>
       <c r="N16">
-        <v>0.02602687172954382</v>
+        <v>0.008139429601451901</v>
       </c>
       <c r="O16">
-        <v>0.1081692136557195</v>
+        <v>0.03382794938800621</v>
       </c>
       <c r="P16">
-        <v>12.43031757524334</v>
+        <v>3.887355187313428</v>
       </c>
     </row>
     <row r="17" spans="1:16">
@@ -1224,37 +1224,37 @@
         <v>2024121701</v>
       </c>
       <c r="B17">
-        <v>0.5240258478724034</v>
+        <v>0.1638795296807392</v>
       </c>
       <c r="C17">
-        <v>2.356830600090057</v>
+        <v>0.7370557995337262</v>
       </c>
       <c r="D17">
-        <v>0.00987392085721564</v>
+        <v>0.003087888722961134</v>
       </c>
       <c r="E17">
-        <v>0.9391857409135788</v>
+        <v>0.2937132168740857</v>
       </c>
       <c r="F17">
-        <v>0.1717386525324759</v>
+        <v>0.0537081323741859</v>
       </c>
       <c r="G17">
-        <v>0.1984207784416913</v>
+        <v>0.06205248077348318</v>
       </c>
       <c r="J17">
-        <v>0.561920515071669</v>
+        <v>0.1757303959371226</v>
       </c>
       <c r="K17">
-        <v>0.7442247357523505</v>
+        <v>0.2327427171141467</v>
       </c>
       <c r="L17">
-        <v>3.162808040976515</v>
+        <v>0.9891105492794292</v>
       </c>
       <c r="M17">
-        <v>1.990205468749376</v>
+        <v>0.6224004741577157</v>
       </c>
       <c r="P17">
-        <v>10.65923430125733</v>
+        <v>3.333481184447596</v>
       </c>
     </row>
     <row r="18" spans="1:16">
@@ -1262,37 +1262,37 @@
         <v>2024121702</v>
       </c>
       <c r="B18">
-        <v>0.3387888039733212</v>
+        <v>0.1059500215145244</v>
       </c>
       <c r="C18">
-        <v>1.5237183879652</v>
+        <v>0.4765151448148277</v>
       </c>
       <c r="D18">
-        <v>0.0066887850968235</v>
+        <v>0.002091795586522058</v>
       </c>
       <c r="E18">
-        <v>0.6362225986833919</v>
+        <v>0.1989670178824451</v>
       </c>
       <c r="F18">
-        <v>0.6010852838636656</v>
+        <v>0.1879784633096507</v>
       </c>
       <c r="G18">
-        <v>0.6944727245459195</v>
+        <v>0.2171836827071911</v>
       </c>
       <c r="J18">
-        <v>0.374613676714446</v>
+        <v>0.1171535972914151</v>
       </c>
       <c r="K18">
-        <v>0.4961498238349004</v>
+        <v>0.1551618114094311</v>
       </c>
       <c r="L18">
-        <v>4.041365830136658</v>
+        <v>1.263863479634826</v>
       </c>
       <c r="M18">
-        <v>2.543040321179757</v>
+        <v>0.7952894947570812</v>
       </c>
       <c r="P18">
-        <v>11.25614623599408</v>
+        <v>3.520154508907915</v>
       </c>
     </row>
     <row r="19" spans="1:16">
@@ -1300,43 +1300,43 @@
         <v>2024121703</v>
       </c>
       <c r="B19">
-        <v>0.3802234058981158</v>
+        <v>0.1189079378148619</v>
       </c>
       <c r="C19">
-        <v>1.710072435414181</v>
+        <v>0.534793975475634</v>
       </c>
       <c r="D19">
-        <v>0.005733244368705854</v>
+        <v>0.001792967645590335</v>
       </c>
       <c r="E19">
-        <v>0.5453336560143358</v>
+        <v>0.170543158184953</v>
       </c>
       <c r="F19">
-        <v>0.5152159575974276</v>
+        <v>0.1611243971225577</v>
       </c>
       <c r="G19">
-        <v>0.5952623353250736</v>
+        <v>0.1861574423204495</v>
       </c>
       <c r="H19">
-        <v>0.1085915170209812</v>
+        <v>0.033960017065894</v>
       </c>
       <c r="I19">
-        <v>0.8048385543903798</v>
+        <v>0.2516985837586725</v>
       </c>
       <c r="J19">
-        <v>0.4786730313573476</v>
+        <v>0.149696263205697</v>
       </c>
       <c r="K19">
-        <v>0.6339692193445948</v>
+        <v>0.1982623145787175</v>
       </c>
       <c r="L19">
-        <v>3.865654272304631</v>
+        <v>1.208912893563746</v>
       </c>
       <c r="M19">
-        <v>2.432473350693681</v>
+        <v>0.7607116906372081</v>
       </c>
       <c r="P19">
-        <v>12.07604097972945</v>
+        <v>3.776561641373981</v>
       </c>
     </row>
     <row r="20" spans="1:16">
@@ -1344,43 +1344,43 @@
         <v>2024121704</v>
       </c>
       <c r="B20">
-        <v>0.6800149374716299</v>
+        <v>0.2126622733996568</v>
       </c>
       <c r="C20">
-        <v>3.058398778721517</v>
+        <v>0.9564584561391145</v>
       </c>
       <c r="D20">
-        <v>0.003822162912470571</v>
+        <v>0.00119531176372689</v>
       </c>
       <c r="E20">
-        <v>0.3635557706762239</v>
+        <v>0.1136954387899687</v>
       </c>
       <c r="F20">
-        <v>1.202170567727331</v>
+        <v>0.3759569266193014</v>
       </c>
       <c r="G20">
-        <v>1.388945449091839</v>
+        <v>0.4343673654143823</v>
       </c>
       <c r="H20">
-        <v>0.05429575851049061</v>
+        <v>0.016980008532947</v>
       </c>
       <c r="I20">
-        <v>0.4024192771951899</v>
+        <v>0.1258492918793362</v>
       </c>
       <c r="J20">
-        <v>0.9573460627146951</v>
+        <v>0.2993925264113941</v>
       </c>
       <c r="K20">
-        <v>1.26793843868919</v>
+        <v>0.3965246291574351</v>
       </c>
       <c r="L20">
-        <v>4.919923619296805</v>
+        <v>1.538616409990224</v>
       </c>
       <c r="M20">
-        <v>3.095875173610139</v>
+        <v>0.9681785153564464</v>
       </c>
       <c r="P20">
-        <v>17.39470599661752</v>
+        <v>5.439877153453933</v>
       </c>
     </row>
     <row r="21" spans="1:16">
@@ -1388,49 +1388,49 @@
         <v>2024121705</v>
       </c>
       <c r="B21">
-        <v>1.635448111266896</v>
+        <v>0.511456578678028</v>
       </c>
       <c r="C21">
-        <v>7.355503872839206</v>
+        <v>2.300299727847118</v>
       </c>
       <c r="D21">
-        <v>0.002866622184352927</v>
+        <v>0.0008964838227951677</v>
       </c>
       <c r="E21">
-        <v>0.2726668280071679</v>
+        <v>0.08527157909247648</v>
       </c>
       <c r="F21">
-        <v>2.576079787987137</v>
+        <v>0.8056219856127886</v>
       </c>
       <c r="G21">
-        <v>2.976311676625369</v>
+        <v>0.9307872116022475</v>
       </c>
       <c r="H21">
-        <v>0.5022357662220382</v>
+        <v>0.1570650789297598</v>
       </c>
       <c r="I21">
-        <v>3.722378314055505</v>
+        <v>1.16410594988386</v>
       </c>
       <c r="J21">
-        <v>1.706573416143587</v>
+        <v>0.5336997209942242</v>
       </c>
       <c r="K21">
-        <v>2.260238086358991</v>
+        <v>0.7068482519762973</v>
       </c>
       <c r="L21">
-        <v>7.204173871113172</v>
+        <v>2.252974028914255</v>
       </c>
       <c r="M21">
-        <v>4.533245789929132</v>
+        <v>1.417689968914797</v>
       </c>
       <c r="N21">
-        <v>0.03904030759431574</v>
+        <v>0.01220914440217785</v>
       </c>
       <c r="O21">
-        <v>0.1622538204835792</v>
+        <v>0.05074192408200931</v>
       </c>
       <c r="P21">
-        <v>34.94901627081045</v>
+        <v>10.92966763475283</v>
       </c>
     </row>
     <row r="22" spans="1:16">
@@ -1438,49 +1438,49 @@
         <v>2024121706</v>
       </c>
       <c r="B22">
-        <v>3.107595144359601</v>
+        <v>0.9718437225253137</v>
       </c>
       <c r="C22">
-        <v>13.9765535586736</v>
+        <v>4.370912299560471</v>
       </c>
       <c r="D22">
-        <v>0.004140676488509785</v>
+        <v>0.001294921077370798</v>
       </c>
       <c r="E22">
-        <v>0.3938520848992426</v>
+        <v>0.1231700586891327</v>
       </c>
       <c r="F22">
-        <v>5.495636881039228</v>
+        <v>1.718660235973949</v>
       </c>
       <c r="G22">
-        <v>6.34946491013412</v>
+        <v>1.985679384751462</v>
       </c>
       <c r="H22">
-        <v>1.343820023134643</v>
+        <v>0.4202552111904385</v>
       </c>
       <c r="I22">
-        <v>9.959877110580949</v>
+        <v>3.114769974013572</v>
       </c>
       <c r="J22">
-        <v>2.934473800929827</v>
+        <v>0.9177031787827515</v>
       </c>
       <c r="K22">
-        <v>3.886506953373386</v>
+        <v>1.215434189373877</v>
       </c>
       <c r="L22">
-        <v>12.65123216390606</v>
+        <v>3.956442197117717</v>
       </c>
       <c r="M22">
-        <v>7.960821874997503</v>
+        <v>2.489601896630863</v>
       </c>
       <c r="N22">
-        <v>0.1301343586477191</v>
+        <v>0.04069714800725949</v>
       </c>
       <c r="O22">
-        <v>0.5408460682785973</v>
+        <v>0.169139746940031</v>
       </c>
       <c r="P22">
-        <v>68.73495560944299</v>
+        <v>21.49560416463421</v>
       </c>
     </row>
     <row r="23" spans="1:16">
@@ -1488,49 +1488,49 @@
         <v>2024121707</v>
       </c>
       <c r="B23">
-        <v>5.001400185275218</v>
+        <v>1.564096720487798</v>
       </c>
       <c r="C23">
-        <v>22.49402972737116</v>
+        <v>7.034597677410261</v>
       </c>
       <c r="D23">
-        <v>0.004459190064549</v>
+        <v>0.001394530391014705</v>
       </c>
       <c r="E23">
-        <v>0.4241483991222612</v>
+        <v>0.1326446785882968</v>
       </c>
       <c r="F23">
-        <v>4.293466313311896</v>
+        <v>1.342703309354647</v>
       </c>
       <c r="G23">
-        <v>4.960519461042282</v>
+        <v>1.55131201933708</v>
       </c>
       <c r="H23">
-        <v>1.33024608350702</v>
+        <v>0.4160102090572016</v>
       </c>
       <c r="I23">
-        <v>9.859272291282149</v>
+        <v>3.083307651043738</v>
       </c>
       <c r="J23">
-        <v>3.413146832287175</v>
+        <v>1.067399441988448</v>
       </c>
       <c r="K23">
-        <v>4.520476172717982</v>
+        <v>1.413696503952595</v>
       </c>
       <c r="L23">
-        <v>15.9897517627146</v>
+        <v>5.000503332468227</v>
       </c>
       <c r="M23">
-        <v>10.06159431423296</v>
+        <v>3.146580174908451</v>
       </c>
       <c r="N23">
-        <v>0.1171209227829472</v>
+        <v>0.03662743320653355</v>
       </c>
       <c r="O23">
-        <v>0.4867614614507375</v>
+        <v>0.1522257722460279</v>
       </c>
       <c r="P23">
-        <v>82.95639311716293</v>
+        <v>25.94309945444032</v>
       </c>
     </row>
     <row r="24" spans="1:16">
@@ -1538,49 +1538,49 @@
         <v>2024121708</v>
       </c>
       <c r="B24">
-        <v>6.139633073444574</v>
+        <v>1.920058303561778</v>
       </c>
       <c r="C24">
-        <v>27.61328503082256</v>
+        <v>8.635551437327704</v>
       </c>
       <c r="D24">
-        <v>0.00923689370513721</v>
+        <v>0.002888670095673318</v>
       </c>
       <c r="E24">
-        <v>0.8785931124675411</v>
+        <v>0.2747639770757576</v>
       </c>
       <c r="F24">
-        <v>6.268460817435371</v>
+        <v>1.960346831657786</v>
       </c>
       <c r="G24">
-        <v>7.242358413121732</v>
+        <v>2.264915548232136</v>
       </c>
       <c r="H24">
-        <v>0.8144363776573592</v>
+        <v>0.254700127994205</v>
       </c>
       <c r="I24">
-        <v>6.036289157927848</v>
+        <v>1.887739378190043</v>
       </c>
       <c r="J24">
-        <v>4.183186056644645</v>
+        <v>1.308215169754135</v>
       </c>
       <c r="K24">
-        <v>5.54033969948972</v>
+        <v>1.732640227405314</v>
       </c>
       <c r="L24">
-        <v>19.50398291935518</v>
+        <v>6.099515053889816</v>
       </c>
       <c r="M24">
-        <v>12.27293372395448</v>
+        <v>3.838136257305913</v>
       </c>
       <c r="N24">
-        <v>0.2602687172954382</v>
+        <v>0.08139429601451899</v>
       </c>
       <c r="O24">
-        <v>1.081692136557195</v>
+        <v>0.3382794938800621</v>
       </c>
       <c r="P24">
-        <v>97.8446961298788</v>
+        <v>30.59914477238484</v>
       </c>
     </row>
     <row r="25" spans="1:16">
@@ -1588,49 +1588,49 @@
         <v>2024121709</v>
       </c>
       <c r="B25">
-        <v>4.465187689777879</v>
+        <v>1.396406038954019</v>
       </c>
       <c r="C25">
-        <v>20.0823891133255</v>
+        <v>6.280401045329238</v>
       </c>
       <c r="D25">
-        <v>0.01624419237799993</v>
+        <v>0.005080074995839285</v>
       </c>
       <c r="E25">
-        <v>1.545112025373952</v>
+        <v>0.4832056148573668</v>
       </c>
       <c r="F25">
-        <v>8.758671279156271</v>
+        <v>2.739114751083481</v>
       </c>
       <c r="G25">
-        <v>10.11945970052625</v>
+        <v>3.164676519447643</v>
       </c>
       <c r="H25">
-        <v>0.8144363776573592</v>
+        <v>0.254700127994205</v>
       </c>
       <c r="I25">
-        <v>6.036289157927848</v>
+        <v>1.887739378190043</v>
       </c>
       <c r="J25">
-        <v>4.703482829859155</v>
+        <v>1.470928499325545</v>
       </c>
       <c r="K25">
-        <v>6.229436677038192</v>
+        <v>1.948142743251746</v>
       </c>
       <c r="L25">
-        <v>26.00531055914023</v>
+        <v>8.132686738519752</v>
       </c>
       <c r="M25">
-        <v>16.36391163193931</v>
+        <v>5.117515009741216</v>
       </c>
       <c r="N25">
-        <v>0.3643762042136136</v>
+        <v>0.1139520144203266</v>
       </c>
       <c r="O25">
-        <v>1.514368991180072</v>
+        <v>0.4735912914320868</v>
       </c>
       <c r="P25">
-        <v>107.0186764294936</v>
+        <v>33.46813984754251</v>
       </c>
     </row>
     <row r="26" spans="1:16">
@@ -1638,49 +1638,49 @@
         <v>2024121710</v>
       </c>
       <c r="B26">
-        <v>3.777860763731278</v>
+        <v>1.181457074442538</v>
       </c>
       <c r="C26">
-        <v>16.99110432623065</v>
+        <v>5.313658089661748</v>
       </c>
       <c r="D26">
-        <v>0.01082946158533328</v>
+        <v>0.003386716663892856</v>
       </c>
       <c r="E26">
-        <v>1.030074683582634</v>
+        <v>0.3221370765715779</v>
       </c>
       <c r="F26">
-        <v>9.359756563019934</v>
+        <v>2.927093214393133</v>
       </c>
       <c r="G26">
-        <v>10.81393242507217</v>
+        <v>3.381860202154833</v>
       </c>
       <c r="H26">
-        <v>0.4343660680839249</v>
+        <v>0.135840068263576</v>
       </c>
       <c r="I26">
-        <v>3.219354217561519</v>
+        <v>1.00679433503469</v>
       </c>
       <c r="J26">
-        <v>5.057284635645021</v>
+        <v>1.581573563434104</v>
       </c>
       <c r="K26">
-        <v>6.698022621771155</v>
+        <v>2.09468445402732</v>
       </c>
       <c r="L26">
-        <v>30.39809950494094</v>
+        <v>9.506451390296734</v>
       </c>
       <c r="M26">
-        <v>19.12808589409122</v>
+        <v>5.981960112738046</v>
       </c>
       <c r="N26">
-        <v>0.1821881021068068</v>
+        <v>0.05697600721016328</v>
       </c>
       <c r="O26">
-        <v>0.7571844955900361</v>
+        <v>0.2367956457160434</v>
       </c>
       <c r="P26">
-        <v>107.8581437630126</v>
+        <v>33.7306679506084</v>
       </c>
     </row>
     <row r="27" spans="1:16">
@@ -1688,49 +1688,49 @@
         <v>2024121711</v>
       </c>
       <c r="B27">
-        <v>3.936287182855494</v>
+        <v>1.231002048532064</v>
       </c>
       <c r="C27">
-        <v>17.70363450765322</v>
+        <v>5.536488912776594</v>
       </c>
       <c r="D27">
-        <v>0.013377570193647</v>
+        <v>0.004183591173044116</v>
       </c>
       <c r="E27">
-        <v>1.272445197366784</v>
+        <v>0.3979340357648903</v>
       </c>
       <c r="F27">
-        <v>9.016279257954984</v>
+        <v>2.819676949644761</v>
       </c>
       <c r="G27">
-        <v>10.4170908681888</v>
+        <v>3.257755240607866</v>
       </c>
       <c r="H27">
-        <v>0.4886618265944154</v>
+        <v>0.152820076796523</v>
       </c>
       <c r="I27">
-        <v>3.621773494756708</v>
+        <v>1.132643626914026</v>
       </c>
       <c r="J27">
-        <v>4.703482829859155</v>
+        <v>1.470928499325545</v>
       </c>
       <c r="K27">
-        <v>6.229436677038192</v>
+        <v>1.948142743251746</v>
       </c>
       <c r="L27">
-        <v>27.05957990613241</v>
+        <v>8.462390254946227</v>
       </c>
       <c r="M27">
-        <v>17.02731345485577</v>
+        <v>5.324981834460457</v>
       </c>
       <c r="N27">
-        <v>0.1431477945124911</v>
+        <v>0.04476686280798545</v>
       </c>
       <c r="O27">
-        <v>0.5949306751064569</v>
+        <v>0.1860537216340341</v>
       </c>
       <c r="P27">
-        <v>102.2274412430685</v>
+        <v>31.96976839863577</v>
       </c>
     </row>
     <row r="28" spans="1:16">
@@ -1738,49 +1738,49 @@
         <v>2024121712</v>
       </c>
       <c r="B28">
-        <v>4.167833487729344</v>
+        <v>1.303413933739832</v>
       </c>
       <c r="C28">
-        <v>18.7450247728093</v>
+        <v>5.86216473117522</v>
       </c>
       <c r="D28">
-        <v>0.01274054304156857</v>
+        <v>0.003984372545756301</v>
       </c>
       <c r="E28">
-        <v>1.211852568920746</v>
+        <v>0.3789847959665624</v>
       </c>
       <c r="F28">
-        <v>9.188017910487458</v>
+        <v>2.873385082018945</v>
       </c>
       <c r="G28">
-        <v>10.61551164663048</v>
+        <v>3.31980772138135</v>
       </c>
       <c r="H28">
-        <v>0.4479400077115475</v>
+        <v>0.1400850703968128</v>
       </c>
       <c r="I28">
-        <v>3.319959036860315</v>
+        <v>1.038256658004524</v>
       </c>
       <c r="J28">
-        <v>4.620235346144834</v>
+        <v>1.444894366594119</v>
       </c>
       <c r="K28">
-        <v>6.119181160630438</v>
+        <v>1.913662340716318</v>
       </c>
       <c r="L28">
-        <v>25.65388744347619</v>
+        <v>8.022785566377591</v>
       </c>
       <c r="M28">
-        <v>16.14277769096715</v>
+        <v>5.048359401501471</v>
       </c>
       <c r="N28">
-        <v>0.2472552814306663</v>
+        <v>0.07732458121379304</v>
       </c>
       <c r="O28">
-        <v>1.027607529729335</v>
+        <v>0.321365519186059</v>
       </c>
       <c r="P28">
-        <v>101.5198244265694</v>
+        <v>31.74847414081835</v>
       </c>
     </row>
     <row r="29" spans="1:16">
@@ -1788,49 +1788,49 @@
         <v>2024121713</v>
       </c>
       <c r="B29">
-        <v>4.126398885804552</v>
+        <v>1.290456017439495</v>
       </c>
       <c r="C29">
-        <v>18.55867072536032</v>
+        <v>5.803885900514411</v>
       </c>
       <c r="D29">
-        <v>0.01146648873741171</v>
+        <v>0.003585935291180671</v>
       </c>
       <c r="E29">
-        <v>1.090667312028672</v>
+        <v>0.3410863163699059</v>
       </c>
       <c r="F29">
-        <v>7.64237003769518</v>
+        <v>2.390011890651272</v>
       </c>
       <c r="G29">
-        <v>8.829724640655263</v>
+        <v>2.761335394420001</v>
       </c>
       <c r="H29">
-        <v>0.4886618265944154</v>
+        <v>0.152820076796523</v>
       </c>
       <c r="I29">
-        <v>3.621773494756708</v>
+        <v>1.132643626914026</v>
       </c>
       <c r="J29">
-        <v>5.265403344930824</v>
+        <v>1.646658895262668</v>
       </c>
       <c r="K29">
-        <v>6.973661412790544</v>
+        <v>2.180885460365893</v>
       </c>
       <c r="L29">
-        <v>17.57115578320287</v>
+        <v>5.495058607107941</v>
       </c>
       <c r="M29">
-        <v>11.05669704860764</v>
+        <v>3.457780411987309</v>
       </c>
       <c r="N29">
-        <v>0.1821881021068068</v>
+        <v>0.05697600721016328</v>
       </c>
       <c r="O29">
-        <v>0.7571844955900361</v>
+        <v>0.2367956457160434</v>
       </c>
       <c r="P29">
-        <v>86.17602359886125</v>
+        <v>26.94998018604683</v>
       </c>
     </row>
     <row r="30" spans="1:16">
@@ -1838,49 +1838,49 @@
         <v>2024121714</v>
       </c>
       <c r="B30">
-        <v>4.421315758328091</v>
+        <v>1.382685892283074</v>
       </c>
       <c r="C30">
-        <v>19.88507306308541</v>
+        <v>6.218694048158978</v>
       </c>
       <c r="D30">
-        <v>0.0111479751613725</v>
+        <v>0.003486325977536763</v>
       </c>
       <c r="E30">
-        <v>1.060370997805653</v>
+        <v>0.3316116964707419</v>
       </c>
       <c r="F30">
-        <v>10.64779645701351</v>
+        <v>3.329904207199526</v>
       </c>
       <c r="G30">
-        <v>12.30208826338486</v>
+        <v>3.847253807955957</v>
       </c>
       <c r="H30">
-        <v>0.5022357662220382</v>
+        <v>0.1570650789297598</v>
       </c>
       <c r="I30">
-        <v>3.722378314055505</v>
+        <v>1.16410594988386</v>
       </c>
       <c r="J30">
-        <v>4.869977797287798</v>
+        <v>1.522996764788396</v>
       </c>
       <c r="K30">
-        <v>6.449947709853703</v>
+        <v>2.017103548322605</v>
       </c>
       <c r="L30">
-        <v>21.26109849767547</v>
+        <v>6.649020914600606</v>
       </c>
       <c r="M30">
-        <v>13.37860342881525</v>
+        <v>4.183914298504643</v>
       </c>
       <c r="N30">
-        <v>0.1821881021068068</v>
+        <v>0.05697600721016328</v>
       </c>
       <c r="O30">
-        <v>0.7571844955900361</v>
+        <v>0.2367956457160434</v>
       </c>
       <c r="P30">
-        <v>99.45140662638552</v>
+        <v>31.10161418600189</v>
       </c>
     </row>
     <row r="31" spans="1:16">
@@ -1888,49 +1888,49 @@
         <v>2024121715</v>
       </c>
       <c r="B31">
-        <v>4.630926097477052</v>
+        <v>1.448237704155369</v>
       </c>
       <c r="C31">
-        <v>20.82780530312144</v>
+        <v>6.513516367972468</v>
       </c>
       <c r="D31">
-        <v>0.01178500231345093</v>
+        <v>0.003685544604824577</v>
       </c>
       <c r="E31">
-        <v>1.12096362625169</v>
+        <v>0.3505609362690701</v>
       </c>
       <c r="F31">
-        <v>10.13258049941608</v>
+        <v>3.168779810076968</v>
       </c>
       <c r="G31">
-        <v>11.70682592805978</v>
+        <v>3.661096365635507</v>
       </c>
       <c r="H31">
-        <v>0.4750878869667927</v>
+        <v>0.1485750746632863</v>
       </c>
       <c r="I31">
-        <v>3.52116867545791</v>
+        <v>1.101181303944192</v>
       </c>
       <c r="J31">
-        <v>4.724294700787735</v>
+        <v>1.477437032508402</v>
       </c>
       <c r="K31">
-        <v>6.257000556140132</v>
+        <v>1.956762843885603</v>
       </c>
       <c r="L31">
-        <v>18.27400201453098</v>
+        <v>5.714860951392259</v>
       </c>
       <c r="M31">
-        <v>11.49896493055195</v>
+        <v>3.596091628466801</v>
       </c>
       <c r="N31">
-        <v>0.2082149738363506</v>
+        <v>0.0651154368116152</v>
       </c>
       <c r="O31">
-        <v>0.8653537092457557</v>
+        <v>0.2706235951040497</v>
       </c>
       <c r="P31">
-        <v>94.25497390415711</v>
+        <v>29.47652459549041</v>
       </c>
     </row>
     <row r="32" spans="1:16">
@@ -1938,49 +1938,49 @@
         <v>2024121716</v>
       </c>
       <c r="B32">
-        <v>5.264631773973909</v>
+        <v>1.646417600513473</v>
       </c>
       <c r="C32">
-        <v>23.67792602881174</v>
+        <v>7.404839660431855</v>
       </c>
       <c r="D32">
-        <v>0.008918380129098</v>
+        <v>0.002789060782029411</v>
       </c>
       <c r="E32">
-        <v>0.8482967982445224</v>
+        <v>0.2652893571765936</v>
       </c>
       <c r="F32">
-        <v>10.90540443581221</v>
+        <v>3.410466405760804</v>
       </c>
       <c r="G32">
-        <v>12.5997194310474</v>
+        <v>3.94033252911618</v>
       </c>
       <c r="H32">
-        <v>0.6922709210087553</v>
+        <v>0.2164951087950742</v>
       </c>
       <c r="I32">
-        <v>5.130845784238669</v>
+        <v>1.604578471461537</v>
       </c>
       <c r="J32">
-        <v>4.516175991501933</v>
+        <v>1.412351700679837</v>
       </c>
       <c r="K32">
-        <v>5.981361765120742</v>
+        <v>1.870561837547031</v>
       </c>
       <c r="L32">
-        <v>10.71840502775374</v>
+        <v>3.351985750335843</v>
       </c>
       <c r="M32">
-        <v>6.744585199650662</v>
+        <v>2.109246051312258</v>
       </c>
       <c r="N32">
-        <v>0.27328215316021</v>
+        <v>0.08546401081524491</v>
       </c>
       <c r="O32">
-        <v>1.135776743385054</v>
+        <v>0.3551934685740652</v>
       </c>
       <c r="P32">
-        <v>88.49760043383864</v>
+        <v>27.67601101330182</v>
       </c>
     </row>
     <row r="33" spans="1:16">
@@ -1988,49 +1988,49 @@
         <v>2024121717</v>
       </c>
       <c r="B33">
-        <v>5.754535008496483</v>
+        <v>1.799625905005699</v>
       </c>
       <c r="C33">
-        <v>25.88128858982616</v>
+        <v>8.093901128833149</v>
       </c>
       <c r="D33">
-        <v>0.007007298672862713</v>
+        <v>0.002191404900165966</v>
       </c>
       <c r="E33">
-        <v>0.6665189129064105</v>
+        <v>0.2084416377816092</v>
       </c>
       <c r="F33">
-        <v>9.359756563019934</v>
+        <v>2.927093214393133</v>
       </c>
       <c r="G33">
-        <v>10.81393242507217</v>
+        <v>3.381860202154833</v>
       </c>
       <c r="H33">
-        <v>0.9908975928164536</v>
+        <v>0.3098851557262828</v>
       </c>
       <c r="I33">
-        <v>7.344151808812213</v>
+        <v>2.296749576797886</v>
       </c>
       <c r="J33">
-        <v>3.288275606715692</v>
+        <v>1.02834824289131</v>
       </c>
       <c r="K33">
-        <v>4.355092898106347</v>
+        <v>1.361975900149451</v>
       </c>
       <c r="L33">
-        <v>8.258443218105347</v>
+        <v>2.582677545340733</v>
       </c>
       <c r="M33">
-        <v>5.196647612845593</v>
+        <v>1.625156793634035</v>
       </c>
       <c r="N33">
-        <v>0.0910940510534034</v>
+        <v>0.02848800360508164</v>
       </c>
       <c r="O33">
-        <v>0.378592247795018</v>
+        <v>0.1183978228580217</v>
       </c>
       <c r="P33">
-        <v>82.38623383424408</v>
+        <v>25.76479253407139</v>
       </c>
     </row>
     <row r="34" spans="1:16">
@@ -2038,49 +2038,49 @@
         <v>2024121718</v>
       </c>
       <c r="B34">
-        <v>5.844716200921035</v>
+        <v>1.827828428718198</v>
       </c>
       <c r="C34">
-        <v>26.28688269309748</v>
+        <v>8.22074328968314</v>
       </c>
       <c r="D34">
-        <v>0.00828135297701957</v>
+        <v>0.002589842154741596</v>
       </c>
       <c r="E34">
-        <v>0.7877041697984852</v>
+        <v>0.2463401173782654</v>
       </c>
       <c r="F34">
-        <v>7.384762058896462</v>
+        <v>2.309449692089995</v>
       </c>
       <c r="G34">
-        <v>8.532093472992724</v>
+        <v>2.668256673259777</v>
       </c>
       <c r="H34">
-        <v>1.058767290954567</v>
+        <v>0.3311101663924665</v>
       </c>
       <c r="I34">
-        <v>7.847175905306202</v>
+        <v>2.454061191647057</v>
       </c>
       <c r="J34">
-        <v>1.769009028929328</v>
+        <v>0.5532253205427935</v>
       </c>
       <c r="K34">
-        <v>2.342929723664807</v>
+        <v>0.7327085538778692</v>
       </c>
       <c r="L34">
-        <v>4.392788945800716</v>
+        <v>1.373764651776985</v>
       </c>
       <c r="M34">
-        <v>2.76417426215191</v>
+        <v>0.8644451029968273</v>
       </c>
       <c r="N34">
-        <v>0.03904030759431574</v>
+        <v>0.01220914440217785</v>
       </c>
       <c r="O34">
-        <v>0.1622538204835792</v>
+        <v>0.05074192408200931</v>
       </c>
       <c r="P34">
-        <v>69.22057923356864</v>
+        <v>21.64747409900231</v>
       </c>
     </row>
     <row r="35" spans="1:16">
@@ -2088,49 +2088,49 @@
         <v>2024121719</v>
       </c>
       <c r="B35">
-        <v>3.772986104681303</v>
+        <v>1.179932613701322</v>
       </c>
       <c r="C35">
-        <v>16.96918032064842</v>
+        <v>5.306801756642826</v>
       </c>
       <c r="D35">
-        <v>0.01305905661760778</v>
+        <v>0.004083981859400209</v>
       </c>
       <c r="E35">
-        <v>1.242148883143765</v>
+        <v>0.3884594158657262</v>
       </c>
       <c r="F35">
-        <v>4.465204965844375</v>
+        <v>1.396411441728833</v>
       </c>
       <c r="G35">
-        <v>5.158940239483971</v>
+        <v>1.613364500110563</v>
       </c>
       <c r="H35">
-        <v>0.8687321361678497</v>
+        <v>0.271680136527152</v>
       </c>
       <c r="I35">
-        <v>6.438708435123038</v>
+        <v>2.01358867006938</v>
       </c>
       <c r="J35">
-        <v>0.8116629662146325</v>
+        <v>0.2538327941313994</v>
       </c>
       <c r="K35">
-        <v>1.074991284975617</v>
+        <v>0.3361839247204341</v>
       </c>
       <c r="L35">
-        <v>3.338519598808545</v>
+        <v>1.044061135350509</v>
       </c>
       <c r="M35">
-        <v>2.100772439235452</v>
+        <v>0.6569782782775888</v>
       </c>
       <c r="N35">
-        <v>0.05205374345908764</v>
+        <v>0.0162788592029038</v>
       </c>
       <c r="O35">
-        <v>0.2163384273114389</v>
+        <v>0.06765589877601241</v>
       </c>
       <c r="P35">
-        <v>46.5232986017151</v>
+        <v>14.54931340696405</v>
       </c>
     </row>
     <row r="36" spans="1:16">
@@ -2138,49 +2138,49 @@
         <v>2024121720</v>
       </c>
       <c r="B36">
-        <v>3.251397586333887</v>
+        <v>1.016815314391192</v>
       </c>
       <c r="C36">
-        <v>14.62331172334948</v>
+        <v>4.573174123618563</v>
       </c>
       <c r="D36">
-        <v>0.01433311092176464</v>
+        <v>0.004482419113975839</v>
       </c>
       <c r="E36">
-        <v>1.36333414003584</v>
+        <v>0.4263578954623824</v>
       </c>
       <c r="F36">
-        <v>3.692381029448231</v>
+        <v>1.154724846044997</v>
       </c>
       <c r="G36">
-        <v>4.266046736496362</v>
+        <v>1.334128336629888</v>
       </c>
       <c r="H36">
-        <v>0.7465666795192458</v>
+        <v>0.2334751173280213</v>
       </c>
       <c r="I36">
-        <v>5.533265061433859</v>
+        <v>1.730427763340873</v>
       </c>
       <c r="J36">
-        <v>0.9781579336432757</v>
+        <v>0.3059010595942505</v>
       </c>
       <c r="K36">
-        <v>1.295502317791129</v>
+        <v>0.4051447297912923</v>
       </c>
       <c r="L36">
-        <v>2.811384925312458</v>
+        <v>0.8792093771372705</v>
       </c>
       <c r="M36">
-        <v>1.769071527777222</v>
+        <v>0.5532448659179696</v>
       </c>
       <c r="N36">
-        <v>0.03904030759431574</v>
+        <v>0.01220914440217785</v>
       </c>
       <c r="O36">
-        <v>0.1622538204835792</v>
+        <v>0.05074192408200931</v>
       </c>
       <c r="P36">
-        <v>40.54604690014065</v>
+        <v>12.68003691685486</v>
       </c>
     </row>
     <row r="37" spans="1:16">
@@ -2188,43 +2188,43 @@
         <v>2024121721</v>
       </c>
       <c r="B37">
-        <v>2.473889467862741</v>
+        <v>0.7736638261672103</v>
       </c>
       <c r="C37">
-        <v>11.1264328329833</v>
+        <v>3.47958900710108</v>
       </c>
       <c r="D37">
-        <v>0.007962839400980356</v>
+        <v>0.002490232841097689</v>
       </c>
       <c r="E37">
-        <v>0.7574078555754664</v>
+        <v>0.2368654974791014</v>
       </c>
       <c r="F37">
-        <v>3.177165071850804</v>
+        <v>0.9936004489224395</v>
       </c>
       <c r="G37">
-        <v>3.670784401171288</v>
+        <v>1.147970894309439</v>
       </c>
       <c r="H37">
-        <v>0.6108272832430193</v>
+        <v>0.1910250959956538</v>
       </c>
       <c r="I37">
-        <v>4.527216868445885</v>
+        <v>1.415804533642532</v>
       </c>
       <c r="J37">
-        <v>0.6659798697145706</v>
+        <v>0.2082730618514046</v>
       </c>
       <c r="K37">
-        <v>0.8820441312620448</v>
+        <v>0.2758432202834331</v>
       </c>
       <c r="L37">
-        <v>2.108538693984344</v>
+        <v>0.6594070328529528</v>
       </c>
       <c r="M37">
-        <v>1.326803645832917</v>
+        <v>0.4149336494384772</v>
       </c>
       <c r="P37">
-        <v>31.33505296132736</v>
+        <v>9.799466500884821</v>
       </c>
     </row>
     <row r="38" spans="1:16">
@@ -2232,49 +2232,49 @@
         <v>2024121722</v>
       </c>
       <c r="B38">
-        <v>1.808498507541037</v>
+        <v>0.5655749349912024</v>
       </c>
       <c r="C38">
-        <v>8.133806071008475</v>
+        <v>2.54369955001872</v>
       </c>
       <c r="D38">
-        <v>0.008599866553058784</v>
+        <v>0.002689451468385503</v>
       </c>
       <c r="E38">
-        <v>0.8180004840215038</v>
+        <v>0.2558147372774295</v>
       </c>
       <c r="F38">
-        <v>2.576079787987137</v>
+        <v>0.8056219856127886</v>
       </c>
       <c r="G38">
-        <v>2.976311676625369</v>
+        <v>0.9307872116022475</v>
       </c>
       <c r="H38">
-        <v>0.2986266718076984</v>
+        <v>0.09339004693120849</v>
       </c>
       <c r="I38">
-        <v>2.213306024573543</v>
+        <v>0.6921711053363493</v>
       </c>
       <c r="J38">
-        <v>0.6659798697145706</v>
+        <v>0.2082730618514046</v>
       </c>
       <c r="K38">
-        <v>0.8820441312620448</v>
+        <v>0.2758432202834331</v>
       </c>
       <c r="L38">
-        <v>2.284250251816373</v>
+        <v>0.7143576189240324</v>
       </c>
       <c r="M38">
-        <v>1.437370616318993</v>
+        <v>0.4495114535583501</v>
       </c>
       <c r="N38">
-        <v>0.01301343586477191</v>
+        <v>0.00406971480072595</v>
       </c>
       <c r="O38">
-        <v>0.05408460682785973</v>
+        <v>0.0169139746940031</v>
       </c>
       <c r="P38">
-        <v>24.16997200192244</v>
+        <v>7.558718067350281</v>
       </c>
     </row>
     <row r="39" spans="1:16">
@@ -2282,49 +2282,49 @@
         <v>2024121723</v>
       </c>
       <c r="B39">
-        <v>1.130920899594396</v>
+        <v>0.3536748919621533</v>
       </c>
       <c r="C39">
-        <v>5.086369295078079</v>
+        <v>1.590669260389065</v>
       </c>
       <c r="D39">
-        <v>0.0022295950322745</v>
+        <v>0.0006972651955073527</v>
       </c>
       <c r="E39">
-        <v>0.2120741995611306</v>
+        <v>0.06632233929414839</v>
       </c>
       <c r="F39">
-        <v>1.116301241461094</v>
+        <v>0.3491028604322083</v>
       </c>
       <c r="G39">
-        <v>1.289735059870993</v>
+        <v>0.4033411250276407</v>
       </c>
       <c r="H39">
-        <v>0.2714787925524531</v>
+        <v>0.08490004266473498</v>
       </c>
       <c r="I39">
-        <v>2.012096385975949</v>
+        <v>0.6292464593966811</v>
       </c>
       <c r="J39">
-        <v>0.374613676714446</v>
+        <v>0.1171535972914151</v>
       </c>
       <c r="K39">
-        <v>0.4961498238349004</v>
+        <v>0.1551618114094311</v>
       </c>
       <c r="L39">
-        <v>3.338519598808545</v>
+        <v>1.044061135350509</v>
       </c>
       <c r="M39">
-        <v>2.100772439235452</v>
+        <v>0.6569782782775888</v>
       </c>
       <c r="N39">
-        <v>0.01301343586477191</v>
+        <v>0.00406971480072595</v>
       </c>
       <c r="O39">
-        <v>0.05408460682785973</v>
+        <v>0.0169139746940031</v>
       </c>
       <c r="P39">
-        <v>17.49835905041234</v>
+        <v>5.472292756185812</v>
       </c>
     </row>
     <row r="40" spans="1:16">
@@ -2332,49 +2332,49 @@
         <v>2024121800</v>
       </c>
       <c r="B40">
-        <v>0.7945694251460623</v>
+        <v>0.2484871008182371</v>
       </c>
       <c r="C40">
-        <v>3.573612909903994</v>
+        <v>1.117582282083696</v>
       </c>
       <c r="D40">
-        <v>0.005096217216627426</v>
+        <v>0.00159374901830252</v>
       </c>
       <c r="E40">
-        <v>0.4847410275682986</v>
+        <v>0.1515939183866249</v>
       </c>
       <c r="F40">
-        <v>0.7728239363961414</v>
+        <v>0.2416865956838366</v>
       </c>
       <c r="G40">
-        <v>0.8928935029876105</v>
+        <v>0.2792361634806743</v>
       </c>
       <c r="H40">
-        <v>0.1357393962762266</v>
+        <v>0.04245002133236749</v>
       </c>
       <c r="I40">
-        <v>1.006048192987974</v>
+        <v>0.3146232296983406</v>
       </c>
       <c r="J40">
-        <v>0.7492273534288919</v>
+        <v>0.2343071945828302</v>
       </c>
       <c r="K40">
-        <v>0.9922996476698008</v>
+        <v>0.3103236228188623</v>
       </c>
       <c r="L40">
-        <v>2.108538693984344</v>
+        <v>0.6594070328529528</v>
       </c>
       <c r="M40">
-        <v>1.326803645832917</v>
+        <v>0.4149336494384772</v>
       </c>
       <c r="N40">
-        <v>0.02602687172954382</v>
+        <v>0.008139429601451901</v>
       </c>
       <c r="O40">
-        <v>0.1081692136557195</v>
+        <v>0.03382794938800621</v>
       </c>
       <c r="P40">
-        <v>12.97659003478415</v>
+        <v>4.058191939184661</v>
       </c>
     </row>
     <row r="41" spans="1:16">
@@ -2382,37 +2382,37 @@
         <v>2024121801</v>
       </c>
       <c r="B41">
-        <v>0.5142765297724514</v>
+        <v>0.1608306081983068</v>
       </c>
       <c r="C41">
-        <v>2.312982588925591</v>
+        <v>0.7233431334958896</v>
       </c>
       <c r="D41">
-        <v>0.007644325824941142</v>
+        <v>0.00239062352745378</v>
       </c>
       <c r="E41">
-        <v>0.7271115413524478</v>
+        <v>0.2273908775799374</v>
       </c>
       <c r="F41">
-        <v>0.2576079787987138</v>
+        <v>0.08056219856127886</v>
       </c>
       <c r="G41">
-        <v>0.2976311676625368</v>
+        <v>0.09307872116022477</v>
       </c>
       <c r="J41">
-        <v>0.5411086441430887</v>
+        <v>0.1692218627542663</v>
       </c>
       <c r="K41">
-        <v>0.7166608566504116</v>
+        <v>0.2241226164802894</v>
       </c>
       <c r="L41">
-        <v>3.514231156640572</v>
+        <v>1.099011721421588</v>
       </c>
       <c r="M41">
-        <v>2.211339409721528</v>
+        <v>0.6915560823974619</v>
       </c>
       <c r="P41">
-        <v>11.10059419949228</v>
+        <v>3.471508445576697</v>
       </c>
     </row>
     <row r="42" spans="1:16">
@@ -2420,37 +2420,37 @@
         <v>2024121802</v>
       </c>
       <c r="B42">
-        <v>0.3314768153983572</v>
+        <v>0.1036633304027001</v>
       </c>
       <c r="C42">
-        <v>1.490832379591851</v>
+        <v>0.4662306452864501</v>
       </c>
       <c r="D42">
-        <v>0.005096217216627426</v>
+        <v>0.00159374901830252</v>
       </c>
       <c r="E42">
-        <v>0.4847410275682986</v>
+        <v>0.1515939183866249</v>
       </c>
       <c r="F42">
-        <v>0.8586932626623796</v>
+        <v>0.2685406618709296</v>
       </c>
       <c r="G42">
-        <v>0.9921038922084563</v>
+        <v>0.3102624038674159</v>
       </c>
       <c r="J42">
-        <v>0.374613676714446</v>
+        <v>0.1171535972914151</v>
       </c>
       <c r="K42">
-        <v>0.4961498238349004</v>
+        <v>0.1551618114094311</v>
       </c>
       <c r="L42">
-        <v>4.392788945800716</v>
+        <v>1.373764651776985</v>
       </c>
       <c r="M42">
-        <v>2.76417426215191</v>
+        <v>0.8644451029968273</v>
       </c>
       <c r="P42">
-        <v>12.19067030314794</v>
+        <v>3.812409872307082</v>
       </c>
     </row>
     <row r="43" spans="1:16">
@@ -2458,43 +2458,43 @@
         <v>2024121803</v>
       </c>
       <c r="B43">
-        <v>0.3729114173231522</v>
+        <v>0.1166212467030377</v>
       </c>
       <c r="C43">
-        <v>1.677186427040832</v>
+        <v>0.5245094759472565</v>
       </c>
       <c r="D43">
-        <v>0.004459190064549</v>
+        <v>0.001394530391014705</v>
       </c>
       <c r="E43">
-        <v>0.4241483991222612</v>
+        <v>0.1326446785882968</v>
       </c>
       <c r="F43">
-        <v>0.7728239363961414</v>
+        <v>0.2416865956838366</v>
       </c>
       <c r="G43">
-        <v>0.8928935029876105</v>
+        <v>0.2792361634806743</v>
       </c>
       <c r="H43">
-        <v>0.1085915170209812</v>
+        <v>0.033960017065894</v>
       </c>
       <c r="I43">
-        <v>0.8048385543903798</v>
+        <v>0.2516985837586725</v>
       </c>
       <c r="J43">
-        <v>0.4578611604287672</v>
+        <v>0.1431877300228407</v>
       </c>
       <c r="K43">
-        <v>0.6064053402426559</v>
+        <v>0.1896422139448602</v>
       </c>
       <c r="L43">
-        <v>4.217077387968688</v>
+        <v>1.318814065705906</v>
       </c>
       <c r="M43">
-        <v>2.653607291665834</v>
+        <v>0.8298672988769544</v>
       </c>
       <c r="P43">
-        <v>12.99280412465185</v>
+        <v>4.063262600169244</v>
       </c>
     </row>
     <row r="44" spans="1:16">
@@ -2502,43 +2502,43 @@
         <v>2024121804</v>
       </c>
       <c r="B44">
-        <v>0.6653909603217025</v>
+        <v>0.2080888911760083</v>
       </c>
       <c r="C44">
-        <v>2.992626761974817</v>
+        <v>0.9358894570823597</v>
       </c>
       <c r="D44">
-        <v>0.002866622184352927</v>
+        <v>0.0008964838227951677</v>
       </c>
       <c r="E44">
-        <v>0.2726668280071679</v>
+        <v>0.08527157909247648</v>
       </c>
       <c r="F44">
-        <v>1.717386525324759</v>
+        <v>0.5370813237418591</v>
       </c>
       <c r="G44">
-        <v>1.984207784416913</v>
+        <v>0.6205248077348318</v>
       </c>
       <c r="H44">
-        <v>0.05429575851049061</v>
+        <v>0.016980008532947</v>
       </c>
       <c r="I44">
-        <v>0.4024192771951899</v>
+        <v>0.1258492918793362</v>
       </c>
       <c r="J44">
-        <v>0.9365341917861151</v>
+        <v>0.2928839932285376</v>
       </c>
       <c r="K44">
-        <v>1.240374559587251</v>
+        <v>0.3879045285235778</v>
       </c>
       <c r="L44">
-        <v>5.447058292792889</v>
+        <v>1.703468168203461</v>
       </c>
       <c r="M44">
-        <v>3.427576085068368</v>
+        <v>1.071911927716066</v>
       </c>
       <c r="P44">
-        <v>19.14340364717001</v>
+        <v>5.986750460734256</v>
       </c>
     </row>
     <row r="45" spans="1:16">
@@ -2546,49 +2546,49 @@
         <v>2024121805</v>
       </c>
       <c r="B45">
-        <v>1.601325497917065</v>
+        <v>0.5007853534895146</v>
       </c>
       <c r="C45">
-        <v>7.202035833763572</v>
+        <v>2.252305396714689</v>
       </c>
       <c r="D45">
-        <v>0.0022295950322745</v>
+        <v>0.0006972651955073527</v>
       </c>
       <c r="E45">
-        <v>0.2120741995611306</v>
+        <v>0.06632233929414839</v>
       </c>
       <c r="F45">
-        <v>3.692381029448231</v>
+        <v>1.154724846044997</v>
       </c>
       <c r="G45">
-        <v>4.266046736496362</v>
+        <v>1.334128336629888</v>
       </c>
       <c r="H45">
-        <v>0.4886618265944154</v>
+        <v>0.152820076796523</v>
       </c>
       <c r="I45">
-        <v>3.621773494756708</v>
+        <v>1.132643626914026</v>
       </c>
       <c r="J45">
-        <v>1.664949674286426</v>
+        <v>0.5206826546285116</v>
       </c>
       <c r="K45">
-        <v>2.205110328155112</v>
+        <v>0.6896080507085829</v>
       </c>
       <c r="L45">
-        <v>7.907020102441287</v>
+        <v>2.472776373198573</v>
       </c>
       <c r="M45">
-        <v>4.975513671873439</v>
+        <v>1.556001185394289</v>
       </c>
       <c r="N45">
-        <v>0.03904030759431574</v>
+        <v>0.01220914440217785</v>
       </c>
       <c r="O45">
-        <v>0.1622538204835792</v>
+        <v>0.05074192408200931</v>
       </c>
       <c r="P45">
-        <v>38.04041611840392</v>
+        <v>11.89644657349344</v>
       </c>
     </row>
     <row r="46" spans="1:16">
@@ -2596,49 +2596,49 @@
         <v>2024121806</v>
       </c>
       <c r="B46">
-        <v>3.044224576709913</v>
+        <v>0.9520257328895035</v>
       </c>
       <c r="C46">
-        <v>13.69154148610457</v>
+        <v>4.28177997031453</v>
       </c>
       <c r="D46">
-        <v>0.003185135760392143</v>
+        <v>0.0009960931364390753</v>
       </c>
       <c r="E46">
-        <v>0.3029631422301866</v>
+        <v>0.09474619899164059</v>
       </c>
       <c r="F46">
-        <v>7.899978016493892</v>
+        <v>2.470574089212552</v>
       </c>
       <c r="G46">
-        <v>9.1273558083178</v>
+        <v>2.854414115580226</v>
       </c>
       <c r="H46">
-        <v>1.303098204251775</v>
+        <v>0.4075202047907279</v>
       </c>
       <c r="I46">
-        <v>9.658062652684553</v>
+        <v>3.020383005104069</v>
       </c>
       <c r="J46">
-        <v>2.851226317215505</v>
+        <v>0.8916690460513264</v>
       </c>
       <c r="K46">
-        <v>3.776251436965631</v>
+        <v>1.180953786838448</v>
       </c>
       <c r="L46">
-        <v>13.70550151089824</v>
+        <v>4.286145713544195</v>
       </c>
       <c r="M46">
-        <v>8.624223697913962</v>
+        <v>2.697068721350103</v>
       </c>
       <c r="N46">
-        <v>0.1431477945124911</v>
+        <v>0.04476686280798545</v>
       </c>
       <c r="O46">
-        <v>0.5949306751064569</v>
+        <v>0.1860537216340341</v>
       </c>
       <c r="P46">
-        <v>74.72569045516536</v>
+        <v>23.36909726224578</v>
       </c>
     </row>
     <row r="47" spans="1:16">
@@ -2646,49 +2646,49 @@
         <v>2024121807</v>
       </c>
       <c r="B47">
-        <v>4.901469674750712</v>
+        <v>1.532845275292869</v>
       </c>
       <c r="C47">
-        <v>22.04458761293538</v>
+        <v>6.894042850522436</v>
       </c>
       <c r="D47">
-        <v>0.003503649336431356</v>
+        <v>0.001095702450082983</v>
       </c>
       <c r="E47">
-        <v>0.3332594564532053</v>
+        <v>0.1042208188908046</v>
       </c>
       <c r="F47">
-        <v>6.182591491169132</v>
+        <v>1.933492765470693</v>
       </c>
       <c r="G47">
-        <v>7.143148023900884</v>
+        <v>2.233889307845395</v>
       </c>
       <c r="H47">
-        <v>1.289524264624152</v>
+        <v>0.4032752026574913</v>
       </c>
       <c r="I47">
-        <v>9.557457833385758</v>
+        <v>2.988920682134235</v>
       </c>
       <c r="J47">
-        <v>3.329899348572853</v>
+        <v>1.041365309257023</v>
       </c>
       <c r="K47">
-        <v>4.410220656310225</v>
+        <v>1.379216101417166</v>
       </c>
       <c r="L47">
-        <v>17.39544422537083</v>
+        <v>5.440108021036862</v>
       </c>
       <c r="M47">
-        <v>10.94613007812157</v>
+        <v>3.423202607867435</v>
       </c>
       <c r="N47">
-        <v>0.1301343586477191</v>
+        <v>0.04069714800725949</v>
       </c>
       <c r="O47">
-        <v>0.5408460682785973</v>
+        <v>0.169139746940031</v>
       </c>
       <c r="P47">
-        <v>88.20821674185746</v>
+        <v>27.58551153978978</v>
       </c>
     </row>
     <row r="48" spans="1:16">
@@ -2696,49 +2696,49 @@
         <v>2024121808</v>
       </c>
       <c r="B48">
-        <v>6.01532926767019</v>
+        <v>1.881184554660764</v>
       </c>
       <c r="C48">
-        <v>27.05422288847565</v>
+        <v>8.460714945345284</v>
       </c>
       <c r="D48">
-        <v>0.007007298672862713</v>
+        <v>0.002191404900165966</v>
       </c>
       <c r="E48">
-        <v>0.6665189129064105</v>
+        <v>0.2084416377816092</v>
       </c>
       <c r="F48">
-        <v>9.016279257954984</v>
+        <v>2.819676949644761</v>
       </c>
       <c r="G48">
-        <v>10.4170908681888</v>
+        <v>3.257755240607866</v>
       </c>
       <c r="H48">
-        <v>0.7872884984021138</v>
+        <v>0.2462101237277315</v>
       </c>
       <c r="I48">
-        <v>5.835079519330253</v>
+        <v>1.824814732250376</v>
       </c>
       <c r="J48">
-        <v>4.079126702001746</v>
+        <v>1.275672503839853</v>
       </c>
       <c r="K48">
-        <v>5.402520303980027</v>
+        <v>1.689539724236028</v>
       </c>
       <c r="L48">
-        <v>21.26109849767547</v>
+        <v>6.649020914600606</v>
       </c>
       <c r="M48">
-        <v>13.37860342881525</v>
+        <v>4.183914298504643</v>
       </c>
       <c r="N48">
-        <v>0.2862955890249821</v>
+        <v>0.08953372561597089</v>
       </c>
       <c r="O48">
-        <v>1.189861350212914</v>
+        <v>0.3721074432680683</v>
       </c>
       <c r="P48">
-        <v>105.3963223833116</v>
+        <v>32.96077819898372</v>
       </c>
     </row>
     <row r="49" spans="1:16">
@@ -2746,49 +2746,49 @@
         <v>2024121809</v>
       </c>
       <c r="B49">
-        <v>4.37500649735332</v>
+        <v>1.36820351524152</v>
       </c>
       <c r="C49">
-        <v>19.6767950100542</v>
+        <v>6.153558884479253</v>
       </c>
       <c r="D49">
-        <v>0.01242202946552935</v>
+        <v>0.003884763232112393</v>
       </c>
       <c r="E49">
-        <v>1.181556254697728</v>
+        <v>0.3695101760673983</v>
       </c>
       <c r="F49">
-        <v>12.62279096113698</v>
+        <v>3.947547729502664</v>
       </c>
       <c r="G49">
-        <v>14.58392721546431</v>
+        <v>4.560857336851015</v>
       </c>
       <c r="H49">
-        <v>0.7872884984021138</v>
+        <v>0.2462101237277315</v>
       </c>
       <c r="I49">
-        <v>5.835079519330253</v>
+        <v>1.824814732250376</v>
       </c>
       <c r="J49">
-        <v>4.578611604287673</v>
+        <v>1.431877300228407</v>
       </c>
       <c r="K49">
-        <v>6.06405340242656</v>
+        <v>1.896422139448602</v>
       </c>
       <c r="L49">
-        <v>28.28956081095661</v>
+        <v>8.847044357443789</v>
       </c>
       <c r="M49">
-        <v>17.8012822482583</v>
+        <v>5.567026463299568</v>
       </c>
       <c r="N49">
-        <v>0.4034165118079293</v>
+        <v>0.1261611588225044</v>
       </c>
       <c r="O49">
-        <v>1.676622811663651</v>
+        <v>0.5243332155140963</v>
       </c>
       <c r="P49">
-        <v>117.8884133753052</v>
+        <v>36.86745189610904</v>
       </c>
     </row>
   </sheetData>

--- a/output/경기동로_N_겨울_배출량/경기동로_N_겨울_배출량_PM25.xlsx
+++ b/output/경기동로_N_겨울_배출량/경기동로_N_겨울_배출량_PM25.xlsx
@@ -480,49 +480,49 @@
         <v>2024121610</v>
       </c>
       <c r="B2">
-        <v>1.205848446301997</v>
+        <v>3.855855308530892</v>
       </c>
       <c r="C2">
-        <v>5.423359417964442</v>
+        <v>17.34188841554639</v>
       </c>
       <c r="D2">
-        <v>0.004382809800331931</v>
+        <v>0.01401459734572543</v>
       </c>
       <c r="E2">
-        <v>0.4168832755632184</v>
+        <v>1.333037825812821</v>
       </c>
       <c r="F2">
-        <v>2.040909030219064</v>
+        <v>6.526068796234084</v>
       </c>
       <c r="G2">
-        <v>2.357994269392361</v>
+        <v>7.539989580784269</v>
       </c>
       <c r="H2">
-        <v>0.1400850703968128</v>
+        <v>0.4479400077115475</v>
       </c>
       <c r="I2">
-        <v>1.038256658004524</v>
+        <v>3.319959036860315</v>
       </c>
       <c r="J2">
-        <v>1.620624762531242</v>
+        <v>5.182155861216502</v>
       </c>
       <c r="K2">
-        <v>2.146405057830464</v>
+        <v>6.863405896382787</v>
       </c>
       <c r="L2">
-        <v>8.737143185301626</v>
+        <v>27.93813769529256</v>
       </c>
       <c r="M2">
-        <v>5.497870855059822</v>
+        <v>17.58014830728615</v>
       </c>
       <c r="N2">
-        <v>0.05290629240943735</v>
+        <v>0.1691746662420349</v>
       </c>
       <c r="O2">
-        <v>0.2198816710220403</v>
+        <v>0.7030998887621764</v>
       </c>
       <c r="P2">
-        <v>30.90255080179739</v>
+        <v>98.81487588400826</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -530,49 +530,49 @@
         <v>2024121611</v>
       </c>
       <c r="B3">
-        <v>1.256155650762131</v>
+        <v>4.016719057180095</v>
       </c>
       <c r="C3">
-        <v>5.649618407588748</v>
+        <v>18.06538059976007</v>
       </c>
       <c r="D3">
-        <v>0.005378902936771006</v>
+        <v>0.01719973310611757</v>
       </c>
       <c r="E3">
-        <v>0.5116294745548591</v>
+        <v>1.636000968043008</v>
       </c>
       <c r="F3">
-        <v>1.960346831657786</v>
+        <v>6.268460817435371</v>
       </c>
       <c r="G3">
-        <v>2.264915548232136</v>
+        <v>7.242358413121732</v>
       </c>
       <c r="H3">
-        <v>0.1570650789297598</v>
+        <v>0.5022357662220382</v>
       </c>
       <c r="I3">
-        <v>1.16410594988386</v>
+        <v>3.722378314055505</v>
       </c>
       <c r="J3">
-        <v>1.509979698422683</v>
+        <v>4.828354055430636</v>
       </c>
       <c r="K3">
-        <v>1.99986334705489</v>
+        <v>6.394819951649827</v>
       </c>
       <c r="L3">
-        <v>7.748032636022193</v>
+        <v>24.77532965431603</v>
       </c>
       <c r="M3">
-        <v>4.875470380902106</v>
+        <v>15.58994283853677</v>
       </c>
       <c r="N3">
-        <v>0.04069714800725949</v>
+        <v>0.1301343586477191</v>
       </c>
       <c r="O3">
-        <v>0.169139746940031</v>
+        <v>0.5408460682785973</v>
       </c>
       <c r="P3">
-        <v>29.31239880189521</v>
+        <v>93.73016059578352</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -580,49 +580,49 @@
         <v>2024121612</v>
       </c>
       <c r="B4">
-        <v>1.330091996711115</v>
+        <v>4.253140021103923</v>
       </c>
       <c r="C4">
-        <v>5.982150559006291</v>
+        <v>19.12869487049838</v>
       </c>
       <c r="D4">
-        <v>0.005179684309483191</v>
+        <v>0.01656270595403914</v>
       </c>
       <c r="E4">
-        <v>0.4926802347565309</v>
+        <v>1.57540833959697</v>
       </c>
       <c r="F4">
-        <v>1.987200897844879</v>
+        <v>6.354330143701607</v>
       </c>
       <c r="G4">
-        <v>2.295941788618877</v>
+        <v>7.341568802342575</v>
       </c>
       <c r="H4">
-        <v>0.1443300725300495</v>
+        <v>0.4615139473391703</v>
       </c>
       <c r="I4">
-        <v>1.069718980974357</v>
+        <v>3.420563856159113</v>
       </c>
       <c r="J4">
-        <v>1.483945565691258</v>
+        <v>4.745106571716316</v>
       </c>
       <c r="K4">
-        <v>1.965382944519461</v>
+        <v>6.28456443524207</v>
       </c>
       <c r="L4">
-        <v>7.363378533524642</v>
+        <v>23.54534874949183</v>
       </c>
       <c r="M4">
-        <v>4.633425752062993</v>
+        <v>14.81597404513424</v>
       </c>
       <c r="N4">
-        <v>0.06918515161234116</v>
+        <v>0.2212284097011225</v>
       </c>
       <c r="O4">
-        <v>0.2875375697980528</v>
+        <v>0.9194383160736154</v>
       </c>
       <c r="P4">
-        <v>29.11014973196033</v>
+        <v>93.08344321405495</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -630,49 +630,49 @@
         <v>2024121613</v>
       </c>
       <c r="B5">
-        <v>1.317134080410778</v>
+        <v>4.211705419179126</v>
       </c>
       <c r="C5">
-        <v>5.923871728345484</v>
+        <v>18.94234082304939</v>
       </c>
       <c r="D5">
-        <v>0.004681637741263654</v>
+        <v>0.01497013807384306</v>
       </c>
       <c r="E5">
-        <v>0.4453071352607106</v>
+        <v>1.423926768481877</v>
       </c>
       <c r="F5">
-        <v>1.664952103599763</v>
+        <v>5.323898228506755</v>
       </c>
       <c r="G5">
-        <v>1.923626903977979</v>
+        <v>6.151044131692429</v>
       </c>
       <c r="H5">
-        <v>0.1570650789297598</v>
+        <v>0.5022357662220382</v>
       </c>
       <c r="I5">
-        <v>1.16410594988386</v>
+        <v>3.722378314055505</v>
       </c>
       <c r="J5">
-        <v>1.692218627542663</v>
+        <v>5.411086441430886</v>
       </c>
       <c r="K5">
-        <v>2.241226164802893</v>
+        <v>7.166608566504115</v>
       </c>
       <c r="L5">
-        <v>5.055453918539303</v>
+        <v>16.16546332054663</v>
       </c>
       <c r="M5">
-        <v>3.181157979028325</v>
+        <v>10.17216128471903</v>
       </c>
       <c r="N5">
-        <v>0.05290629240943735</v>
+        <v>0.1691746662420349</v>
       </c>
       <c r="O5">
-        <v>0.2198816710220403</v>
+        <v>0.7030998887621764</v>
       </c>
       <c r="P5">
-        <v>25.04358927149426</v>
+        <v>80.08009375746583</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -680,49 +680,49 @@
         <v>2024121614</v>
       </c>
       <c r="B6">
-        <v>1.410888415995573</v>
+        <v>4.511496950752645</v>
       </c>
       <c r="C6">
-        <v>6.345536209008966</v>
+        <v>20.29066716635674</v>
       </c>
       <c r="D6">
-        <v>0.004582028427619747</v>
+        <v>0.01465162449780386</v>
       </c>
       <c r="E6">
-        <v>0.4358325153615465</v>
+        <v>1.393630454258859</v>
       </c>
       <c r="F6">
-        <v>2.309449692089995</v>
+        <v>7.384762058896462</v>
       </c>
       <c r="G6">
-        <v>2.668256673259777</v>
+        <v>8.532093472992724</v>
       </c>
       <c r="H6">
-        <v>0.1613100810629965</v>
+        <v>0.5158097058496608</v>
       </c>
       <c r="I6">
-        <v>1.195568272853694</v>
+        <v>3.822983133354303</v>
       </c>
       <c r="J6">
-        <v>1.562047963885535</v>
+        <v>4.994849022859279</v>
       </c>
       <c r="K6">
-        <v>2.068824152125748</v>
+        <v>6.615330984465338</v>
       </c>
       <c r="L6">
-        <v>6.099515053889816</v>
+        <v>19.50398291935518</v>
       </c>
       <c r="M6">
-        <v>3.838136257305913</v>
+        <v>12.27293372395448</v>
       </c>
       <c r="N6">
-        <v>0.05290629240943735</v>
+        <v>0.1691746662420349</v>
       </c>
       <c r="O6">
-        <v>0.2198816710220403</v>
+        <v>0.7030998887621764</v>
       </c>
       <c r="P6">
-        <v>28.37273527869866</v>
+        <v>90.72546577259769</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -730,49 +730,49 @@
         <v>2024121615</v>
       </c>
       <c r="B7">
-        <v>1.477964688609085</v>
+        <v>4.72598194895158</v>
       </c>
       <c r="C7">
-        <v>6.647214861841377</v>
+        <v>21.25532341197499</v>
       </c>
       <c r="D7">
-        <v>0.004781247054907561</v>
+        <v>0.01528865164988228</v>
       </c>
       <c r="E7">
-        <v>0.4547817551598747</v>
+        <v>1.454223082704896</v>
       </c>
       <c r="F7">
-        <v>2.202033427341623</v>
+        <v>7.041284753831511</v>
       </c>
       <c r="G7">
-        <v>2.54415171171281</v>
+        <v>8.135251916109343</v>
       </c>
       <c r="H7">
-        <v>0.152820076796523</v>
+        <v>0.4886618265944154</v>
       </c>
       <c r="I7">
-        <v>1.132643626914026</v>
+        <v>3.621773494756708</v>
       </c>
       <c r="J7">
-        <v>1.51648823160554</v>
+        <v>4.849165926359218</v>
       </c>
       <c r="K7">
-        <v>2.008483447688747</v>
+        <v>6.422383830751765</v>
       </c>
       <c r="L7">
-        <v>5.220305676752544</v>
+        <v>16.69259799404272</v>
       </c>
       <c r="M7">
-        <v>3.284891391387944</v>
+        <v>10.50386219617726</v>
       </c>
       <c r="N7">
-        <v>0.06104572201088925</v>
+        <v>0.1952015379715787</v>
       </c>
       <c r="O7">
-        <v>0.2537096204100465</v>
+        <v>0.811269102417896</v>
       </c>
       <c r="P7">
-        <v>26.96131548528593</v>
+        <v>86.21226967429376</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -780,49 +780,49 @@
         <v>2024121616</v>
       </c>
       <c r="B8">
-        <v>1.679955736820228</v>
+        <v>5.371874273073381</v>
       </c>
       <c r="C8">
-        <v>7.55567898684806</v>
+        <v>24.16025415162086</v>
       </c>
       <c r="D8">
-        <v>0.003585935291180671</v>
+        <v>0.01146648873741171</v>
       </c>
       <c r="E8">
-        <v>0.3410863163699059</v>
+        <v>1.090667312028672</v>
       </c>
       <c r="F8">
-        <v>2.363157824464179</v>
+        <v>7.556500711428939</v>
       </c>
       <c r="G8">
-        <v>2.730309154033259</v>
+        <v>8.730514251434418</v>
       </c>
       <c r="H8">
-        <v>0.2249851130615477</v>
+        <v>0.7194188002640007</v>
       </c>
       <c r="I8">
-        <v>1.667503117401205</v>
+        <v>5.332055422836265</v>
       </c>
       <c r="J8">
-        <v>1.451402899776976</v>
+        <v>4.641047217073416</v>
       </c>
       <c r="K8">
-        <v>1.922282441350174</v>
+        <v>6.146745039732377</v>
       </c>
       <c r="L8">
-        <v>3.077232819980448</v>
+        <v>9.83984723859361</v>
       </c>
       <c r="M8">
-        <v>1.936357030712893</v>
+        <v>6.191750347220278</v>
       </c>
       <c r="N8">
-        <v>0.07732458121379304</v>
+        <v>0.2472552814306663</v>
       </c>
       <c r="O8">
-        <v>0.321365519186059</v>
+        <v>1.027607529729335</v>
       </c>
       <c r="P8">
-        <v>25.3522274765099</v>
+        <v>81.06700406520363</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -830,49 +830,49 @@
         <v>2024121617</v>
       </c>
       <c r="B9">
-        <v>1.836212962794888</v>
+        <v>5.871526825695903</v>
       </c>
       <c r="C9">
-        <v>8.258453121287195</v>
+        <v>26.40746472379975</v>
       </c>
       <c r="D9">
-        <v>0.002888670095673318</v>
+        <v>0.00923689370513721</v>
       </c>
       <c r="E9">
-        <v>0.2747639770757576</v>
+        <v>0.8785931124675411</v>
       </c>
       <c r="F9">
-        <v>2.040909030219064</v>
+        <v>6.526068796234084</v>
       </c>
       <c r="G9">
-        <v>2.357994269392361</v>
+        <v>7.539989580784269</v>
       </c>
       <c r="H9">
-        <v>0.3183751599927564</v>
+        <v>1.018045472071699</v>
       </c>
       <c r="I9">
-        <v>2.359674222737554</v>
+        <v>7.545361447409807</v>
       </c>
       <c r="J9">
-        <v>1.054382375622736</v>
+        <v>3.371523090430014</v>
       </c>
       <c r="K9">
-        <v>1.39645630268488</v>
+        <v>4.465348414514104</v>
       </c>
       <c r="L9">
-        <v>2.362875201056414</v>
+        <v>7.555596986777231</v>
       </c>
       <c r="M9">
-        <v>1.486845577154543</v>
+        <v>4.754379730901285</v>
       </c>
       <c r="N9">
-        <v>0.0244182888043557</v>
+        <v>0.07808061518863148</v>
       </c>
       <c r="O9">
-        <v>0.1014838481640186</v>
+        <v>0.3245076409671583</v>
       </c>
       <c r="P9">
-        <v>23.87573300708219</v>
+        <v>76.34572333094661</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -880,49 +880,49 @@
         <v>2024121618</v>
       </c>
       <c r="B10">
-        <v>1.865177716877994</v>
+        <v>5.964145347645442</v>
       </c>
       <c r="C10">
-        <v>8.388723448646646</v>
+        <v>26.8240208298622</v>
       </c>
       <c r="D10">
-        <v>0.003386716663892856</v>
+        <v>0.01082946158533328</v>
       </c>
       <c r="E10">
-        <v>0.3221370765715779</v>
+        <v>1.030074683582634</v>
       </c>
       <c r="F10">
-        <v>1.611243971225577</v>
+        <v>5.152159575974275</v>
       </c>
       <c r="G10">
-        <v>1.861574423204495</v>
+        <v>5.952623353250738</v>
       </c>
       <c r="H10">
-        <v>0.3396001706589399</v>
+        <v>1.085915170209812</v>
       </c>
       <c r="I10">
-        <v>2.516985837586724</v>
+        <v>8.048385543903795</v>
       </c>
       <c r="J10">
-        <v>0.5662423869085063</v>
+        <v>1.810632770786489</v>
       </c>
       <c r="K10">
-        <v>0.7499487551455836</v>
+        <v>2.398057481868685</v>
       </c>
       <c r="L10">
-        <v>1.263863479634826</v>
+        <v>4.041365830136658</v>
       </c>
       <c r="M10">
-        <v>0.7952894947570812</v>
+        <v>2.543040321179757</v>
       </c>
       <c r="N10">
-        <v>0.01220914440217785</v>
+        <v>0.03904030759431574</v>
       </c>
       <c r="O10">
-        <v>0.05074192408200931</v>
+        <v>0.1622538204835792</v>
       </c>
       <c r="P10">
-        <v>20.34712454636603</v>
+        <v>65.06254449806372</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -930,49 +930,49 @@
         <v>2024121619</v>
       </c>
       <c r="B11">
-        <v>1.204323985560782</v>
+        <v>3.850980649480916</v>
       </c>
       <c r="C11">
-        <v>5.416503084945527</v>
+        <v>17.31996440996414</v>
       </c>
       <c r="D11">
-        <v>0.005279293623127099</v>
+        <v>0.01688121953007835</v>
       </c>
       <c r="E11">
-        <v>0.5021548546556949</v>
+        <v>1.605704653819989</v>
       </c>
       <c r="F11">
-        <v>0.9667463827353464</v>
+        <v>3.091295745584566</v>
       </c>
       <c r="G11">
-        <v>1.116944653922697</v>
+        <v>3.571574011950442</v>
       </c>
       <c r="H11">
-        <v>0.2801701407936255</v>
+        <v>0.8958800154230949</v>
       </c>
       <c r="I11">
-        <v>2.076513316009048</v>
+        <v>6.63991807372063</v>
       </c>
       <c r="J11">
-        <v>0.2603413273142558</v>
+        <v>0.8324748371432132</v>
       </c>
       <c r="K11">
-        <v>0.3448040253542914</v>
+        <v>1.102555164077556</v>
       </c>
       <c r="L11">
-        <v>0.9341599632083502</v>
+        <v>2.987096483144486</v>
       </c>
       <c r="M11">
-        <v>0.5878226700378426</v>
+        <v>1.879638498263299</v>
       </c>
       <c r="N11">
-        <v>0.0162788592029038</v>
+        <v>0.05205374345908764</v>
       </c>
       <c r="O11">
-        <v>0.06765589877601241</v>
+        <v>0.2163384273114389</v>
       </c>
       <c r="P11">
-        <v>13.7796984561395</v>
+        <v>44.06235593287294</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -980,49 +980,49 @@
         <v>2024121620</v>
       </c>
       <c r="B12">
-        <v>1.037395534397609</v>
+        <v>3.317205483508563</v>
       </c>
       <c r="C12">
-        <v>4.665734619373961</v>
+        <v>14.91928579870962</v>
       </c>
       <c r="D12">
-        <v>0.005876949504990545</v>
+        <v>0.01879230098631364</v>
       </c>
       <c r="E12">
-        <v>0.5590025740506792</v>
+        <v>1.787482539158101</v>
       </c>
       <c r="F12">
-        <v>0.8056219856127886</v>
+        <v>2.576079787987137</v>
       </c>
       <c r="G12">
-        <v>0.9307872116022475</v>
+        <v>2.976311676625369</v>
       </c>
       <c r="H12">
-        <v>0.2419651215944947</v>
+        <v>0.773714558774491</v>
       </c>
       <c r="I12">
-        <v>1.793352409280542</v>
+        <v>5.734474700031455</v>
       </c>
       <c r="J12">
-        <v>0.3124095927771069</v>
+        <v>0.9989698045718556</v>
       </c>
       <c r="K12">
-        <v>0.4137648304251497</v>
+        <v>1.323066196893068</v>
       </c>
       <c r="L12">
-        <v>0.8242587910661915</v>
+        <v>2.63567336748043</v>
       </c>
       <c r="M12">
-        <v>0.5186670617980963</v>
+        <v>1.658504557291146</v>
       </c>
       <c r="N12">
-        <v>0.01220914440217785</v>
+        <v>0.03904030759431574</v>
       </c>
       <c r="O12">
-        <v>0.05074192408200931</v>
+        <v>0.1622538204835792</v>
       </c>
       <c r="P12">
-        <v>12.17178774996804</v>
+        <v>38.92085490009543</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -1030,43 +1030,43 @@
         <v>2024121621</v>
       </c>
       <c r="B13">
-        <v>0.7896706639499803</v>
+        <v>2.525073387887488</v>
       </c>
       <c r="C13">
-        <v>3.551580503799724</v>
+        <v>11.35663489159675</v>
       </c>
       <c r="D13">
-        <v>0.003287107350248949</v>
+        <v>0.01051094800929407</v>
       </c>
       <c r="E13">
-        <v>0.3126624566724139</v>
+        <v>0.9997783693596159</v>
       </c>
       <c r="F13">
-        <v>0.6982057208644167</v>
+        <v>2.232602482922188</v>
       </c>
       <c r="G13">
-        <v>0.8066822500552815</v>
+        <v>2.579470119741985</v>
       </c>
       <c r="H13">
-        <v>0.1952700981288905</v>
+        <v>0.624401222870642</v>
       </c>
       <c r="I13">
-        <v>1.447266856612366</v>
+        <v>4.627821687744682</v>
       </c>
       <c r="J13">
-        <v>0.214781595034261</v>
+        <v>0.686791740643151</v>
       </c>
       <c r="K13">
-        <v>0.2844633209172904</v>
+        <v>0.9096080103639841</v>
       </c>
       <c r="L13">
-        <v>0.6044564467818729</v>
+        <v>1.932827136152315</v>
       </c>
       <c r="M13">
-        <v>0.3803558453186041</v>
+        <v>1.21623667534684</v>
       </c>
       <c r="P13">
-        <v>9.288682865485351</v>
+        <v>29.70175667263894</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -1074,49 +1074,49 @@
         <v>2024121622</v>
       </c>
       <c r="B14">
-        <v>0.5770083905503235</v>
+        <v>1.845058450415856</v>
       </c>
       <c r="C14">
-        <v>2.595122047660608</v>
+        <v>8.298236112875225</v>
       </c>
       <c r="D14">
-        <v>0.003486325977536763</v>
+        <v>0.0111479751613725</v>
       </c>
       <c r="E14">
-        <v>0.3316116964707419</v>
+        <v>1.060370997805653</v>
       </c>
       <c r="F14">
-        <v>0.5639353899289518</v>
+        <v>1.803255851590996</v>
       </c>
       <c r="G14">
-        <v>0.6515510481215732</v>
+        <v>2.083418173637758</v>
       </c>
       <c r="H14">
-        <v>0.09763504906444523</v>
+        <v>0.312200611435321</v>
       </c>
       <c r="I14">
-        <v>0.723633428306183</v>
+        <v>2.313910843872341</v>
       </c>
       <c r="J14">
-        <v>0.214781595034261</v>
+        <v>0.686791740643151</v>
       </c>
       <c r="K14">
-        <v>0.2844633209172904</v>
+        <v>0.9096080103639841</v>
       </c>
       <c r="L14">
-        <v>0.6594070328529528</v>
+        <v>2.108538693984344</v>
       </c>
       <c r="M14">
-        <v>0.4149336494384772</v>
+        <v>1.326803645832917</v>
       </c>
       <c r="N14">
-        <v>0.00406971480072595</v>
+        <v>0.01301343586477191</v>
       </c>
       <c r="O14">
-        <v>0.0169139746940031</v>
+        <v>0.05408460682785973</v>
       </c>
       <c r="P14">
-        <v>7.138552663818074</v>
+        <v>22.82643915031155</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -1124,49 +1124,49 @@
         <v>2024121623</v>
       </c>
       <c r="B15">
-        <v>0.3612971956682345</v>
+        <v>1.155294194844274</v>
       </c>
       <c r="C15">
-        <v>1.624950925483657</v>
+        <v>5.195989322989248</v>
       </c>
       <c r="D15">
-        <v>0.0008964838227951677</v>
+        <v>0.002866622184352927</v>
       </c>
       <c r="E15">
-        <v>0.08527157909247648</v>
+        <v>0.2726668280071679</v>
       </c>
       <c r="F15">
-        <v>0.2416865956838366</v>
+        <v>0.7728239363961414</v>
       </c>
       <c r="G15">
-        <v>0.2792361634806743</v>
+        <v>0.8928935029876105</v>
       </c>
       <c r="H15">
-        <v>0.08914504479797175</v>
+        <v>0.2850527321800757</v>
       </c>
       <c r="I15">
-        <v>0.6607087823665151</v>
+        <v>2.112701205274746</v>
       </c>
       <c r="J15">
-        <v>0.1171535972914151</v>
+        <v>0.374613676714446</v>
       </c>
       <c r="K15">
-        <v>0.1551618114094311</v>
+        <v>0.4961498238349004</v>
       </c>
       <c r="L15">
-        <v>0.9341599632083502</v>
+        <v>2.987096483144486</v>
       </c>
       <c r="M15">
-        <v>0.5878226700378426</v>
+        <v>1.879638498263299</v>
       </c>
       <c r="N15">
-        <v>0.00406971480072595</v>
+        <v>0.01301343586477191</v>
       </c>
       <c r="O15">
-        <v>0.0169139746940031</v>
+        <v>0.05408460682785973</v>
       </c>
       <c r="P15">
-        <v>5.158474501837929</v>
+        <v>16.49488486951338</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -1174,49 +1174,49 @@
         <v>2024121700</v>
       </c>
       <c r="B16">
-        <v>0.2538227134124937</v>
+        <v>0.8116307318209783</v>
       </c>
       <c r="C16">
-        <v>1.141579447649911</v>
+        <v>3.65034692944181</v>
       </c>
       <c r="D16">
-        <v>0.002091795586522058</v>
+        <v>0.0066887850968235</v>
       </c>
       <c r="E16">
-        <v>0.1989670178824451</v>
+        <v>0.6362225986833919</v>
       </c>
       <c r="F16">
-        <v>0.1611243971225577</v>
+        <v>0.5152159575974276</v>
       </c>
       <c r="G16">
-        <v>0.1861574423204495</v>
+        <v>0.5952623353250736</v>
       </c>
       <c r="H16">
-        <v>0.04245002133236749</v>
+        <v>0.1357393962762266</v>
       </c>
       <c r="I16">
-        <v>0.3146232296983406</v>
+        <v>1.006048192987974</v>
       </c>
       <c r="J16">
-        <v>0.2408157277656866</v>
+        <v>0.7700392243574723</v>
       </c>
       <c r="K16">
-        <v>0.3189437234527195</v>
+        <v>1.01986352677174</v>
       </c>
       <c r="L16">
-        <v>0.6044564467818729</v>
+        <v>1.932827136152315</v>
       </c>
       <c r="M16">
-        <v>0.3803558453186041</v>
+        <v>1.21623667534684</v>
       </c>
       <c r="N16">
-        <v>0.008139429601451901</v>
+        <v>0.02602687172954382</v>
       </c>
       <c r="O16">
-        <v>0.03382794938800621</v>
+        <v>0.1081692136557195</v>
       </c>
       <c r="P16">
-        <v>3.887355187313428</v>
+        <v>12.43031757524334</v>
       </c>
     </row>
     <row r="17" spans="1:16">
@@ -1224,37 +1224,37 @@
         <v>2024121701</v>
       </c>
       <c r="B17">
-        <v>0.1638795296807392</v>
+        <v>0.5240258478724034</v>
       </c>
       <c r="C17">
-        <v>0.7370557995337262</v>
+        <v>2.356830600090057</v>
       </c>
       <c r="D17">
-        <v>0.003087888722961134</v>
+        <v>0.00987392085721564</v>
       </c>
       <c r="E17">
-        <v>0.2937132168740857</v>
+        <v>0.9391857409135788</v>
       </c>
       <c r="F17">
-        <v>0.0537081323741859</v>
+        <v>0.1717386525324759</v>
       </c>
       <c r="G17">
-        <v>0.06205248077348318</v>
+        <v>0.1984207784416913</v>
       </c>
       <c r="J17">
-        <v>0.1757303959371226</v>
+        <v>0.561920515071669</v>
       </c>
       <c r="K17">
-        <v>0.2327427171141467</v>
+        <v>0.7442247357523505</v>
       </c>
       <c r="L17">
-        <v>0.9891105492794292</v>
+        <v>3.162808040976515</v>
       </c>
       <c r="M17">
-        <v>0.6224004741577157</v>
+        <v>1.990205468749376</v>
       </c>
       <c r="P17">
-        <v>3.333481184447596</v>
+        <v>10.65923430125733</v>
       </c>
     </row>
     <row r="18" spans="1:16">
@@ -1262,37 +1262,37 @@
         <v>2024121702</v>
       </c>
       <c r="B18">
-        <v>0.1059500215145244</v>
+        <v>0.3387888039733212</v>
       </c>
       <c r="C18">
-        <v>0.4765151448148277</v>
+        <v>1.5237183879652</v>
       </c>
       <c r="D18">
-        <v>0.002091795586522058</v>
+        <v>0.0066887850968235</v>
       </c>
       <c r="E18">
-        <v>0.1989670178824451</v>
+        <v>0.6362225986833919</v>
       </c>
       <c r="F18">
-        <v>0.1879784633096507</v>
+        <v>0.6010852838636656</v>
       </c>
       <c r="G18">
-        <v>0.2171836827071911</v>
+        <v>0.6944727245459195</v>
       </c>
       <c r="J18">
-        <v>0.1171535972914151</v>
+        <v>0.374613676714446</v>
       </c>
       <c r="K18">
-        <v>0.1551618114094311</v>
+        <v>0.4961498238349004</v>
       </c>
       <c r="L18">
-        <v>1.263863479634826</v>
+        <v>4.041365830136658</v>
       </c>
       <c r="M18">
-        <v>0.7952894947570812</v>
+        <v>2.543040321179757</v>
       </c>
       <c r="P18">
-        <v>3.520154508907915</v>
+        <v>11.25614623599408</v>
       </c>
     </row>
     <row r="19" spans="1:16">
@@ -1300,43 +1300,43 @@
         <v>2024121703</v>
       </c>
       <c r="B19">
-        <v>0.1189079378148619</v>
+        <v>0.3802234058981158</v>
       </c>
       <c r="C19">
-        <v>0.534793975475634</v>
+        <v>1.710072435414181</v>
       </c>
       <c r="D19">
-        <v>0.001792967645590335</v>
+        <v>0.005733244368705854</v>
       </c>
       <c r="E19">
-        <v>0.170543158184953</v>
+        <v>0.5453336560143358</v>
       </c>
       <c r="F19">
-        <v>0.1611243971225577</v>
+        <v>0.5152159575974276</v>
       </c>
       <c r="G19">
-        <v>0.1861574423204495</v>
+        <v>0.5952623353250736</v>
       </c>
       <c r="H19">
-        <v>0.033960017065894</v>
+        <v>0.1085915170209812</v>
       </c>
       <c r="I19">
-        <v>0.2516985837586725</v>
+        <v>0.8048385543903798</v>
       </c>
       <c r="J19">
-        <v>0.149696263205697</v>
+        <v>0.4786730313573476</v>
       </c>
       <c r="K19">
-        <v>0.1982623145787175</v>
+        <v>0.6339692193445948</v>
       </c>
       <c r="L19">
-        <v>1.208912893563746</v>
+        <v>3.865654272304631</v>
       </c>
       <c r="M19">
-        <v>0.7607116906372081</v>
+        <v>2.432473350693681</v>
       </c>
       <c r="P19">
-        <v>3.776561641373981</v>
+        <v>12.07604097972945</v>
       </c>
     </row>
     <row r="20" spans="1:16">
@@ -1344,43 +1344,43 @@
         <v>2024121704</v>
       </c>
       <c r="B20">
-        <v>0.2126622733996568</v>
+        <v>0.6800149374716299</v>
       </c>
       <c r="C20">
-        <v>0.9564584561391145</v>
+        <v>3.058398778721517</v>
       </c>
       <c r="D20">
-        <v>0.00119531176372689</v>
+        <v>0.003822162912470571</v>
       </c>
       <c r="E20">
-        <v>0.1136954387899687</v>
+        <v>0.3635557706762239</v>
       </c>
       <c r="F20">
-        <v>0.3759569266193014</v>
+        <v>1.202170567727331</v>
       </c>
       <c r="G20">
-        <v>0.4343673654143823</v>
+        <v>1.388945449091839</v>
       </c>
       <c r="H20">
-        <v>0.016980008532947</v>
+        <v>0.05429575851049061</v>
       </c>
       <c r="I20">
-        <v>0.1258492918793362</v>
+        <v>0.4024192771951899</v>
       </c>
       <c r="J20">
-        <v>0.2993925264113941</v>
+        <v>0.9573460627146951</v>
       </c>
       <c r="K20">
-        <v>0.3965246291574351</v>
+        <v>1.26793843868919</v>
       </c>
       <c r="L20">
-        <v>1.538616409990224</v>
+        <v>4.919923619296805</v>
       </c>
       <c r="M20">
-        <v>0.9681785153564464</v>
+        <v>3.095875173610139</v>
       </c>
       <c r="P20">
-        <v>5.439877153453933</v>
+        <v>17.39470599661752</v>
       </c>
     </row>
     <row r="21" spans="1:16">
@@ -1388,49 +1388,49 @@
         <v>2024121705</v>
       </c>
       <c r="B21">
-        <v>0.511456578678028</v>
+        <v>1.635448111266896</v>
       </c>
       <c r="C21">
-        <v>2.300299727847118</v>
+        <v>7.355503872839206</v>
       </c>
       <c r="D21">
-        <v>0.0008964838227951677</v>
+        <v>0.002866622184352927</v>
       </c>
       <c r="E21">
-        <v>0.08527157909247648</v>
+        <v>0.2726668280071679</v>
       </c>
       <c r="F21">
-        <v>0.8056219856127886</v>
+        <v>2.576079787987137</v>
       </c>
       <c r="G21">
-        <v>0.9307872116022475</v>
+        <v>2.976311676625369</v>
       </c>
       <c r="H21">
-        <v>0.1570650789297598</v>
+        <v>0.5022357662220382</v>
       </c>
       <c r="I21">
-        <v>1.16410594988386</v>
+        <v>3.722378314055505</v>
       </c>
       <c r="J21">
-        <v>0.5336997209942242</v>
+        <v>1.706573416143587</v>
       </c>
       <c r="K21">
-        <v>0.7068482519762973</v>
+        <v>2.260238086358991</v>
       </c>
       <c r="L21">
-        <v>2.252974028914255</v>
+        <v>7.204173871113172</v>
       </c>
       <c r="M21">
-        <v>1.417689968914797</v>
+        <v>4.533245789929132</v>
       </c>
       <c r="N21">
-        <v>0.01220914440217785</v>
+        <v>0.03904030759431574</v>
       </c>
       <c r="O21">
-        <v>0.05074192408200931</v>
+        <v>0.1622538204835792</v>
       </c>
       <c r="P21">
-        <v>10.92966763475283</v>
+        <v>34.94901627081045</v>
       </c>
     </row>
     <row r="22" spans="1:16">
@@ -1438,49 +1438,49 @@
         <v>2024121706</v>
       </c>
       <c r="B22">
-        <v>0.9718437225253137</v>
+        <v>3.107595144359601</v>
       </c>
       <c r="C22">
-        <v>4.370912299560471</v>
+        <v>13.9765535586736</v>
       </c>
       <c r="D22">
-        <v>0.001294921077370798</v>
+        <v>0.004140676488509785</v>
       </c>
       <c r="E22">
-        <v>0.1231700586891327</v>
+        <v>0.3938520848992426</v>
       </c>
       <c r="F22">
-        <v>1.718660235973949</v>
+        <v>5.495636881039228</v>
       </c>
       <c r="G22">
-        <v>1.985679384751462</v>
+        <v>6.34946491013412</v>
       </c>
       <c r="H22">
-        <v>0.4202552111904385</v>
+        <v>1.343820023134643</v>
       </c>
       <c r="I22">
-        <v>3.114769974013572</v>
+        <v>9.959877110580949</v>
       </c>
       <c r="J22">
-        <v>0.9177031787827515</v>
+        <v>2.934473800929827</v>
       </c>
       <c r="K22">
-        <v>1.215434189373877</v>
+        <v>3.886506953373386</v>
       </c>
       <c r="L22">
-        <v>3.956442197117717</v>
+        <v>12.65123216390606</v>
       </c>
       <c r="M22">
-        <v>2.489601896630863</v>
+        <v>7.960821874997503</v>
       </c>
       <c r="N22">
-        <v>0.04069714800725949</v>
+        <v>0.1301343586477191</v>
       </c>
       <c r="O22">
-        <v>0.169139746940031</v>
+        <v>0.5408460682785973</v>
       </c>
       <c r="P22">
-        <v>21.49560416463421</v>
+        <v>68.73495560944299</v>
       </c>
     </row>
     <row r="23" spans="1:16">
@@ -1488,49 +1488,49 @@
         <v>2024121707</v>
       </c>
       <c r="B23">
-        <v>1.564096720487798</v>
+        <v>5.001400185275218</v>
       </c>
       <c r="C23">
-        <v>7.034597677410261</v>
+        <v>22.49402972737116</v>
       </c>
       <c r="D23">
-        <v>0.001394530391014705</v>
+        <v>0.004459190064549</v>
       </c>
       <c r="E23">
-        <v>0.1326446785882968</v>
+        <v>0.4241483991222612</v>
       </c>
       <c r="F23">
-        <v>1.342703309354647</v>
+        <v>4.293466313311896</v>
       </c>
       <c r="G23">
-        <v>1.55131201933708</v>
+        <v>4.960519461042282</v>
       </c>
       <c r="H23">
-        <v>0.4160102090572016</v>
+        <v>1.33024608350702</v>
       </c>
       <c r="I23">
-        <v>3.083307651043738</v>
+        <v>9.859272291282149</v>
       </c>
       <c r="J23">
-        <v>1.067399441988448</v>
+        <v>3.413146832287175</v>
       </c>
       <c r="K23">
-        <v>1.413696503952595</v>
+        <v>4.520476172717982</v>
       </c>
       <c r="L23">
-        <v>5.000503332468227</v>
+        <v>15.9897517627146</v>
       </c>
       <c r="M23">
-        <v>3.146580174908451</v>
+        <v>10.06159431423296</v>
       </c>
       <c r="N23">
-        <v>0.03662743320653355</v>
+        <v>0.1171209227829472</v>
       </c>
       <c r="O23">
-        <v>0.1522257722460279</v>
+        <v>0.4867614614507375</v>
       </c>
       <c r="P23">
-        <v>25.94309945444032</v>
+        <v>82.95639311716293</v>
       </c>
     </row>
     <row r="24" spans="1:16">
@@ -1538,49 +1538,49 @@
         <v>2024121708</v>
       </c>
       <c r="B24">
-        <v>1.920058303561778</v>
+        <v>6.139633073444574</v>
       </c>
       <c r="C24">
-        <v>8.635551437327704</v>
+        <v>27.61328503082256</v>
       </c>
       <c r="D24">
-        <v>0.002888670095673318</v>
+        <v>0.00923689370513721</v>
       </c>
       <c r="E24">
-        <v>0.2747639770757576</v>
+        <v>0.8785931124675411</v>
       </c>
       <c r="F24">
-        <v>1.960346831657786</v>
+        <v>6.268460817435371</v>
       </c>
       <c r="G24">
-        <v>2.264915548232136</v>
+        <v>7.242358413121732</v>
       </c>
       <c r="H24">
-        <v>0.254700127994205</v>
+        <v>0.8144363776573592</v>
       </c>
       <c r="I24">
-        <v>1.887739378190043</v>
+        <v>6.036289157927848</v>
       </c>
       <c r="J24">
-        <v>1.308215169754135</v>
+        <v>4.183186056644645</v>
       </c>
       <c r="K24">
-        <v>1.732640227405314</v>
+        <v>5.54033969948972</v>
       </c>
       <c r="L24">
-        <v>6.099515053889816</v>
+        <v>19.50398291935518</v>
       </c>
       <c r="M24">
-        <v>3.838136257305913</v>
+        <v>12.27293372395448</v>
       </c>
       <c r="N24">
-        <v>0.08139429601451899</v>
+        <v>0.2602687172954382</v>
       </c>
       <c r="O24">
-        <v>0.3382794938800621</v>
+        <v>1.081692136557195</v>
       </c>
       <c r="P24">
-        <v>30.59914477238484</v>
+        <v>97.8446961298788</v>
       </c>
     </row>
     <row r="25" spans="1:16">
@@ -1588,49 +1588,49 @@
         <v>2024121709</v>
       </c>
       <c r="B25">
-        <v>1.396406038954019</v>
+        <v>4.465187689777879</v>
       </c>
       <c r="C25">
-        <v>6.280401045329238</v>
+        <v>20.0823891133255</v>
       </c>
       <c r="D25">
-        <v>0.005080074995839285</v>
+        <v>0.01624419237799993</v>
       </c>
       <c r="E25">
-        <v>0.4832056148573668</v>
+        <v>1.545112025373952</v>
       </c>
       <c r="F25">
-        <v>2.739114751083481</v>
+        <v>8.758671279156271</v>
       </c>
       <c r="G25">
-        <v>3.164676519447643</v>
+        <v>10.11945970052625</v>
       </c>
       <c r="H25">
-        <v>0.254700127994205</v>
+        <v>0.8144363776573592</v>
       </c>
       <c r="I25">
-        <v>1.887739378190043</v>
+        <v>6.036289157927848</v>
       </c>
       <c r="J25">
-        <v>1.470928499325545</v>
+        <v>4.703482829859155</v>
       </c>
       <c r="K25">
-        <v>1.948142743251746</v>
+        <v>6.229436677038192</v>
       </c>
       <c r="L25">
-        <v>8.132686738519752</v>
+        <v>26.00531055914023</v>
       </c>
       <c r="M25">
-        <v>5.117515009741216</v>
+        <v>16.36391163193931</v>
       </c>
       <c r="N25">
-        <v>0.1139520144203266</v>
+        <v>0.3643762042136136</v>
       </c>
       <c r="O25">
-        <v>0.4735912914320868</v>
+        <v>1.514368991180072</v>
       </c>
       <c r="P25">
-        <v>33.46813984754251</v>
+        <v>107.0186764294936</v>
       </c>
     </row>
     <row r="26" spans="1:16">
@@ -1638,49 +1638,49 @@
         <v>2024121710</v>
       </c>
       <c r="B26">
-        <v>1.181457074442538</v>
+        <v>3.777860763731278</v>
       </c>
       <c r="C26">
-        <v>5.313658089661748</v>
+        <v>16.99110432623065</v>
       </c>
       <c r="D26">
-        <v>0.003386716663892856</v>
+        <v>0.01082946158533328</v>
       </c>
       <c r="E26">
-        <v>0.3221370765715779</v>
+        <v>1.030074683582634</v>
       </c>
       <c r="F26">
-        <v>2.927093214393133</v>
+        <v>9.359756563019934</v>
       </c>
       <c r="G26">
-        <v>3.381860202154833</v>
+        <v>10.81393242507217</v>
       </c>
       <c r="H26">
-        <v>0.135840068263576</v>
+        <v>0.4343660680839249</v>
       </c>
       <c r="I26">
-        <v>1.00679433503469</v>
+        <v>3.219354217561519</v>
       </c>
       <c r="J26">
-        <v>1.581573563434104</v>
+        <v>5.057284635645021</v>
       </c>
       <c r="K26">
-        <v>2.09468445402732</v>
+        <v>6.698022621771155</v>
       </c>
       <c r="L26">
-        <v>9.506451390296734</v>
+        <v>30.39809950494094</v>
       </c>
       <c r="M26">
-        <v>5.981960112738046</v>
+        <v>19.12808589409122</v>
       </c>
       <c r="N26">
-        <v>0.05697600721016328</v>
+        <v>0.1821881021068068</v>
       </c>
       <c r="O26">
-        <v>0.2367956457160434</v>
+        <v>0.7571844955900361</v>
       </c>
       <c r="P26">
-        <v>33.7306679506084</v>
+        <v>107.8581437630126</v>
       </c>
     </row>
     <row r="27" spans="1:16">
@@ -1688,49 +1688,49 @@
         <v>2024121711</v>
       </c>
       <c r="B27">
-        <v>1.231002048532064</v>
+        <v>3.936287182855494</v>
       </c>
       <c r="C27">
-        <v>5.536488912776594</v>
+        <v>17.70363450765322</v>
       </c>
       <c r="D27">
-        <v>0.004183591173044116</v>
+        <v>0.013377570193647</v>
       </c>
       <c r="E27">
-        <v>0.3979340357648903</v>
+        <v>1.272445197366784</v>
       </c>
       <c r="F27">
-        <v>2.819676949644761</v>
+        <v>9.016279257954984</v>
       </c>
       <c r="G27">
-        <v>3.257755240607866</v>
+        <v>10.4170908681888</v>
       </c>
       <c r="H27">
-        <v>0.152820076796523</v>
+        <v>0.4886618265944154</v>
       </c>
       <c r="I27">
-        <v>1.132643626914026</v>
+        <v>3.621773494756708</v>
       </c>
       <c r="J27">
-        <v>1.470928499325545</v>
+        <v>4.703482829859155</v>
       </c>
       <c r="K27">
-        <v>1.948142743251746</v>
+        <v>6.229436677038192</v>
       </c>
       <c r="L27">
-        <v>8.462390254946227</v>
+        <v>27.05957990613241</v>
       </c>
       <c r="M27">
-        <v>5.324981834460457</v>
+        <v>17.02731345485577</v>
       </c>
       <c r="N27">
-        <v>0.04476686280798545</v>
+        <v>0.1431477945124911</v>
       </c>
       <c r="O27">
-        <v>0.1860537216340341</v>
+        <v>0.5949306751064569</v>
       </c>
       <c r="P27">
-        <v>31.96976839863577</v>
+        <v>102.2274412430685</v>
       </c>
     </row>
     <row r="28" spans="1:16">
@@ -1738,49 +1738,49 @@
         <v>2024121712</v>
       </c>
       <c r="B28">
-        <v>1.303413933739832</v>
+        <v>4.167833487729344</v>
       </c>
       <c r="C28">
-        <v>5.86216473117522</v>
+        <v>18.7450247728093</v>
       </c>
       <c r="D28">
-        <v>0.003984372545756301</v>
+        <v>0.01274054304156857</v>
       </c>
       <c r="E28">
-        <v>0.3789847959665624</v>
+        <v>1.211852568920746</v>
       </c>
       <c r="F28">
-        <v>2.873385082018945</v>
+        <v>9.188017910487458</v>
       </c>
       <c r="G28">
-        <v>3.31980772138135</v>
+        <v>10.61551164663048</v>
       </c>
       <c r="H28">
-        <v>0.1400850703968128</v>
+        <v>0.4479400077115475</v>
       </c>
       <c r="I28">
-        <v>1.038256658004524</v>
+        <v>3.319959036860315</v>
       </c>
       <c r="J28">
-        <v>1.444894366594119</v>
+        <v>4.620235346144834</v>
       </c>
       <c r="K28">
-        <v>1.913662340716318</v>
+        <v>6.119181160630438</v>
       </c>
       <c r="L28">
-        <v>8.022785566377591</v>
+        <v>25.65388744347619</v>
       </c>
       <c r="M28">
-        <v>5.048359401501471</v>
+        <v>16.14277769096715</v>
       </c>
       <c r="N28">
-        <v>0.07732458121379304</v>
+        <v>0.2472552814306663</v>
       </c>
       <c r="O28">
-        <v>0.321365519186059</v>
+        <v>1.027607529729335</v>
       </c>
       <c r="P28">
-        <v>31.74847414081835</v>
+        <v>101.5198244265694</v>
       </c>
     </row>
     <row r="29" spans="1:16">
@@ -1788,49 +1788,49 @@
         <v>2024121713</v>
       </c>
       <c r="B29">
-        <v>1.290456017439495</v>
+        <v>4.126398885804552</v>
       </c>
       <c r="C29">
-        <v>5.803885900514411</v>
+        <v>18.55867072536032</v>
       </c>
       <c r="D29">
-        <v>0.003585935291180671</v>
+        <v>0.01146648873741171</v>
       </c>
       <c r="E29">
-        <v>0.3410863163699059</v>
+        <v>1.090667312028672</v>
       </c>
       <c r="F29">
-        <v>2.390011890651272</v>
+        <v>7.64237003769518</v>
       </c>
       <c r="G29">
-        <v>2.761335394420001</v>
+        <v>8.829724640655263</v>
       </c>
       <c r="H29">
-        <v>0.152820076796523</v>
+        <v>0.4886618265944154</v>
       </c>
       <c r="I29">
-        <v>1.132643626914026</v>
+        <v>3.621773494756708</v>
       </c>
       <c r="J29">
-        <v>1.646658895262668</v>
+        <v>5.265403344930824</v>
       </c>
       <c r="K29">
-        <v>2.180885460365893</v>
+        <v>6.973661412790544</v>
       </c>
       <c r="L29">
-        <v>5.495058607107941</v>
+        <v>17.57115578320287</v>
       </c>
       <c r="M29">
-        <v>3.457780411987309</v>
+        <v>11.05669704860764</v>
       </c>
       <c r="N29">
-        <v>0.05697600721016328</v>
+        <v>0.1821881021068068</v>
       </c>
       <c r="O29">
-        <v>0.2367956457160434</v>
+        <v>0.7571844955900361</v>
       </c>
       <c r="P29">
-        <v>26.94998018604683</v>
+        <v>86.17602359886125</v>
       </c>
     </row>
     <row r="30" spans="1:16">
@@ -1838,49 +1838,49 @@
         <v>2024121714</v>
       </c>
       <c r="B30">
-        <v>1.382685892283074</v>
+        <v>4.421315758328091</v>
       </c>
       <c r="C30">
-        <v>6.218694048158978</v>
+        <v>19.88507306308541</v>
       </c>
       <c r="D30">
-        <v>0.003486325977536763</v>
+        <v>0.0111479751613725</v>
       </c>
       <c r="E30">
-        <v>0.3316116964707419</v>
+        <v>1.060370997805653</v>
       </c>
       <c r="F30">
-        <v>3.329904207199526</v>
+        <v>10.64779645701351</v>
       </c>
       <c r="G30">
-        <v>3.847253807955957</v>
+        <v>12.30208826338486</v>
       </c>
       <c r="H30">
-        <v>0.1570650789297598</v>
+        <v>0.5022357662220382</v>
       </c>
       <c r="I30">
-        <v>1.16410594988386</v>
+        <v>3.722378314055505</v>
       </c>
       <c r="J30">
-        <v>1.522996764788396</v>
+        <v>4.869977797287798</v>
       </c>
       <c r="K30">
-        <v>2.017103548322605</v>
+        <v>6.449947709853703</v>
       </c>
       <c r="L30">
-        <v>6.649020914600606</v>
+        <v>21.26109849767547</v>
       </c>
       <c r="M30">
-        <v>4.183914298504643</v>
+        <v>13.37860342881525</v>
       </c>
       <c r="N30">
-        <v>0.05697600721016328</v>
+        <v>0.1821881021068068</v>
       </c>
       <c r="O30">
-        <v>0.2367956457160434</v>
+        <v>0.7571844955900361</v>
       </c>
       <c r="P30">
-        <v>31.10161418600189</v>
+        <v>99.45140662638552</v>
       </c>
     </row>
     <row r="31" spans="1:16">
@@ -1888,49 +1888,49 @@
         <v>2024121715</v>
       </c>
       <c r="B31">
-        <v>1.448237704155369</v>
+        <v>4.630926097477052</v>
       </c>
       <c r="C31">
-        <v>6.513516367972468</v>
+        <v>20.82780530312144</v>
       </c>
       <c r="D31">
-        <v>0.003685544604824577</v>
+        <v>0.01178500231345093</v>
       </c>
       <c r="E31">
-        <v>0.3505609362690701</v>
+        <v>1.12096362625169</v>
       </c>
       <c r="F31">
-        <v>3.168779810076968</v>
+        <v>10.13258049941608</v>
       </c>
       <c r="G31">
-        <v>3.661096365635507</v>
+        <v>11.70682592805978</v>
       </c>
       <c r="H31">
-        <v>0.1485750746632863</v>
+        <v>0.4750878869667927</v>
       </c>
       <c r="I31">
-        <v>1.101181303944192</v>
+        <v>3.52116867545791</v>
       </c>
       <c r="J31">
-        <v>1.477437032508402</v>
+        <v>4.724294700787735</v>
       </c>
       <c r="K31">
-        <v>1.956762843885603</v>
+        <v>6.257000556140132</v>
       </c>
       <c r="L31">
-        <v>5.714860951392259</v>
+        <v>18.27400201453098</v>
       </c>
       <c r="M31">
-        <v>3.596091628466801</v>
+        <v>11.49896493055195</v>
       </c>
       <c r="N31">
-        <v>0.0651154368116152</v>
+        <v>0.2082149738363506</v>
       </c>
       <c r="O31">
-        <v>0.2706235951040497</v>
+        <v>0.8653537092457557</v>
       </c>
       <c r="P31">
-        <v>29.47652459549041</v>
+        <v>94.25497390415711</v>
       </c>
     </row>
     <row r="32" spans="1:16">
@@ -1938,49 +1938,49 @@
         <v>2024121716</v>
       </c>
       <c r="B32">
-        <v>1.646417600513473</v>
+        <v>5.264631773973909</v>
       </c>
       <c r="C32">
-        <v>7.404839660431855</v>
+        <v>23.67792602881174</v>
       </c>
       <c r="D32">
-        <v>0.002789060782029411</v>
+        <v>0.008918380129098</v>
       </c>
       <c r="E32">
-        <v>0.2652893571765936</v>
+        <v>0.8482967982445224</v>
       </c>
       <c r="F32">
-        <v>3.410466405760804</v>
+        <v>10.90540443581221</v>
       </c>
       <c r="G32">
-        <v>3.94033252911618</v>
+        <v>12.5997194310474</v>
       </c>
       <c r="H32">
-        <v>0.2164951087950742</v>
+        <v>0.6922709210087553</v>
       </c>
       <c r="I32">
-        <v>1.604578471461537</v>
+        <v>5.130845784238669</v>
       </c>
       <c r="J32">
-        <v>1.412351700679837</v>
+        <v>4.516175991501933</v>
       </c>
       <c r="K32">
-        <v>1.870561837547031</v>
+        <v>5.981361765120742</v>
       </c>
       <c r="L32">
-        <v>3.351985750335843</v>
+        <v>10.71840502775374</v>
       </c>
       <c r="M32">
-        <v>2.109246051312258</v>
+        <v>6.744585199650662</v>
       </c>
       <c r="N32">
-        <v>0.08546401081524491</v>
+        <v>0.27328215316021</v>
       </c>
       <c r="O32">
-        <v>0.3551934685740652</v>
+        <v>1.135776743385054</v>
       </c>
       <c r="P32">
-        <v>27.67601101330182</v>
+        <v>88.49760043383864</v>
       </c>
     </row>
     <row r="33" spans="1:16">
@@ -1988,49 +1988,49 @@
         <v>2024121717</v>
       </c>
       <c r="B33">
-        <v>1.799625905005699</v>
+        <v>5.754535008496483</v>
       </c>
       <c r="C33">
-        <v>8.093901128833149</v>
+        <v>25.88128858982616</v>
       </c>
       <c r="D33">
-        <v>0.002191404900165966</v>
+        <v>0.007007298672862713</v>
       </c>
       <c r="E33">
-        <v>0.2084416377816092</v>
+        <v>0.6665189129064105</v>
       </c>
       <c r="F33">
-        <v>2.927093214393133</v>
+        <v>9.359756563019934</v>
       </c>
       <c r="G33">
-        <v>3.381860202154833</v>
+        <v>10.81393242507217</v>
       </c>
       <c r="H33">
-        <v>0.3098851557262828</v>
+        <v>0.9908975928164536</v>
       </c>
       <c r="I33">
-        <v>2.296749576797886</v>
+        <v>7.344151808812213</v>
       </c>
       <c r="J33">
-        <v>1.02834824289131</v>
+        <v>3.288275606715692</v>
       </c>
       <c r="K33">
-        <v>1.361975900149451</v>
+        <v>4.355092898106347</v>
       </c>
       <c r="L33">
-        <v>2.582677545340733</v>
+        <v>8.258443218105347</v>
       </c>
       <c r="M33">
-        <v>1.625156793634035</v>
+        <v>5.196647612845593</v>
       </c>
       <c r="N33">
-        <v>0.02848800360508164</v>
+        <v>0.0910940510534034</v>
       </c>
       <c r="O33">
-        <v>0.1183978228580217</v>
+        <v>0.378592247795018</v>
       </c>
       <c r="P33">
-        <v>25.76479253407139</v>
+        <v>82.38623383424408</v>
       </c>
     </row>
     <row r="34" spans="1:16">
@@ -2038,49 +2038,49 @@
         <v>2024121718</v>
       </c>
       <c r="B34">
-        <v>1.827828428718198</v>
+        <v>5.844716200921035</v>
       </c>
       <c r="C34">
-        <v>8.22074328968314</v>
+        <v>26.28688269309748</v>
       </c>
       <c r="D34">
-        <v>0.002589842154741596</v>
+        <v>0.00828135297701957</v>
       </c>
       <c r="E34">
-        <v>0.2463401173782654</v>
+        <v>0.7877041697984852</v>
       </c>
       <c r="F34">
-        <v>2.309449692089995</v>
+        <v>7.384762058896462</v>
       </c>
       <c r="G34">
-        <v>2.668256673259777</v>
+        <v>8.532093472992724</v>
       </c>
       <c r="H34">
-        <v>0.3311101663924665</v>
+        <v>1.058767290954567</v>
       </c>
       <c r="I34">
-        <v>2.454061191647057</v>
+        <v>7.847175905306202</v>
       </c>
       <c r="J34">
-        <v>0.5532253205427935</v>
+        <v>1.769009028929328</v>
       </c>
       <c r="K34">
-        <v>0.7327085538778692</v>
+        <v>2.342929723664807</v>
       </c>
       <c r="L34">
-        <v>1.373764651776985</v>
+        <v>4.392788945800716</v>
       </c>
       <c r="M34">
-        <v>0.8644451029968273</v>
+        <v>2.76417426215191</v>
       </c>
       <c r="N34">
-        <v>0.01220914440217785</v>
+        <v>0.03904030759431574</v>
       </c>
       <c r="O34">
-        <v>0.05074192408200931</v>
+        <v>0.1622538204835792</v>
       </c>
       <c r="P34">
-        <v>21.64747409900231</v>
+        <v>69.22057923356864</v>
       </c>
     </row>
     <row r="35" spans="1:16">
@@ -2088,49 +2088,49 @@
         <v>2024121719</v>
       </c>
       <c r="B35">
-        <v>1.179932613701322</v>
+        <v>3.772986104681303</v>
       </c>
       <c r="C35">
-        <v>5.306801756642826</v>
+        <v>16.96918032064842</v>
       </c>
       <c r="D35">
-        <v>0.004083981859400209</v>
+        <v>0.01305905661760778</v>
       </c>
       <c r="E35">
-        <v>0.3884594158657262</v>
+        <v>1.242148883143765</v>
       </c>
       <c r="F35">
-        <v>1.396411441728833</v>
+        <v>4.465204965844375</v>
       </c>
       <c r="G35">
-        <v>1.613364500110563</v>
+        <v>5.158940239483971</v>
       </c>
       <c r="H35">
-        <v>0.271680136527152</v>
+        <v>0.8687321361678497</v>
       </c>
       <c r="I35">
-        <v>2.01358867006938</v>
+        <v>6.438708435123038</v>
       </c>
       <c r="J35">
-        <v>0.2538327941313994</v>
+        <v>0.8116629662146325</v>
       </c>
       <c r="K35">
-        <v>0.3361839247204341</v>
+        <v>1.074991284975617</v>
       </c>
       <c r="L35">
-        <v>1.044061135350509</v>
+        <v>3.338519598808545</v>
       </c>
       <c r="M35">
-        <v>0.6569782782775888</v>
+        <v>2.100772439235452</v>
       </c>
       <c r="N35">
-        <v>0.0162788592029038</v>
+        <v>0.05205374345908764</v>
       </c>
       <c r="O35">
-        <v>0.06765589877601241</v>
+        <v>0.2163384273114389</v>
       </c>
       <c r="P35">
-        <v>14.54931340696405</v>
+        <v>46.5232986017151</v>
       </c>
     </row>
     <row r="36" spans="1:16">
@@ -2138,49 +2138,49 @@
         <v>2024121720</v>
       </c>
       <c r="B36">
-        <v>1.016815314391192</v>
+        <v>3.251397586333887</v>
       </c>
       <c r="C36">
-        <v>4.573174123618563</v>
+        <v>14.62331172334948</v>
       </c>
       <c r="D36">
-        <v>0.004482419113975839</v>
+        <v>0.01433311092176464</v>
       </c>
       <c r="E36">
-        <v>0.4263578954623824</v>
+        <v>1.36333414003584</v>
       </c>
       <c r="F36">
-        <v>1.154724846044997</v>
+        <v>3.692381029448231</v>
       </c>
       <c r="G36">
-        <v>1.334128336629888</v>
+        <v>4.266046736496362</v>
       </c>
       <c r="H36">
-        <v>0.2334751173280213</v>
+        <v>0.7465666795192458</v>
       </c>
       <c r="I36">
-        <v>1.730427763340873</v>
+        <v>5.533265061433859</v>
       </c>
       <c r="J36">
-        <v>0.3059010595942505</v>
+        <v>0.9781579336432757</v>
       </c>
       <c r="K36">
-        <v>0.4051447297912923</v>
+        <v>1.295502317791129</v>
       </c>
       <c r="L36">
-        <v>0.8792093771372705</v>
+        <v>2.811384925312458</v>
       </c>
       <c r="M36">
-        <v>0.5532448659179696</v>
+        <v>1.769071527777222</v>
       </c>
       <c r="N36">
-        <v>0.01220914440217785</v>
+        <v>0.03904030759431574</v>
       </c>
       <c r="O36">
-        <v>0.05074192408200931</v>
+        <v>0.1622538204835792</v>
       </c>
       <c r="P36">
-        <v>12.68003691685486</v>
+        <v>40.54604690014065</v>
       </c>
     </row>
     <row r="37" spans="1:16">
@@ -2188,43 +2188,43 @@
         <v>2024121721</v>
       </c>
       <c r="B37">
-        <v>0.7736638261672103</v>
+        <v>2.473889467862741</v>
       </c>
       <c r="C37">
-        <v>3.47958900710108</v>
+        <v>11.1264328329833</v>
       </c>
       <c r="D37">
-        <v>0.002490232841097689</v>
+        <v>0.007962839400980356</v>
       </c>
       <c r="E37">
-        <v>0.2368654974791014</v>
+        <v>0.7574078555754664</v>
       </c>
       <c r="F37">
-        <v>0.9936004489224395</v>
+        <v>3.177165071850804</v>
       </c>
       <c r="G37">
-        <v>1.147970894309439</v>
+        <v>3.670784401171288</v>
       </c>
       <c r="H37">
-        <v>0.1910250959956538</v>
+        <v>0.6108272832430193</v>
       </c>
       <c r="I37">
-        <v>1.415804533642532</v>
+        <v>4.527216868445885</v>
       </c>
       <c r="J37">
-        <v>0.2082730618514046</v>
+        <v>0.6659798697145706</v>
       </c>
       <c r="K37">
-        <v>0.2758432202834331</v>
+        <v>0.8820441312620448</v>
       </c>
       <c r="L37">
-        <v>0.6594070328529528</v>
+        <v>2.108538693984344</v>
       </c>
       <c r="M37">
-        <v>0.4149336494384772</v>
+        <v>1.326803645832917</v>
       </c>
       <c r="P37">
-        <v>9.799466500884821</v>
+        <v>31.33505296132736</v>
       </c>
     </row>
     <row r="38" spans="1:16">
@@ -2232,49 +2232,49 @@
         <v>2024121722</v>
       </c>
       <c r="B38">
-        <v>0.5655749349912024</v>
+        <v>1.808498507541037</v>
       </c>
       <c r="C38">
-        <v>2.54369955001872</v>
+        <v>8.133806071008475</v>
       </c>
       <c r="D38">
-        <v>0.002689451468385503</v>
+        <v>0.008599866553058784</v>
       </c>
       <c r="E38">
-        <v>0.2558147372774295</v>
+        <v>0.8180004840215038</v>
       </c>
       <c r="F38">
-        <v>0.8056219856127886</v>
+        <v>2.576079787987137</v>
       </c>
       <c r="G38">
-        <v>0.9307872116022475</v>
+        <v>2.976311676625369</v>
       </c>
       <c r="H38">
-        <v>0.09339004693120849</v>
+        <v>0.2986266718076984</v>
       </c>
       <c r="I38">
-        <v>0.6921711053363493</v>
+        <v>2.213306024573543</v>
       </c>
       <c r="J38">
-        <v>0.2082730618514046</v>
+        <v>0.6659798697145706</v>
       </c>
       <c r="K38">
-        <v>0.2758432202834331</v>
+        <v>0.8820441312620448</v>
       </c>
       <c r="L38">
-        <v>0.7143576189240324</v>
+        <v>2.284250251816373</v>
       </c>
       <c r="M38">
-        <v>0.4495114535583501</v>
+        <v>1.437370616318993</v>
       </c>
       <c r="N38">
-        <v>0.00406971480072595</v>
+        <v>0.01301343586477191</v>
       </c>
       <c r="O38">
-        <v>0.0169139746940031</v>
+        <v>0.05408460682785973</v>
       </c>
       <c r="P38">
-        <v>7.558718067350281</v>
+        <v>24.16997200192244</v>
       </c>
     </row>
     <row r="39" spans="1:16">
@@ -2282,49 +2282,49 @@
         <v>2024121723</v>
       </c>
       <c r="B39">
-        <v>0.3536748919621533</v>
+        <v>1.130920899594396</v>
       </c>
       <c r="C39">
-        <v>1.590669260389065</v>
+        <v>5.086369295078079</v>
       </c>
       <c r="D39">
-        <v>0.0006972651955073527</v>
+        <v>0.0022295950322745</v>
       </c>
       <c r="E39">
-        <v>0.06632233929414839</v>
+        <v>0.2120741995611306</v>
       </c>
       <c r="F39">
-        <v>0.3491028604322083</v>
+        <v>1.116301241461094</v>
       </c>
       <c r="G39">
-        <v>0.4033411250276407</v>
+        <v>1.289735059870993</v>
       </c>
       <c r="H39">
-        <v>0.08490004266473498</v>
+        <v>0.2714787925524531</v>
       </c>
       <c r="I39">
-        <v>0.6292464593966811</v>
+        <v>2.012096385975949</v>
       </c>
       <c r="J39">
-        <v>0.1171535972914151</v>
+        <v>0.374613676714446</v>
       </c>
       <c r="K39">
-        <v>0.1551618114094311</v>
+        <v>0.4961498238349004</v>
       </c>
       <c r="L39">
-        <v>1.044061135350509</v>
+        <v>3.338519598808545</v>
       </c>
       <c r="M39">
-        <v>0.6569782782775888</v>
+        <v>2.100772439235452</v>
       </c>
       <c r="N39">
-        <v>0.00406971480072595</v>
+        <v>0.01301343586477191</v>
       </c>
       <c r="O39">
-        <v>0.0169139746940031</v>
+        <v>0.05408460682785973</v>
       </c>
       <c r="P39">
-        <v>5.472292756185812</v>
+        <v>17.49835905041234</v>
       </c>
     </row>
     <row r="40" spans="1:16">
@@ -2332,49 +2332,49 @@
         <v>2024121800</v>
       </c>
       <c r="B40">
-        <v>0.2484871008182371</v>
+        <v>0.7945694251460623</v>
       </c>
       <c r="C40">
-        <v>1.117582282083696</v>
+        <v>3.573612909903994</v>
       </c>
       <c r="D40">
-        <v>0.00159374901830252</v>
+        <v>0.005096217216627426</v>
       </c>
       <c r="E40">
-        <v>0.1515939183866249</v>
+        <v>0.4847410275682986</v>
       </c>
       <c r="F40">
-        <v>0.2416865956838366</v>
+        <v>0.7728239363961414</v>
       </c>
       <c r="G40">
-        <v>0.2792361634806743</v>
+        <v>0.8928935029876105</v>
       </c>
       <c r="H40">
-        <v>0.04245002133236749</v>
+        <v>0.1357393962762266</v>
       </c>
       <c r="I40">
-        <v>0.3146232296983406</v>
+        <v>1.006048192987974</v>
       </c>
       <c r="J40">
-        <v>0.2343071945828302</v>
+        <v>0.7492273534288919</v>
       </c>
       <c r="K40">
-        <v>0.3103236228188623</v>
+        <v>0.9922996476698008</v>
       </c>
       <c r="L40">
-        <v>0.6594070328529528</v>
+        <v>2.108538693984344</v>
       </c>
       <c r="M40">
-        <v>0.4149336494384772</v>
+        <v>1.326803645832917</v>
       </c>
       <c r="N40">
-        <v>0.008139429601451901</v>
+        <v>0.02602687172954382</v>
       </c>
       <c r="O40">
-        <v>0.03382794938800621</v>
+        <v>0.1081692136557195</v>
       </c>
       <c r="P40">
-        <v>4.058191939184661</v>
+        <v>12.97659003478415</v>
       </c>
     </row>
     <row r="41" spans="1:16">
@@ -2382,37 +2382,37 @@
         <v>2024121801</v>
       </c>
       <c r="B41">
-        <v>0.1608306081983068</v>
+        <v>0.5142765297724514</v>
       </c>
       <c r="C41">
-        <v>0.7233431334958896</v>
+        <v>2.312982588925591</v>
       </c>
       <c r="D41">
-        <v>0.00239062352745378</v>
+        <v>0.007644325824941142</v>
       </c>
       <c r="E41">
-        <v>0.2273908775799374</v>
+        <v>0.7271115413524478</v>
       </c>
       <c r="F41">
-        <v>0.08056219856127886</v>
+        <v>0.2576079787987138</v>
       </c>
       <c r="G41">
-        <v>0.09307872116022477</v>
+        <v>0.2976311676625368</v>
       </c>
       <c r="J41">
-        <v>0.1692218627542663</v>
+        <v>0.5411086441430887</v>
       </c>
       <c r="K41">
-        <v>0.2241226164802894</v>
+        <v>0.7166608566504116</v>
       </c>
       <c r="L41">
-        <v>1.099011721421588</v>
+        <v>3.514231156640572</v>
       </c>
       <c r="M41">
-        <v>0.6915560823974619</v>
+        <v>2.211339409721528</v>
       </c>
       <c r="P41">
-        <v>3.471508445576697</v>
+        <v>11.10059419949228</v>
       </c>
     </row>
     <row r="42" spans="1:16">
@@ -2420,37 +2420,37 @@
         <v>2024121802</v>
       </c>
       <c r="B42">
-        <v>0.1036633304027001</v>
+        <v>0.3314768153983572</v>
       </c>
       <c r="C42">
-        <v>0.4662306452864501</v>
+        <v>1.490832379591851</v>
       </c>
       <c r="D42">
-        <v>0.00159374901830252</v>
+        <v>0.005096217216627426</v>
       </c>
       <c r="E42">
-        <v>0.1515939183866249</v>
+        <v>0.4847410275682986</v>
       </c>
       <c r="F42">
-        <v>0.2685406618709296</v>
+        <v>0.8586932626623796</v>
       </c>
       <c r="G42">
-        <v>0.3102624038674159</v>
+        <v>0.9921038922084563</v>
       </c>
       <c r="J42">
-        <v>0.1171535972914151</v>
+        <v>0.374613676714446</v>
       </c>
       <c r="K42">
-        <v>0.1551618114094311</v>
+        <v>0.4961498238349004</v>
       </c>
       <c r="L42">
-        <v>1.373764651776985</v>
+        <v>4.392788945800716</v>
       </c>
       <c r="M42">
-        <v>0.8644451029968273</v>
+        <v>2.76417426215191</v>
       </c>
       <c r="P42">
-        <v>3.812409872307082</v>
+        <v>12.19067030314794</v>
       </c>
     </row>
     <row r="43" spans="1:16">
@@ -2458,43 +2458,43 @@
         <v>2024121803</v>
       </c>
       <c r="B43">
-        <v>0.1166212467030377</v>
+        <v>0.3729114173231522</v>
       </c>
       <c r="C43">
-        <v>0.5245094759472565</v>
+        <v>1.677186427040832</v>
       </c>
       <c r="D43">
-        <v>0.001394530391014705</v>
+        <v>0.004459190064549</v>
       </c>
       <c r="E43">
-        <v>0.1326446785882968</v>
+        <v>0.4241483991222612</v>
       </c>
       <c r="F43">
-        <v>0.2416865956838366</v>
+        <v>0.7728239363961414</v>
       </c>
       <c r="G43">
-        <v>0.2792361634806743</v>
+        <v>0.8928935029876105</v>
       </c>
       <c r="H43">
-        <v>0.033960017065894</v>
+        <v>0.1085915170209812</v>
       </c>
       <c r="I43">
-        <v>0.2516985837586725</v>
+        <v>0.8048385543903798</v>
       </c>
       <c r="J43">
-        <v>0.1431877300228407</v>
+        <v>0.4578611604287672</v>
       </c>
       <c r="K43">
-        <v>0.1896422139448602</v>
+        <v>0.6064053402426559</v>
       </c>
       <c r="L43">
-        <v>1.318814065705906</v>
+        <v>4.217077387968688</v>
       </c>
       <c r="M43">
-        <v>0.8298672988769544</v>
+        <v>2.653607291665834</v>
       </c>
       <c r="P43">
-        <v>4.063262600169244</v>
+        <v>12.99280412465185</v>
       </c>
     </row>
     <row r="44" spans="1:16">
@@ -2502,43 +2502,43 @@
         <v>2024121804</v>
       </c>
       <c r="B44">
-        <v>0.2080888911760083</v>
+        <v>0.6653909603217025</v>
       </c>
       <c r="C44">
-        <v>0.9358894570823597</v>
+        <v>2.992626761974817</v>
       </c>
       <c r="D44">
-        <v>0.0008964838227951677</v>
+        <v>0.002866622184352927</v>
       </c>
       <c r="E44">
-        <v>0.08527157909247648</v>
+        <v>0.2726668280071679</v>
       </c>
       <c r="F44">
-        <v>0.5370813237418591</v>
+        <v>1.717386525324759</v>
       </c>
       <c r="G44">
-        <v>0.6205248077348318</v>
+        <v>1.984207784416913</v>
       </c>
       <c r="H44">
-        <v>0.016980008532947</v>
+        <v>0.05429575851049061</v>
       </c>
       <c r="I44">
-        <v>0.1258492918793362</v>
+        <v>0.4024192771951899</v>
       </c>
       <c r="J44">
-        <v>0.2928839932285376</v>
+        <v>0.9365341917861151</v>
       </c>
       <c r="K44">
-        <v>0.3879045285235778</v>
+        <v>1.240374559587251</v>
       </c>
       <c r="L44">
-        <v>1.703468168203461</v>
+        <v>5.447058292792889</v>
       </c>
       <c r="M44">
-        <v>1.071911927716066</v>
+        <v>3.427576085068368</v>
       </c>
       <c r="P44">
-        <v>5.986750460734256</v>
+        <v>19.14340364717001</v>
       </c>
     </row>
     <row r="45" spans="1:16">
@@ -2546,49 +2546,49 @@
         <v>2024121805</v>
       </c>
       <c r="B45">
-        <v>0.5007853534895146</v>
+        <v>1.601325497917065</v>
       </c>
       <c r="C45">
-        <v>2.252305396714689</v>
+        <v>7.202035833763572</v>
       </c>
       <c r="D45">
-        <v>0.0006972651955073527</v>
+        <v>0.0022295950322745</v>
       </c>
       <c r="E45">
-        <v>0.06632233929414839</v>
+        <v>0.2120741995611306</v>
       </c>
       <c r="F45">
-        <v>1.154724846044997</v>
+        <v>3.692381029448231</v>
       </c>
       <c r="G45">
-        <v>1.334128336629888</v>
+        <v>4.266046736496362</v>
       </c>
       <c r="H45">
-        <v>0.152820076796523</v>
+        <v>0.4886618265944154</v>
       </c>
       <c r="I45">
-        <v>1.132643626914026</v>
+        <v>3.621773494756708</v>
       </c>
       <c r="J45">
-        <v>0.5206826546285116</v>
+        <v>1.664949674286426</v>
       </c>
       <c r="K45">
-        <v>0.6896080507085829</v>
+        <v>2.205110328155112</v>
       </c>
       <c r="L45">
-        <v>2.472776373198573</v>
+        <v>7.907020102441287</v>
       </c>
       <c r="M45">
-        <v>1.556001185394289</v>
+        <v>4.975513671873439</v>
       </c>
       <c r="N45">
-        <v>0.01220914440217785</v>
+        <v>0.03904030759431574</v>
       </c>
       <c r="O45">
-        <v>0.05074192408200931</v>
+        <v>0.1622538204835792</v>
       </c>
       <c r="P45">
-        <v>11.89644657349344</v>
+        <v>38.04041611840392</v>
       </c>
     </row>
     <row r="46" spans="1:16">
@@ -2596,49 +2596,49 @@
         <v>2024121806</v>
       </c>
       <c r="B46">
-        <v>0.9520257328895035</v>
+        <v>3.044224576709913</v>
       </c>
       <c r="C46">
-        <v>4.28177997031453</v>
+        <v>13.69154148610457</v>
       </c>
       <c r="D46">
-        <v>0.0009960931364390753</v>
+        <v>0.003185135760392143</v>
       </c>
       <c r="E46">
-        <v>0.09474619899164059</v>
+        <v>0.3029631422301866</v>
       </c>
       <c r="F46">
-        <v>2.470574089212552</v>
+        <v>7.899978016493892</v>
       </c>
       <c r="G46">
-        <v>2.854414115580226</v>
+        <v>9.1273558083178</v>
       </c>
       <c r="H46">
-        <v>0.4075202047907279</v>
+        <v>1.303098204251775</v>
       </c>
       <c r="I46">
-        <v>3.020383005104069</v>
+        <v>9.658062652684553</v>
       </c>
       <c r="J46">
-        <v>0.8916690460513264</v>
+        <v>2.851226317215505</v>
       </c>
       <c r="K46">
-        <v>1.180953786838448</v>
+        <v>3.776251436965631</v>
       </c>
       <c r="L46">
-        <v>4.286145713544195</v>
+        <v>13.70550151089824</v>
       </c>
       <c r="M46">
-        <v>2.697068721350103</v>
+        <v>8.624223697913962</v>
       </c>
       <c r="N46">
-        <v>0.04476686280798545</v>
+        <v>0.1431477945124911</v>
       </c>
       <c r="O46">
-        <v>0.1860537216340341</v>
+        <v>0.5949306751064569</v>
       </c>
       <c r="P46">
-        <v>23.36909726224578</v>
+        <v>74.72569045516536</v>
       </c>
     </row>
     <row r="47" spans="1:16">
@@ -2646,49 +2646,49 @@
         <v>2024121807</v>
       </c>
       <c r="B47">
-        <v>1.532845275292869</v>
+        <v>4.901469674750712</v>
       </c>
       <c r="C47">
-        <v>6.894042850522436</v>
+        <v>22.04458761293538</v>
       </c>
       <c r="D47">
-        <v>0.001095702450082983</v>
+        <v>0.003503649336431356</v>
       </c>
       <c r="E47">
-        <v>0.1042208188908046</v>
+        <v>0.3332594564532053</v>
       </c>
       <c r="F47">
-        <v>1.933492765470693</v>
+        <v>6.182591491169132</v>
       </c>
       <c r="G47">
-        <v>2.233889307845395</v>
+        <v>7.143148023900884</v>
       </c>
       <c r="H47">
-        <v>0.4032752026574913</v>
+        <v>1.289524264624152</v>
       </c>
       <c r="I47">
-        <v>2.988920682134235</v>
+        <v>9.557457833385758</v>
       </c>
       <c r="J47">
-        <v>1.041365309257023</v>
+        <v>3.329899348572853</v>
       </c>
       <c r="K47">
-        <v>1.379216101417166</v>
+        <v>4.410220656310225</v>
       </c>
       <c r="L47">
-        <v>5.440108021036862</v>
+        <v>17.39544422537083</v>
       </c>
       <c r="M47">
-        <v>3.423202607867435</v>
+        <v>10.94613007812157</v>
       </c>
       <c r="N47">
-        <v>0.04069714800725949</v>
+        <v>0.1301343586477191</v>
       </c>
       <c r="O47">
-        <v>0.169139746940031</v>
+        <v>0.5408460682785973</v>
       </c>
       <c r="P47">
-        <v>27.58551153978978</v>
+        <v>88.20821674185746</v>
       </c>
     </row>
     <row r="48" spans="1:16">
@@ -2696,49 +2696,49 @@
         <v>2024121808</v>
       </c>
       <c r="B48">
-        <v>1.881184554660764</v>
+        <v>6.01532926767019</v>
       </c>
       <c r="C48">
-        <v>8.460714945345284</v>
+        <v>27.05422288847565</v>
       </c>
       <c r="D48">
-        <v>0.002191404900165966</v>
+        <v>0.007007298672862713</v>
       </c>
       <c r="E48">
-        <v>0.2084416377816092</v>
+        <v>0.6665189129064105</v>
       </c>
       <c r="F48">
-        <v>2.819676949644761</v>
+        <v>9.016279257954984</v>
       </c>
       <c r="G48">
-        <v>3.257755240607866</v>
+        <v>10.4170908681888</v>
       </c>
       <c r="H48">
-        <v>0.2462101237277315</v>
+        <v>0.7872884984021138</v>
       </c>
       <c r="I48">
-        <v>1.824814732250376</v>
+        <v>5.835079519330253</v>
       </c>
       <c r="J48">
-        <v>1.275672503839853</v>
+        <v>4.079126702001746</v>
       </c>
       <c r="K48">
-        <v>1.689539724236028</v>
+        <v>5.402520303980027</v>
       </c>
       <c r="L48">
-        <v>6.649020914600606</v>
+        <v>21.26109849767547</v>
       </c>
       <c r="M48">
-        <v>4.183914298504643</v>
+        <v>13.37860342881525</v>
       </c>
       <c r="N48">
-        <v>0.08953372561597089</v>
+        <v>0.2862955890249821</v>
       </c>
       <c r="O48">
-        <v>0.3721074432680683</v>
+        <v>1.189861350212914</v>
       </c>
       <c r="P48">
-        <v>32.96077819898372</v>
+        <v>105.3963223833116</v>
       </c>
     </row>
     <row r="49" spans="1:16">
@@ -2746,49 +2746,49 @@
         <v>2024121809</v>
       </c>
       <c r="B49">
-        <v>1.36820351524152</v>
+        <v>4.37500649735332</v>
       </c>
       <c r="C49">
-        <v>6.153558884479253</v>
+        <v>19.6767950100542</v>
       </c>
       <c r="D49">
-        <v>0.003884763232112393</v>
+        <v>0.01242202946552935</v>
       </c>
       <c r="E49">
-        <v>0.3695101760673983</v>
+        <v>1.181556254697728</v>
       </c>
       <c r="F49">
-        <v>3.947547729502664</v>
+        <v>12.62279096113698</v>
       </c>
       <c r="G49">
-        <v>4.560857336851015</v>
+        <v>14.58392721546431</v>
       </c>
       <c r="H49">
-        <v>0.2462101237277315</v>
+        <v>0.7872884984021138</v>
       </c>
       <c r="I49">
-        <v>1.824814732250376</v>
+        <v>5.835079519330253</v>
       </c>
       <c r="J49">
-        <v>1.431877300228407</v>
+        <v>4.578611604287673</v>
       </c>
       <c r="K49">
-        <v>1.896422139448602</v>
+        <v>6.06405340242656</v>
       </c>
       <c r="L49">
-        <v>8.847044357443789</v>
+        <v>28.28956081095661</v>
       </c>
       <c r="M49">
-        <v>5.567026463299568</v>
+        <v>17.8012822482583</v>
       </c>
       <c r="N49">
-        <v>0.1261611588225044</v>
+        <v>0.4034165118079293</v>
       </c>
       <c r="O49">
-        <v>0.5243332155140963</v>
+        <v>1.676622811663651</v>
       </c>
       <c r="P49">
-        <v>36.86745189610904</v>
+        <v>117.8884133753052</v>
       </c>
     </row>
   </sheetData>
